--- a/relevant_full.xlsx
+++ b/relevant_full.xlsx
@@ -7693,31 +7693,31 @@
         <v>5.861174</v>
       </c>
       <c r="AF57" t="n">
-        <v>901.7037</v>
+        <v>901.7491</v>
       </c>
       <c r="AG57" t="n">
-        <v>-1.956489</v>
+        <v>-1.951547</v>
       </c>
       <c r="AH57" t="n">
-        <v>1.15687</v>
+        <v>1.161969</v>
       </c>
       <c r="AI57" t="n">
         <v>818.3243</v>
       </c>
       <c r="AJ57" t="n">
-        <v>959.7819</v>
+        <v>959.7933</v>
       </c>
       <c r="AK57" t="n">
-        <v>-1.616597</v>
+        <v>-1.615417</v>
       </c>
       <c r="AL57" t="n">
-        <v>1.837639</v>
+        <v>1.83886</v>
       </c>
       <c r="AM57" t="n">
         <v>893.3445</v>
       </c>
       <c r="AN57" t="n">
-        <v>-58.07817</v>
+        <v>-58.04423</v>
       </c>
       <c r="AO57" t="n">
         <v>-75.02021000000001</v>
@@ -7808,31 +7808,31 @@
         <v>5.724082</v>
       </c>
       <c r="AF58" t="n">
-        <v>895.8306</v>
+        <v>895.8427</v>
       </c>
       <c r="AG58" t="n">
-        <v>-0.6513255999999999</v>
+        <v>-0.6549990999999999</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.056299</v>
+        <v>1.057656</v>
       </c>
       <c r="AI58" t="n">
         <v>919.4401</v>
       </c>
       <c r="AJ58" t="n">
-        <v>951.0906</v>
+        <v>951.0094</v>
       </c>
       <c r="AK58" t="n">
-        <v>-0.9055488</v>
+        <v>-0.9151892</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.717299</v>
+        <v>0.7087085</v>
       </c>
       <c r="AM58" t="n">
         <v>983.1827</v>
       </c>
       <c r="AN58" t="n">
-        <v>-55.25991</v>
+        <v>-55.16676</v>
       </c>
       <c r="AO58" t="n">
         <v>-63.74257</v>
@@ -7935,31 +7935,31 @@
         <v>5.836092</v>
       </c>
       <c r="AF59" t="n">
-        <v>887.9186</v>
+        <v>887.9016</v>
       </c>
       <c r="AG59" t="n">
-        <v>-0.8832062000000001</v>
+        <v>-0.8864407</v>
       </c>
       <c r="AH59" t="n">
-        <v>-2.142596</v>
+        <v>-2.144475</v>
       </c>
       <c r="AI59" t="n">
         <v>951.9283</v>
       </c>
       <c r="AJ59" t="n">
-        <v>932.3258</v>
+        <v>932.3599</v>
       </c>
       <c r="AK59" t="n">
-        <v>-1.972973</v>
+        <v>-1.961029</v>
       </c>
       <c r="AL59" t="n">
-        <v>-2.748231</v>
+        <v>-2.744678</v>
       </c>
       <c r="AM59" t="n">
         <v>999.2014</v>
       </c>
       <c r="AN59" t="n">
-        <v>-44.40718</v>
+        <v>-44.45829</v>
       </c>
       <c r="AO59" t="n">
         <v>-47.27309</v>
@@ -8062,31 +8062,31 @@
         <v>5.939393</v>
       </c>
       <c r="AF60" t="n">
-        <v>862.6334000000001</v>
+        <v>862.657</v>
       </c>
       <c r="AG60" t="n">
-        <v>-2.847693</v>
+        <v>-2.843165</v>
       </c>
       <c r="AH60" t="n">
-        <v>-4.063601</v>
+        <v>-4.060973</v>
       </c>
       <c r="AI60" t="n">
         <v>863.2028</v>
       </c>
       <c r="AJ60" t="n">
-        <v>914.3638999999999</v>
+        <v>914.3708</v>
       </c>
       <c r="AK60" t="n">
-        <v>-1.92657</v>
+        <v>-1.929409</v>
       </c>
       <c r="AL60" t="n">
-        <v>-3.697649</v>
+        <v>-3.696918</v>
       </c>
       <c r="AM60" t="n">
         <v>908.9932</v>
       </c>
       <c r="AN60" t="n">
-        <v>-51.73046</v>
+        <v>-51.71377</v>
       </c>
       <c r="AO60" t="n">
         <v>-45.79038</v>
@@ -8189,31 +8189,31 @@
         <v>5.880872</v>
       </c>
       <c r="AF61" t="n">
-        <v>859.2003999999999</v>
+        <v>859.1624</v>
       </c>
       <c r="AG61" t="n">
-        <v>-0.3979715</v>
+        <v>-0.4051063</v>
       </c>
       <c r="AH61" t="n">
-        <v>-4.830683</v>
+        <v>-4.834893</v>
       </c>
       <c r="AI61" t="n">
         <v>844.5399</v>
       </c>
       <c r="AJ61" t="n">
-        <v>903.0764</v>
+        <v>902.9605</v>
       </c>
       <c r="AK61" t="n">
-        <v>-1.234464</v>
+        <v>-1.247889</v>
       </c>
       <c r="AL61" t="n">
-        <v>-5.379146</v>
+        <v>-5.39129</v>
       </c>
       <c r="AM61" t="n">
         <v>895.2030999999999</v>
       </c>
       <c r="AN61" t="n">
-        <v>-43.87601</v>
+        <v>-43.79812</v>
       </c>
       <c r="AO61" t="n">
         <v>-50.66329</v>
@@ -8316,31 +8316,31 @@
         <v>6.46285</v>
       </c>
       <c r="AF62" t="n">
-        <v>820.1011</v>
+        <v>820.1407</v>
       </c>
       <c r="AG62" t="n">
-        <v>-4.550661</v>
+        <v>-4.541824</v>
       </c>
       <c r="AH62" t="n">
-        <v>-9.376004999999999</v>
+        <v>-9.371625</v>
       </c>
       <c r="AI62" t="n">
         <v>766.4393</v>
       </c>
       <c r="AJ62" t="n">
-        <v>861.7471</v>
+        <v>861.3324</v>
       </c>
       <c r="AK62" t="n">
-        <v>-4.576498</v>
+        <v>-4.61018</v>
       </c>
       <c r="AL62" t="n">
-        <v>-10.65307</v>
+        <v>-10.69607</v>
       </c>
       <c r="AM62" t="n">
         <v>828.3257</v>
       </c>
       <c r="AN62" t="n">
-        <v>-41.64603</v>
+        <v>-41.19166</v>
       </c>
       <c r="AO62" t="n">
         <v>-61.88643</v>
@@ -8443,31 +8443,31 @@
         <v>6.376246</v>
       </c>
       <c r="AF63" t="n">
-        <v>808.0632000000001</v>
+        <v>808.062</v>
       </c>
       <c r="AG63" t="n">
-        <v>-1.467854</v>
+        <v>-1.472771</v>
       </c>
       <c r="AH63" t="n">
-        <v>-11.42843</v>
+        <v>-11.42857</v>
       </c>
       <c r="AI63" t="n">
         <v>772.2086</v>
       </c>
       <c r="AJ63" t="n">
-        <v>853.5141</v>
+        <v>853.5117</v>
       </c>
       <c r="AK63" t="n">
-        <v>-0.9553898</v>
+        <v>-0.9079728</v>
       </c>
       <c r="AL63" t="n">
-        <v>-11.81588</v>
+        <v>-11.81612</v>
       </c>
       <c r="AM63" t="n">
         <v>796.9851</v>
       </c>
       <c r="AN63" t="n">
-        <v>-45.45088</v>
+        <v>-45.44979</v>
       </c>
       <c r="AO63" t="n">
         <v>-24.77649</v>
@@ -8570,31 +8570,31 @@
         <v>6.116638</v>
       </c>
       <c r="AF64" t="n">
-        <v>791.4788</v>
+        <v>791.4756</v>
       </c>
       <c r="AG64" t="n">
-        <v>-2.052359</v>
+        <v>-2.052604</v>
       </c>
       <c r="AH64" t="n">
-        <v>-13.09166</v>
+        <v>-13.09201</v>
       </c>
       <c r="AI64" t="n">
         <v>847.4133</v>
       </c>
       <c r="AJ64" t="n">
-        <v>851.2102</v>
+        <v>851.0475</v>
       </c>
       <c r="AK64" t="n">
-        <v>-0.2699263</v>
+        <v>-0.2887118</v>
       </c>
       <c r="AL64" t="n">
-        <v>-12.72658</v>
+        <v>-12.74326</v>
       </c>
       <c r="AM64" t="n">
         <v>890.1144</v>
       </c>
       <c r="AN64" t="n">
-        <v>-59.73137</v>
+        <v>-59.57191</v>
       </c>
       <c r="AO64" t="n">
         <v>-42.70119</v>
@@ -8697,31 +8697,31 @@
         <v>5.863453</v>
       </c>
       <c r="AF65" t="n">
-        <v>797.4877</v>
+        <v>797.5056</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.7591942</v>
+        <v>0.7618579</v>
       </c>
       <c r="AH65" t="n">
-        <v>-13.41128</v>
+        <v>-13.40934</v>
       </c>
       <c r="AI65" t="n">
         <v>800.8896</v>
       </c>
       <c r="AJ65" t="n">
-        <v>845.0094</v>
+        <v>845.1432</v>
       </c>
       <c r="AK65" t="n">
-        <v>-0.7284724</v>
+        <v>-0.6937729</v>
       </c>
       <c r="AL65" t="n">
-        <v>-13.59341</v>
+        <v>-13.57973</v>
       </c>
       <c r="AM65" t="n">
         <v>844.4258</v>
       </c>
       <c r="AN65" t="n">
-        <v>-47.52168</v>
+        <v>-47.63766</v>
       </c>
       <c r="AO65" t="n">
         <v>-43.53617</v>
@@ -8824,31 +8824,31 @@
         <v>5.677384</v>
       </c>
       <c r="AF66" t="n">
-        <v>807.0805</v>
+        <v>807.0798</v>
       </c>
       <c r="AG66" t="n">
-        <v>1.202876</v>
+        <v>1.200521</v>
       </c>
       <c r="AH66" t="n">
-        <v>-12.22434</v>
+        <v>-12.22442</v>
       </c>
       <c r="AI66" t="n">
         <v>784.3561999999999</v>
       </c>
       <c r="AJ66" t="n">
-        <v>852.8537</v>
+        <v>853.2372</v>
       </c>
       <c r="AK66" t="n">
-        <v>0.9283128</v>
+        <v>0.9577122</v>
       </c>
       <c r="AL66" t="n">
-        <v>-12.50002</v>
+        <v>-12.46068</v>
       </c>
       <c r="AM66" t="n">
         <v>827.0222</v>
       </c>
       <c r="AN66" t="n">
-        <v>-45.77322</v>
+        <v>-46.15748</v>
       </c>
       <c r="AO66" t="n">
         <v>-42.666</v>
@@ -8951,31 +8951,31 @@
         <v>5.414565</v>
       </c>
       <c r="AF67" t="n">
-        <v>814.4728</v>
+        <v>814.4353</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.9159335</v>
+        <v>0.911375</v>
       </c>
       <c r="AH67" t="n">
-        <v>-10.29458</v>
+        <v>-10.29872</v>
       </c>
       <c r="AI67" t="n">
         <v>850.7483</v>
       </c>
       <c r="AJ67" t="n">
-        <v>859.7854</v>
+        <v>859.7096</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.8127613</v>
+        <v>0.7585673000000001</v>
       </c>
       <c r="AL67" t="n">
-        <v>-11.36595</v>
+        <v>-11.37376</v>
       </c>
       <c r="AM67" t="n">
         <v>888.7071999999999</v>
       </c>
       <c r="AN67" t="n">
-        <v>-45.31256</v>
+        <v>-45.27433</v>
       </c>
       <c r="AO67" t="n">
         <v>-37.95884</v>
@@ -9078,31 +9078,31 @@
         <v>5.440058</v>
       </c>
       <c r="AF68" t="n">
-        <v>802.8671000000001</v>
+        <v>802.8592</v>
       </c>
       <c r="AG68" t="n">
-        <v>-1.424931</v>
+        <v>-1.421364</v>
       </c>
       <c r="AH68" t="n">
-        <v>-12.70312</v>
+        <v>-12.70399</v>
       </c>
       <c r="AI68" t="n">
         <v>819.8018</v>
       </c>
       <c r="AJ68" t="n">
-        <v>847.4854</v>
+        <v>847.7226000000001</v>
       </c>
       <c r="AK68" t="n">
-        <v>-1.430587</v>
+        <v>-1.394308</v>
       </c>
       <c r="AL68" t="n">
-        <v>-13.12766</v>
+        <v>-13.10334</v>
       </c>
       <c r="AM68" t="n">
         <v>869.4648999999999</v>
       </c>
       <c r="AN68" t="n">
-        <v>-44.61826</v>
+        <v>-44.86342</v>
       </c>
       <c r="AO68" t="n">
         <v>-49.66312</v>
@@ -9205,31 +9205,31 @@
         <v>5.38003</v>
       </c>
       <c r="AF69" t="n">
-        <v>786.7372</v>
+        <v>786.7786</v>
       </c>
       <c r="AG69" t="n">
-        <v>-2.009039</v>
+        <v>-2.002914</v>
       </c>
       <c r="AH69" t="n">
-        <v>-12.74992</v>
+        <v>-12.74972</v>
       </c>
       <c r="AI69" t="n">
         <v>713.765</v>
       </c>
       <c r="AJ69" t="n">
-        <v>840.4224</v>
+        <v>840.4424</v>
       </c>
       <c r="AK69" t="n">
-        <v>-0.8334103</v>
+        <v>-0.8587976</v>
       </c>
       <c r="AL69" t="n">
-        <v>-12.4361</v>
+        <v>-12.43507</v>
       </c>
       <c r="AM69" t="n">
         <v>789.0393</v>
       </c>
       <c r="AN69" t="n">
-        <v>-53.68515</v>
+        <v>-53.66378</v>
       </c>
       <c r="AO69" t="n">
         <v>-75.27433000000001</v>
@@ -9332,31 +9332,31 @@
         <v>5.385487</v>
       </c>
       <c r="AF70" t="n">
-        <v>794.2056</v>
+        <v>794.2026</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.9492819</v>
+        <v>0.9435955</v>
       </c>
       <c r="AH70" t="n">
-        <v>-11.34423</v>
+        <v>-11.34575</v>
       </c>
       <c r="AI70" t="n">
         <v>816.9121</v>
       </c>
       <c r="AJ70" t="n">
-        <v>841.4102</v>
+        <v>841.5119999999999</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.117533</v>
+        <v>0.1272701</v>
       </c>
       <c r="AL70" t="n">
-        <v>-11.53207</v>
+        <v>-11.51381</v>
       </c>
       <c r="AM70" t="n">
         <v>867.5947</v>
       </c>
       <c r="AN70" t="n">
-        <v>-47.20457</v>
+        <v>-47.30941</v>
       </c>
       <c r="AO70" t="n">
         <v>-50.6826</v>
@@ -9459,31 +9459,31 @@
         <v>5.362859</v>
       </c>
       <c r="AF71" t="n">
-        <v>795.5062</v>
+        <v>795.5088</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.1637648</v>
+        <v>0.164461</v>
       </c>
       <c r="AH71" t="n">
-        <v>-10.40776</v>
+        <v>-10.40575</v>
       </c>
       <c r="AI71" t="n">
         <v>840.9304</v>
       </c>
       <c r="AJ71" t="n">
-        <v>845.6557</v>
+        <v>845.5912</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.5045756</v>
+        <v>0.4847435</v>
       </c>
       <c r="AL71" t="n">
-        <v>-9.296117000000001</v>
+        <v>-9.306349000000001</v>
       </c>
       <c r="AM71" t="n">
         <v>888.5063</v>
       </c>
       <c r="AN71" t="n">
-        <v>-50.14949</v>
+        <v>-50.08243</v>
       </c>
       <c r="AO71" t="n">
         <v>-47.57593</v>
@@ -9586,31 +9586,31 @@
         <v>5.373543</v>
       </c>
       <c r="AF72" t="n">
-        <v>766.7947</v>
+        <v>766.7905</v>
       </c>
       <c r="AG72" t="n">
-        <v>-3.609208</v>
+        <v>-3.610049</v>
       </c>
       <c r="AH72" t="n">
-        <v>-11.11001</v>
+        <v>-11.11294</v>
       </c>
       <c r="AI72" t="n">
         <v>782.0966</v>
       </c>
       <c r="AJ72" t="n">
-        <v>813.4016</v>
+        <v>813.3085</v>
       </c>
       <c r="AK72" t="n">
-        <v>-3.814096</v>
+        <v>-3.81776</v>
       </c>
       <c r="AL72" t="n">
-        <v>-11.04181</v>
+        <v>-11.05266</v>
       </c>
       <c r="AM72" t="n">
         <v>831.5798</v>
       </c>
       <c r="AN72" t="n">
-        <v>-46.60685</v>
+        <v>-46.51804</v>
       </c>
       <c r="AO72" t="n">
         <v>-49.48323</v>
@@ -9713,31 +9713,31 @@
         <v>5.543457</v>
       </c>
       <c r="AF73" t="n">
-        <v>765.1097</v>
+        <v>765.1025</v>
       </c>
       <c r="AG73" t="n">
-        <v>-0.2197469</v>
+        <v>-0.2201354</v>
       </c>
       <c r="AH73" t="n">
-        <v>-10.95096</v>
+        <v>-10.94785</v>
       </c>
       <c r="AI73" t="n">
         <v>760.6636999999999</v>
       </c>
       <c r="AJ73" t="n">
-        <v>806.6903</v>
+        <v>806.6425</v>
       </c>
       <c r="AK73" t="n">
-        <v>-0.8250874</v>
+        <v>-0.8196266</v>
       </c>
       <c r="AL73" t="n">
-        <v>-10.67308</v>
+        <v>-10.66691</v>
       </c>
       <c r="AM73" t="n">
         <v>804.4672</v>
       </c>
       <c r="AN73" t="n">
-        <v>-41.58058</v>
+        <v>-41.53993</v>
       </c>
       <c r="AO73" t="n">
         <v>-43.80354</v>
@@ -9840,31 +9840,31 @@
         <v>5.907959</v>
       </c>
       <c r="AF74" t="n">
-        <v>752.9337</v>
+        <v>752.9478</v>
       </c>
       <c r="AG74" t="n">
-        <v>-1.591417</v>
+        <v>-1.588642</v>
       </c>
       <c r="AH74" t="n">
-        <v>-8.190143000000001</v>
+        <v>-8.192854000000001</v>
       </c>
       <c r="AI74" t="n">
         <v>687.9603</v>
       </c>
       <c r="AJ74" t="n">
-        <v>796.2773999999999</v>
+        <v>795.979</v>
       </c>
       <c r="AK74" t="n">
-        <v>-1.290818</v>
+        <v>-1.321955</v>
       </c>
       <c r="AL74" t="n">
-        <v>-7.597324</v>
+        <v>-7.587474</v>
       </c>
       <c r="AM74" t="n">
         <v>747.4161</v>
       </c>
       <c r="AN74" t="n">
-        <v>-43.34376</v>
+        <v>-43.03121</v>
       </c>
       <c r="AO74" t="n">
         <v>-59.45578</v>
@@ -9967,31 +9967,31 @@
         <v>5.913677</v>
       </c>
       <c r="AF75" t="n">
-        <v>769.7335</v>
+        <v>769.7249</v>
       </c>
       <c r="AG75" t="n">
-        <v>2.231247</v>
+        <v>2.228195</v>
       </c>
       <c r="AH75" t="n">
-        <v>-4.74341</v>
+        <v>-4.744314</v>
       </c>
       <c r="AI75" t="n">
         <v>752.2479</v>
       </c>
       <c r="AJ75" t="n">
-        <v>819.8384</v>
+        <v>819.785</v>
       </c>
       <c r="AK75" t="n">
-        <v>2.958897</v>
+        <v>2.990779</v>
       </c>
       <c r="AL75" t="n">
-        <v>-3.945529</v>
+        <v>-3.951526</v>
       </c>
       <c r="AM75" t="n">
         <v>788.3342</v>
       </c>
       <c r="AN75" t="n">
-        <v>-50.10498</v>
+        <v>-50.06004</v>
       </c>
       <c r="AO75" t="n">
         <v>-36.08627</v>
@@ -10094,31 +10094,31 @@
         <v>5.741575</v>
       </c>
       <c r="AF76" t="n">
-        <v>771.3511</v>
+        <v>771.3643</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.2101638</v>
+        <v>0.2129776</v>
       </c>
       <c r="AH76" t="n">
-        <v>-2.543049</v>
+        <v>-2.540992</v>
       </c>
       <c r="AI76" t="n">
         <v>824.0169</v>
       </c>
       <c r="AJ76" t="n">
-        <v>803.0853</v>
+        <v>803.0697</v>
       </c>
       <c r="AK76" t="n">
-        <v>-2.043465</v>
+        <v>-2.038986</v>
       </c>
       <c r="AL76" t="n">
-        <v>-5.653703</v>
+        <v>-5.637506</v>
       </c>
       <c r="AM76" t="n">
         <v>840.6386</v>
       </c>
       <c r="AN76" t="n">
-        <v>-31.73417</v>
+        <v>-31.7054</v>
       </c>
       <c r="AO76" t="n">
         <v>-16.62169</v>
@@ -10221,31 +10221,31 @@
         <v>5.408871</v>
       </c>
       <c r="AF77" t="n">
-        <v>790.735</v>
+        <v>790.7396</v>
       </c>
       <c r="AG77" t="n">
-        <v>2.51298</v>
+        <v>2.511821</v>
       </c>
       <c r="AH77" t="n">
-        <v>-0.8467413</v>
+        <v>-0.8483915</v>
       </c>
       <c r="AI77" t="n">
         <v>801.7755</v>
       </c>
       <c r="AJ77" t="n">
-        <v>820.5626999999999</v>
+        <v>820.5723</v>
       </c>
       <c r="AK77" t="n">
-        <v>2.176279</v>
+        <v>2.179468</v>
       </c>
       <c r="AL77" t="n">
-        <v>-2.893067</v>
+        <v>-2.907302</v>
       </c>
       <c r="AM77" t="n">
         <v>818.8111</v>
       </c>
       <c r="AN77" t="n">
-        <v>-29.82765</v>
+        <v>-29.83277</v>
       </c>
       <c r="AO77" t="n">
         <v>-17.03558</v>
@@ -10348,31 +10348,31 @@
         <v>5.166828</v>
       </c>
       <c r="AF78" t="n">
-        <v>781.933</v>
+        <v>781.9213999999999</v>
       </c>
       <c r="AG78" t="n">
-        <v>-1.113143</v>
+        <v>-1.11517</v>
       </c>
       <c r="AH78" t="n">
-        <v>-3.115855</v>
+        <v>-3.117199</v>
       </c>
       <c r="AI78" t="n">
         <v>780.627</v>
       </c>
       <c r="AJ78" t="n">
-        <v>817.2864</v>
+        <v>817.6215999999999</v>
       </c>
       <c r="AK78" t="n">
-        <v>-0.3992748</v>
+        <v>-0.3595905</v>
       </c>
       <c r="AL78" t="n">
-        <v>-4.170389</v>
+        <v>-4.174173</v>
       </c>
       <c r="AM78" t="n">
         <v>823.4048</v>
       </c>
       <c r="AN78" t="n">
-        <v>-35.35336</v>
+        <v>-35.70016</v>
       </c>
       <c r="AO78" t="n">
         <v>-42.77787</v>
@@ -10475,31 +10475,31 @@
         <v>5.112021</v>
       </c>
       <c r="AF79" t="n">
-        <v>795.7346</v>
+        <v>795.7318</v>
       </c>
       <c r="AG79" t="n">
-        <v>1.76505</v>
+        <v>1.766201</v>
       </c>
       <c r="AH79" t="n">
-        <v>-2.300663</v>
+        <v>-2.296499</v>
       </c>
       <c r="AI79" t="n">
         <v>834.6341</v>
       </c>
       <c r="AJ79" t="n">
-        <v>836.1554</v>
+        <v>836.2906</v>
       </c>
       <c r="AK79" t="n">
-        <v>2.308741</v>
+        <v>2.283323</v>
       </c>
       <c r="AL79" t="n">
-        <v>-2.748356</v>
+        <v>-2.724064</v>
       </c>
       <c r="AM79" t="n">
         <v>863.1818</v>
       </c>
       <c r="AN79" t="n">
-        <v>-40.42088</v>
+        <v>-40.5588</v>
       </c>
       <c r="AO79" t="n">
         <v>-28.54763</v>
@@ -10602,31 +10602,31 @@
         <v>5.126959</v>
       </c>
       <c r="AF80" t="n">
-        <v>780.1213</v>
+        <v>780.1229</v>
       </c>
       <c r="AG80" t="n">
-        <v>-1.962112</v>
+        <v>-1.96157</v>
       </c>
       <c r="AH80" t="n">
-        <v>-2.833071</v>
+        <v>-2.83191</v>
       </c>
       <c r="AI80" t="n">
         <v>759.8484</v>
       </c>
       <c r="AJ80" t="n">
-        <v>822.6108</v>
+        <v>822.7305</v>
       </c>
       <c r="AK80" t="n">
-        <v>-1.619865</v>
+        <v>-1.62146</v>
       </c>
       <c r="AL80" t="n">
-        <v>-2.935103</v>
+        <v>-2.948153</v>
       </c>
       <c r="AM80" t="n">
         <v>800.9478</v>
       </c>
       <c r="AN80" t="n">
-        <v>-42.48949</v>
+        <v>-42.60751</v>
       </c>
       <c r="AO80" t="n">
         <v>-41.09935</v>
@@ -10729,31 +10729,31 @@
         <v>5.127629</v>
       </c>
       <c r="AF81" t="n">
-        <v>800.5921</v>
+        <v>800.5726</v>
       </c>
       <c r="AG81" t="n">
-        <v>2.624053</v>
+        <v>2.621336</v>
       </c>
       <c r="AH81" t="n">
-        <v>1.761059</v>
+        <v>1.753221</v>
       </c>
       <c r="AI81" t="n">
         <v>753.0986</v>
       </c>
       <c r="AJ81" t="n">
-        <v>842.9512999999999</v>
+        <v>842.9257</v>
       </c>
       <c r="AK81" t="n">
-        <v>2.472672</v>
+        <v>2.454656</v>
       </c>
       <c r="AL81" t="n">
-        <v>0.3009116</v>
+        <v>0.2954714</v>
       </c>
       <c r="AM81" t="n">
         <v>826.2401</v>
       </c>
       <c r="AN81" t="n">
-        <v>-42.35917</v>
+        <v>-42.35308</v>
       </c>
       <c r="AO81" t="n">
         <v>-73.14153</v>
@@ -10856,31 +10856,31 @@
         <v>5.142585</v>
       </c>
       <c r="AF82" t="n">
-        <v>802.7437</v>
+        <v>802.7614</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.2687436</v>
+        <v>0.2734056</v>
       </c>
       <c r="AH82" t="n">
-        <v>1.075049</v>
+        <v>1.077656</v>
       </c>
       <c r="AI82" t="n">
         <v>824.2313</v>
       </c>
       <c r="AJ82" t="n">
-        <v>843.2994</v>
+        <v>843.2778</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.04129306</v>
+        <v>0.04177434</v>
       </c>
       <c r="AL82" t="n">
-        <v>0.224532</v>
+        <v>0.209832</v>
       </c>
       <c r="AM82" t="n">
         <v>864.0361</v>
       </c>
       <c r="AN82" t="n">
-        <v>-40.55571</v>
+        <v>-40.51639</v>
       </c>
       <c r="AO82" t="n">
         <v>-39.80475</v>
@@ -10983,31 +10983,31 @@
         <v>5.084426</v>
       </c>
       <c r="AF83" t="n">
-        <v>791.2781</v>
+        <v>791.2667</v>
       </c>
       <c r="AG83" t="n">
-        <v>-1.42829</v>
+        <v>-1.431893</v>
       </c>
       <c r="AH83" t="n">
-        <v>-0.5314906</v>
+        <v>-0.5332513</v>
       </c>
       <c r="AI83" t="n">
         <v>810.2995</v>
       </c>
       <c r="AJ83" t="n">
-        <v>831.0414</v>
+        <v>830.9547</v>
       </c>
       <c r="AK83" t="n">
-        <v>-1.453568</v>
+        <v>-1.461338</v>
       </c>
       <c r="AL83" t="n">
-        <v>-1.728156</v>
+        <v>-1.730925</v>
       </c>
       <c r="AM83" t="n">
         <v>850.2078</v>
       </c>
       <c r="AN83" t="n">
-        <v>-39.76328</v>
+        <v>-39.68793</v>
       </c>
       <c r="AO83" t="n">
         <v>-39.90829</v>
@@ -11110,31 +11110,31 @@
         <v>5.05967</v>
       </c>
       <c r="AF84" t="n">
-        <v>799.4974</v>
+        <v>799.4768</v>
       </c>
       <c r="AG84" t="n">
-        <v>1.038729</v>
+        <v>1.037591</v>
       </c>
       <c r="AH84" t="n">
-        <v>4.264853</v>
+        <v>4.262743</v>
       </c>
       <c r="AI84" t="n">
         <v>830.7059</v>
       </c>
       <c r="AJ84" t="n">
-        <v>834.7968</v>
+        <v>834.7910000000001</v>
       </c>
       <c r="AK84" t="n">
-        <v>0.4518789</v>
+        <v>0.4616758</v>
       </c>
       <c r="AL84" t="n">
-        <v>2.630333</v>
+        <v>2.64136</v>
       </c>
       <c r="AM84" t="n">
         <v>869.1025</v>
       </c>
       <c r="AN84" t="n">
-        <v>-35.29935</v>
+        <v>-35.31414</v>
       </c>
       <c r="AO84" t="n">
         <v>-38.39664</v>
@@ -11237,31 +11237,31 @@
         <v>5.214536</v>
       </c>
       <c r="AF85" t="n">
-        <v>802.0241</v>
+        <v>802.0376</v>
       </c>
       <c r="AG85" t="n">
-        <v>0.3160405</v>
+        <v>0.3203055</v>
       </c>
       <c r="AH85" t="n">
-        <v>4.824721</v>
+        <v>4.827464</v>
       </c>
       <c r="AI85" t="n">
         <v>797.9934</v>
       </c>
       <c r="AJ85" t="n">
-        <v>839.4818</v>
+        <v>839.3892</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.5612152</v>
+        <v>0.5508237</v>
       </c>
       <c r="AL85" t="n">
-        <v>4.064937</v>
+        <v>4.059633</v>
       </c>
       <c r="AM85" t="n">
         <v>821.5069999999999</v>
       </c>
       <c r="AN85" t="n">
-        <v>-37.45762</v>
+        <v>-37.3516</v>
       </c>
       <c r="AO85" t="n">
         <v>-23.51351</v>
@@ -11364,31 +11364,31 @@
         <v>5.631397</v>
       </c>
       <c r="AF86" t="n">
-        <v>807.5209</v>
+        <v>807.5228</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.6853629</v>
+        <v>0.6839046</v>
       </c>
       <c r="AH86" t="n">
-        <v>7.249945</v>
+        <v>7.248174</v>
       </c>
       <c r="AI86" t="n">
         <v>759.9514</v>
       </c>
       <c r="AJ86" t="n">
-        <v>858.8344</v>
+        <v>858.4299</v>
       </c>
       <c r="AK86" t="n">
-        <v>2.305301</v>
+        <v>2.268395</v>
       </c>
       <c r="AL86" t="n">
-        <v>7.856174</v>
+        <v>7.84579</v>
       </c>
       <c r="AM86" t="n">
         <v>838.8849</v>
       </c>
       <c r="AN86" t="n">
-        <v>-51.31343</v>
+        <v>-50.90709</v>
       </c>
       <c r="AO86" t="n">
         <v>-78.93353</v>
@@ -11491,31 +11491,31 @@
         <v>5.541735</v>
       </c>
       <c r="AF87" t="n">
-        <v>822.1866</v>
+        <v>822.1879</v>
       </c>
       <c r="AG87" t="n">
-        <v>1.816146</v>
+        <v>1.816071</v>
       </c>
       <c r="AH87" t="n">
-        <v>6.814466</v>
+        <v>6.815812</v>
       </c>
       <c r="AI87" t="n">
         <v>786.4114</v>
       </c>
       <c r="AJ87" t="n">
-        <v>862.1336</v>
+        <v>862.1737000000001</v>
       </c>
       <c r="AK87" t="n">
-        <v>0.3841572</v>
+        <v>0.4361308</v>
       </c>
       <c r="AL87" t="n">
-        <v>5.158966</v>
+        <v>5.170715</v>
       </c>
       <c r="AM87" t="n">
         <v>806.4745</v>
       </c>
       <c r="AN87" t="n">
-        <v>-39.94695</v>
+        <v>-39.98578</v>
       </c>
       <c r="AO87" t="n">
         <v>-20.06312</v>
@@ -11618,31 +11618,31 @@
         <v>5.291353</v>
       </c>
       <c r="AF88" t="n">
-        <v>830.3527</v>
+        <v>830.36</v>
       </c>
       <c r="AG88" t="n">
-        <v>0.993207</v>
+        <v>0.9939362</v>
       </c>
       <c r="AH88" t="n">
-        <v>7.649115</v>
+        <v>7.648226</v>
       </c>
       <c r="AI88" t="n">
         <v>914.3369</v>
       </c>
       <c r="AJ88" t="n">
-        <v>871.3176999999999</v>
+        <v>871.2796</v>
       </c>
       <c r="AK88" t="n">
-        <v>1.065277</v>
+        <v>1.056153</v>
       </c>
       <c r="AL88" t="n">
-        <v>8.496283999999999</v>
+        <v>8.493649</v>
       </c>
       <c r="AM88" t="n">
         <v>934.3732</v>
       </c>
       <c r="AN88" t="n">
-        <v>-40.96505</v>
+        <v>-40.91963</v>
       </c>
       <c r="AO88" t="n">
         <v>-20.03633</v>
@@ -11745,31 +11745,31 @@
         <v>4.906259</v>
       </c>
       <c r="AF89" t="n">
-        <v>827.557</v>
+        <v>827.5968</v>
       </c>
       <c r="AG89" t="n">
-        <v>-0.3366828</v>
+        <v>-0.33277</v>
       </c>
       <c r="AH89" t="n">
-        <v>4.656677</v>
+        <v>4.661106</v>
       </c>
       <c r="AI89" t="n">
         <v>794.449</v>
       </c>
       <c r="AJ89" t="n">
-        <v>872.2153</v>
+        <v>872.325</v>
       </c>
       <c r="AK89" t="n">
-        <v>0.1030194</v>
+        <v>0.1199795</v>
       </c>
       <c r="AL89" t="n">
-        <v>6.294785</v>
+        <v>6.306894</v>
       </c>
       <c r="AM89" t="n">
         <v>827.0939</v>
       </c>
       <c r="AN89" t="n">
-        <v>-44.65833</v>
+        <v>-44.72818</v>
       </c>
       <c r="AO89" t="n">
         <v>-32.64485</v>
@@ -11872,31 +11872,31 @@
         <v>4.762125</v>
       </c>
       <c r="AF90" t="n">
-        <v>853.6704999999999</v>
+        <v>853.6396</v>
       </c>
       <c r="AG90" t="n">
-        <v>3.155484</v>
+        <v>3.146803</v>
       </c>
       <c r="AH90" t="n">
-        <v>9.174369</v>
+        <v>9.172039</v>
       </c>
       <c r="AI90" t="n">
         <v>870.5549</v>
       </c>
       <c r="AJ90" t="n">
-        <v>899.8699</v>
+        <v>900.4405</v>
       </c>
       <c r="AK90" t="n">
-        <v>3.170614</v>
+        <v>3.223055</v>
       </c>
       <c r="AL90" t="n">
-        <v>10.1046</v>
+        <v>10.12924</v>
       </c>
       <c r="AM90" t="n">
         <v>926.7757</v>
       </c>
       <c r="AN90" t="n">
-        <v>-46.19948</v>
+        <v>-46.80085</v>
       </c>
       <c r="AO90" t="n">
         <v>-56.22083</v>
@@ -11999,31 +11999,31 @@
         <v>4.587554</v>
       </c>
       <c r="AF91" t="n">
-        <v>852.9448</v>
+        <v>852.9405</v>
       </c>
       <c r="AG91" t="n">
-        <v>-0.08500111</v>
+        <v>-0.08190273000000001</v>
       </c>
       <c r="AH91" t="n">
-        <v>7.18962</v>
+        <v>7.189444</v>
       </c>
       <c r="AI91" t="n">
         <v>886.1655</v>
       </c>
       <c r="AJ91" t="n">
-        <v>898.7732999999999</v>
+        <v>898.7063000000001</v>
       </c>
       <c r="AK91" t="n">
-        <v>-0.1218635</v>
+        <v>-0.1925931</v>
       </c>
       <c r="AL91" t="n">
-        <v>7.488787</v>
+        <v>7.463399</v>
       </c>
       <c r="AM91" t="n">
         <v>919.5007000000001</v>
       </c>
       <c r="AN91" t="n">
-        <v>-45.82849</v>
+        <v>-45.76581</v>
       </c>
       <c r="AO91" t="n">
         <v>-33.33524</v>
@@ -12126,31 +12126,31 @@
         <v>4.593443</v>
       </c>
       <c r="AF92" t="n">
-        <v>861.8627</v>
+        <v>861.8777</v>
       </c>
       <c r="AG92" t="n">
-        <v>1.045544</v>
+        <v>1.047816</v>
       </c>
       <c r="AH92" t="n">
-        <v>10.47804</v>
+        <v>10.47973</v>
       </c>
       <c r="AI92" t="n">
         <v>839.9923</v>
       </c>
       <c r="AJ92" t="n">
-        <v>916.5582000000001</v>
+        <v>916.6327</v>
       </c>
       <c r="AK92" t="n">
-        <v>1.978802</v>
+        <v>1.99469</v>
       </c>
       <c r="AL92" t="n">
-        <v>11.42064</v>
+        <v>11.41349</v>
       </c>
       <c r="AM92" t="n">
         <v>895.1693</v>
       </c>
       <c r="AN92" t="n">
-        <v>-54.69552</v>
+        <v>-54.75498</v>
       </c>
       <c r="AO92" t="n">
         <v>-55.17699</v>
@@ -12253,31 +12253,31 @@
         <v>4.625633</v>
       </c>
       <c r="AF93" t="n">
-        <v>892.4391000000001</v>
+        <v>892.447</v>
       </c>
       <c r="AG93" t="n">
-        <v>3.547712</v>
+        <v>3.546818</v>
       </c>
       <c r="AH93" t="n">
-        <v>11.47239</v>
+        <v>11.47608</v>
       </c>
       <c r="AI93" t="n">
         <v>841.2651</v>
       </c>
       <c r="AJ93" t="n">
-        <v>933.556</v>
+        <v>933.5862</v>
       </c>
       <c r="AK93" t="n">
-        <v>1.85452</v>
+        <v>1.849539</v>
       </c>
       <c r="AL93" t="n">
-        <v>10.74851</v>
+        <v>10.75546</v>
       </c>
       <c r="AM93" t="n">
         <v>911.9747</v>
       </c>
       <c r="AN93" t="n">
-        <v>-41.11686</v>
+        <v>-41.13922</v>
       </c>
       <c r="AO93" t="n">
         <v>-70.70954999999999</v>
@@ -12380,31 +12380,31 @@
         <v>4.478183</v>
       </c>
       <c r="AF94" t="n">
-        <v>903.4545000000001</v>
+        <v>903.4501</v>
       </c>
       <c r="AG94" t="n">
-        <v>1.234303</v>
+        <v>1.232916</v>
       </c>
       <c r="AH94" t="n">
-        <v>12.54583</v>
+        <v>12.54279</v>
       </c>
       <c r="AI94" t="n">
         <v>913.5261</v>
       </c>
       <c r="AJ94" t="n">
-        <v>945.3348</v>
+        <v>945.3436</v>
       </c>
       <c r="AK94" t="n">
-        <v>1.261709</v>
+        <v>1.259384</v>
       </c>
       <c r="AL94" t="n">
-        <v>12.09955</v>
+        <v>12.10346</v>
       </c>
       <c r="AM94" t="n">
         <v>946.601</v>
       </c>
       <c r="AN94" t="n">
-        <v>-41.88021</v>
+        <v>-41.89353</v>
       </c>
       <c r="AO94" t="n">
         <v>-33.07491</v>
@@ -12507,31 +12507,31 @@
         <v>4.506056</v>
       </c>
       <c r="AF95" t="n">
-        <v>882.2024</v>
+        <v>882.1532</v>
       </c>
       <c r="AG95" t="n">
-        <v>-2.352322</v>
+        <v>-2.357285</v>
       </c>
       <c r="AH95" t="n">
-        <v>11.4908</v>
+        <v>11.4862</v>
       </c>
       <c r="AI95" t="n">
         <v>919.0485</v>
       </c>
       <c r="AJ95" t="n">
-        <v>931.2079</v>
+        <v>930.9105</v>
       </c>
       <c r="AK95" t="n">
-        <v>-1.494373</v>
+        <v>-1.526755</v>
       </c>
       <c r="AL95" t="n">
-        <v>12.05313</v>
+        <v>12.02904</v>
       </c>
       <c r="AM95" t="n">
         <v>979.7119</v>
       </c>
       <c r="AN95" t="n">
-        <v>-49.00554</v>
+        <v>-48.75734</v>
       </c>
       <c r="AO95" t="n">
         <v>-60.66328</v>
@@ -12634,31 +12634,31 @@
         <v>4.498692</v>
       </c>
       <c r="AF96" t="n">
-        <v>907.9296000000001</v>
+        <v>907.9534</v>
       </c>
       <c r="AG96" t="n">
-        <v>2.916248</v>
+        <v>2.924684</v>
       </c>
       <c r="AH96" t="n">
-        <v>13.56255</v>
+        <v>13.56844</v>
       </c>
       <c r="AI96" t="n">
         <v>948.1508</v>
       </c>
       <c r="AJ96" t="n">
-        <v>960.0018</v>
+        <v>960.1011</v>
       </c>
       <c r="AK96" t="n">
-        <v>3.0921</v>
+        <v>3.135703</v>
       </c>
       <c r="AL96" t="n">
-        <v>14.99827</v>
+        <v>15.01096</v>
       </c>
       <c r="AM96" t="n">
         <v>1000.362</v>
       </c>
       <c r="AN96" t="n">
-        <v>-52.0722</v>
+        <v>-52.14774</v>
       </c>
       <c r="AO96" t="n">
         <v>-52.21081</v>
@@ -12761,31 +12761,31 @@
         <v>4.61705</v>
       </c>
       <c r="AF97" t="n">
-        <v>929.1285</v>
+        <v>929.125</v>
       </c>
       <c r="AG97" t="n">
-        <v>2.334865</v>
+        <v>2.331801</v>
       </c>
       <c r="AH97" t="n">
-        <v>15.84795</v>
+        <v>15.84557</v>
       </c>
       <c r="AI97" t="n">
         <v>888.465</v>
       </c>
       <c r="AJ97" t="n">
-        <v>984.3644</v>
+        <v>984.3029</v>
       </c>
       <c r="AK97" t="n">
-        <v>2.537771</v>
+        <v>2.52076</v>
       </c>
       <c r="AL97" t="n">
-        <v>17.25859</v>
+        <v>17.26419</v>
       </c>
       <c r="AM97" t="n">
         <v>933.5634</v>
       </c>
       <c r="AN97" t="n">
-        <v>-55.23592</v>
+        <v>-55.17792</v>
       </c>
       <c r="AO97" t="n">
         <v>-45.09834</v>
@@ -12886,31 +12886,31 @@
         <v>4.970884</v>
       </c>
       <c r="AF98" t="n">
-        <v>946.6832000000001</v>
+        <v>946.6603</v>
       </c>
       <c r="AG98" t="n">
-        <v>1.889369</v>
+        <v>1.887286</v>
       </c>
       <c r="AH98" t="n">
-        <v>17.23327</v>
+        <v>17.23017</v>
       </c>
       <c r="AI98" t="n">
         <v>907.1606</v>
       </c>
       <c r="AJ98" t="n">
-        <v>1003.899</v>
+        <v>1003.586</v>
       </c>
       <c r="AK98" t="n">
-        <v>1.984451</v>
+        <v>1.959069</v>
       </c>
       <c r="AL98" t="n">
-        <v>16.89084</v>
+        <v>16.90951</v>
       </c>
       <c r="AM98" t="n">
         <v>1000.383</v>
       </c>
       <c r="AN98" t="n">
-        <v>-57.21549</v>
+        <v>-56.92585</v>
       </c>
       <c r="AO98" t="n">
         <v>-93.22198</v>
@@ -13011,31 +13011,31 @@
         <v>4.88606</v>
       </c>
       <c r="AF99" t="n">
-        <v>943.477</v>
+        <v>943.4803000000001</v>
       </c>
       <c r="AG99" t="n">
-        <v>-0.3386801</v>
+        <v>-0.3359122</v>
       </c>
       <c r="AH99" t="n">
-        <v>14.75216</v>
+        <v>14.75239</v>
       </c>
       <c r="AI99" t="n">
         <v>900.8069</v>
       </c>
       <c r="AJ99" t="n">
-        <v>1007.398</v>
+        <v>1007.48</v>
       </c>
       <c r="AK99" t="n">
-        <v>0.3486165</v>
+        <v>0.3879502</v>
       </c>
       <c r="AL99" t="n">
-        <v>16.84946</v>
+        <v>16.85343</v>
       </c>
       <c r="AM99" t="n">
         <v>941.8846</v>
       </c>
       <c r="AN99" t="n">
-        <v>-63.92147</v>
+        <v>-63.99921</v>
       </c>
       <c r="AO99" t="n">
         <v>-41.07766</v>
@@ -13136,31 +13136,31 @@
         <v>4.701579</v>
       </c>
       <c r="AF100" t="n">
-        <v>953.8903</v>
+        <v>953.9362</v>
       </c>
       <c r="AG100" t="n">
-        <v>1.103717</v>
+        <v>1.108221</v>
       </c>
       <c r="AH100" t="n">
-        <v>14.87773</v>
+        <v>14.88224</v>
       </c>
       <c r="AI100" t="n">
         <v>1015.819</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1007.877</v>
+        <v>1007.783</v>
       </c>
       <c r="AK100" t="n">
-        <v>0.04750223</v>
+        <v>0.0301534</v>
       </c>
       <c r="AL100" t="n">
-        <v>15.67273</v>
+        <v>15.66704</v>
       </c>
       <c r="AM100" t="n">
         <v>1036.818</v>
       </c>
       <c r="AN100" t="n">
-        <v>-53.98669</v>
+        <v>-53.84716</v>
       </c>
       <c r="AO100" t="n">
         <v>-20.9989</v>
@@ -13261,31 +13261,31 @@
         <v>4.588732</v>
       </c>
       <c r="AF101" t="n">
-        <v>952.0288</v>
+        <v>952.0468</v>
       </c>
       <c r="AG101" t="n">
-        <v>-0.1951462</v>
+        <v>-0.1980603</v>
       </c>
       <c r="AH101" t="n">
-        <v>15.04087</v>
+        <v>15.03752</v>
       </c>
       <c r="AI101" t="n">
         <v>940.665</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1001.475</v>
+        <v>1001.463</v>
       </c>
       <c r="AK101" t="n">
-        <v>-0.6352089</v>
+        <v>-0.627157</v>
       </c>
       <c r="AL101" t="n">
-        <v>14.81968</v>
+        <v>14.80388</v>
       </c>
       <c r="AM101" t="n">
         <v>990.5268</v>
       </c>
       <c r="AN101" t="n">
-        <v>-49.44604</v>
+        <v>-49.41614</v>
       </c>
       <c r="AO101" t="n">
         <v>-49.86177</v>
@@ -13386,31 +13386,31 @@
         <v>4.285627</v>
       </c>
       <c r="AF102" t="n">
-        <v>936.7609</v>
+        <v>936.7745</v>
       </c>
       <c r="AG102" t="n">
-        <v>-1.603719</v>
+        <v>-1.60415</v>
       </c>
       <c r="AH102" t="n">
-        <v>9.733321999999999</v>
+        <v>9.738877</v>
       </c>
       <c r="AI102" t="n">
         <v>948.7157999999999</v>
       </c>
       <c r="AJ102" t="n">
-        <v>992.0203</v>
+        <v>992.7888</v>
       </c>
       <c r="AK102" t="n">
-        <v>-0.9440688</v>
+        <v>-0.8661479</v>
       </c>
       <c r="AL102" t="n">
-        <v>10.24041</v>
+        <v>10.25591</v>
       </c>
       <c r="AM102" t="n">
         <v>1012.984</v>
       </c>
       <c r="AN102" t="n">
-        <v>-55.2593</v>
+        <v>-56.01425</v>
       </c>
       <c r="AO102" t="n">
         <v>-64.2683</v>
@@ -13511,31 +13511,31 @@
         <v>4.29055</v>
       </c>
       <c r="AF103" t="n">
-        <v>940.6036</v>
+        <v>940.5955</v>
       </c>
       <c r="AG103" t="n">
-        <v>0.4102137</v>
+        <v>0.407887</v>
       </c>
       <c r="AH103" t="n">
-        <v>10.2772</v>
+        <v>10.27681</v>
       </c>
       <c r="AI103" t="n">
         <v>969.4461</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1000.524</v>
+        <v>1000.508</v>
       </c>
       <c r="AK103" t="n">
-        <v>0.8572628</v>
+        <v>0.7775183</v>
       </c>
       <c r="AL103" t="n">
-        <v>11.32111</v>
+        <v>11.32757</v>
       </c>
       <c r="AM103" t="n">
         <v>1006.966</v>
       </c>
       <c r="AN103" t="n">
-        <v>-59.9208</v>
+        <v>-59.91238</v>
       </c>
       <c r="AO103" t="n">
         <v>-37.51987</v>
@@ -13636,31 +13636,31 @@
         <v>4.212782</v>
       </c>
       <c r="AF104" t="n">
-        <v>933.1758</v>
+        <v>933.1671</v>
       </c>
       <c r="AG104" t="n">
-        <v>-0.7896838</v>
+        <v>-0.7897537</v>
       </c>
       <c r="AH104" t="n">
-        <v>8.274303</v>
+        <v>8.271407</v>
       </c>
       <c r="AI104" t="n">
         <v>930.3093</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1001.945</v>
+        <v>1001.818</v>
       </c>
       <c r="AK104" t="n">
-        <v>0.1420278</v>
+        <v>0.1308949</v>
       </c>
       <c r="AL104" t="n">
-        <v>9.316072999999999</v>
+        <v>9.293234999999999</v>
       </c>
       <c r="AM104" t="n">
         <v>1006.798</v>
       </c>
       <c r="AN104" t="n">
-        <v>-68.76962</v>
+        <v>-68.65039</v>
       </c>
       <c r="AO104" t="n">
         <v>-76.48917</v>
@@ -13761,31 +13761,31 @@
         <v>4.257829</v>
       </c>
       <c r="AF105" t="n">
-        <v>937.7982</v>
+        <v>937.7836</v>
       </c>
       <c r="AG105" t="n">
-        <v>0.495332</v>
+        <v>0.4947107</v>
       </c>
       <c r="AH105" t="n">
-        <v>5.082592</v>
+        <v>5.08004</v>
       </c>
       <c r="AI105" t="n">
         <v>886.494</v>
       </c>
       <c r="AJ105" t="n">
-        <v>995.0555000000001</v>
+        <v>995.0789</v>
       </c>
       <c r="AK105" t="n">
-        <v>-0.6876552</v>
+        <v>-0.6726428</v>
       </c>
       <c r="AL105" t="n">
-        <v>6.587667</v>
+        <v>6.586719</v>
       </c>
       <c r="AM105" t="n">
         <v>970.8832</v>
       </c>
       <c r="AN105" t="n">
-        <v>-57.25737</v>
+        <v>-57.29525</v>
       </c>
       <c r="AO105" t="n">
         <v>-84.38924</v>
@@ -13886,31 +13886,31 @@
         <v>4.187339</v>
       </c>
       <c r="AF106" t="n">
-        <v>935.6323</v>
+        <v>935.6477</v>
       </c>
       <c r="AG106" t="n">
-        <v>-0.2309593</v>
+        <v>-0.2277583</v>
       </c>
       <c r="AH106" t="n">
-        <v>3.56163</v>
+        <v>3.563856</v>
       </c>
       <c r="AI106" t="n">
         <v>923.2326</v>
       </c>
       <c r="AJ106" t="n">
-        <v>995.1348</v>
+        <v>995.199</v>
       </c>
       <c r="AK106" t="n">
-        <v>0.007958263</v>
+        <v>0.0120792</v>
       </c>
       <c r="AL106" t="n">
-        <v>5.267974</v>
+        <v>5.273793</v>
       </c>
       <c r="AM106" t="n">
         <v>973.0904</v>
       </c>
       <c r="AN106" t="n">
-        <v>-59.50249</v>
+        <v>-59.55133</v>
       </c>
       <c r="AO106" t="n">
         <v>-49.85777</v>
@@ -14011,31 +14011,31 @@
         <v>4.250213</v>
       </c>
       <c r="AF107" t="n">
-        <v>942.9691</v>
+        <v>942.8815</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.7841622</v>
+        <v>0.7731329</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.888072</v>
+        <v>6.884105</v>
       </c>
       <c r="AI107" t="n">
         <v>1004.33</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1008.523</v>
+        <v>1008.268</v>
       </c>
       <c r="AK107" t="n">
-        <v>1.345394</v>
+        <v>1.313189</v>
       </c>
       <c r="AL107" t="n">
-        <v>8.30269</v>
+        <v>8.309863</v>
       </c>
       <c r="AM107" t="n">
         <v>1086.65</v>
       </c>
       <c r="AN107" t="n">
-        <v>-65.55410000000001</v>
+        <v>-65.38638</v>
       </c>
       <c r="AO107" t="n">
         <v>-82.32053000000001</v>
@@ -14136,31 +14136,31 @@
         <v>4.285407</v>
       </c>
       <c r="AF108" t="n">
-        <v>921.7341</v>
+        <v>921.7532</v>
       </c>
       <c r="AG108" t="n">
-        <v>-2.251927</v>
+        <v>-2.240822</v>
       </c>
       <c r="AH108" t="n">
-        <v>1.520443</v>
+        <v>1.519887</v>
       </c>
       <c r="AI108" t="n">
         <v>962.404</v>
       </c>
       <c r="AJ108" t="n">
-        <v>984.9088</v>
+        <v>984.8229</v>
       </c>
       <c r="AK108" t="n">
-        <v>-2.341486</v>
+        <v>-2.325274</v>
       </c>
       <c r="AL108" t="n">
-        <v>2.594473</v>
+        <v>2.574917</v>
       </c>
       <c r="AM108" t="n">
         <v>1025.413</v>
       </c>
       <c r="AN108" t="n">
-        <v>-63.17465</v>
+        <v>-63.06968</v>
       </c>
       <c r="AO108" t="n">
         <v>-63.00895</v>
@@ -14261,31 +14261,31 @@
         <v>4.472516</v>
       </c>
       <c r="AF109" t="n">
-        <v>911.6478</v>
+        <v>911.6577</v>
       </c>
       <c r="AG109" t="n">
-        <v>-1.094283</v>
+        <v>-1.095249</v>
       </c>
       <c r="AH109" t="n">
-        <v>-1.881415</v>
+        <v>-1.879972</v>
       </c>
       <c r="AI109" t="n">
         <v>860.7670000000001</v>
       </c>
       <c r="AJ109" t="n">
-        <v>981.3536</v>
+        <v>981.3088</v>
       </c>
       <c r="AK109" t="n">
-        <v>-0.3609653</v>
+        <v>-0.3568226</v>
       </c>
       <c r="AL109" t="n">
-        <v>-0.3058661</v>
+        <v>-0.3041857</v>
       </c>
       <c r="AM109" t="n">
         <v>926.2252999999999</v>
       </c>
       <c r="AN109" t="n">
-        <v>-69.70585</v>
+        <v>-69.6511</v>
       </c>
       <c r="AO109" t="n">
         <v>-65.45825000000001</v>
@@ -14386,31 +14386,31 @@
         <v>5.003238</v>
       </c>
       <c r="AF110" t="n">
-        <v>925.6310999999999</v>
+        <v>925.6472</v>
       </c>
       <c r="AG110" t="n">
-        <v>1.533851</v>
+        <v>1.53451</v>
       </c>
       <c r="AH110" t="n">
-        <v>-2.223776</v>
+        <v>-2.219703</v>
       </c>
       <c r="AI110" t="n">
         <v>887.6203</v>
       </c>
       <c r="AJ110" t="n">
-        <v>988.8732</v>
+        <v>988.7139</v>
       </c>
       <c r="AK110" t="n">
-        <v>0.7662518</v>
+        <v>0.7546122</v>
       </c>
       <c r="AL110" t="n">
-        <v>-1.496708</v>
+        <v>-1.481906</v>
       </c>
       <c r="AM110" t="n">
         <v>982.5534</v>
       </c>
       <c r="AN110" t="n">
-        <v>-63.24217</v>
+        <v>-63.06669</v>
       </c>
       <c r="AO110" t="n">
         <v>-94.93309000000001</v>
@@ -14511,31 +14511,31 @@
         <v>4.854111</v>
       </c>
       <c r="AF111" t="n">
-        <v>919.9988</v>
+        <v>920.0042</v>
       </c>
       <c r="AG111" t="n">
-        <v>-0.6084754999999999</v>
+        <v>-0.6096354</v>
       </c>
       <c r="AH111" t="n">
-        <v>-2.488468</v>
+        <v>-2.488253</v>
       </c>
       <c r="AI111" t="n">
         <v>880.6807</v>
       </c>
       <c r="AJ111" t="n">
-        <v>977.9666</v>
+        <v>978.0577</v>
       </c>
       <c r="AK111" t="n">
-        <v>-1.10294</v>
+        <v>-1.077779</v>
       </c>
       <c r="AL111" t="n">
-        <v>-2.921572</v>
+        <v>-2.920334</v>
       </c>
       <c r="AM111" t="n">
         <v>914.6884</v>
       </c>
       <c r="AN111" t="n">
-        <v>-57.96773</v>
+        <v>-58.05362</v>
       </c>
       <c r="AO111" t="n">
         <v>-34.00776</v>
@@ -14636,31 +14636,31 @@
         <v>4.695634</v>
       </c>
       <c r="AF112" t="n">
-        <v>924.3087</v>
+        <v>924.3372000000001</v>
       </c>
       <c r="AG112" t="n">
-        <v>0.468461</v>
+        <v>0.4709798</v>
       </c>
       <c r="AH112" t="n">
-        <v>-3.101154</v>
+        <v>-3.102826</v>
       </c>
       <c r="AI112" t="n">
         <v>976.0410000000001</v>
       </c>
       <c r="AJ112" t="n">
-        <v>985.0108</v>
+        <v>984.9204999999999</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.7202904</v>
+        <v>0.7016641</v>
       </c>
       <c r="AL112" t="n">
-        <v>-2.26875</v>
+        <v>-2.26863</v>
       </c>
       <c r="AM112" t="n">
         <v>1003.827</v>
       </c>
       <c r="AN112" t="n">
-        <v>-60.70209</v>
+        <v>-60.58326</v>
       </c>
       <c r="AO112" t="n">
         <v>-27.78613</v>
@@ -14761,31 +14761,31 @@
         <v>4.473346</v>
       </c>
       <c r="AF113" t="n">
-        <v>920.009</v>
+        <v>920.0044</v>
       </c>
       <c r="AG113" t="n">
-        <v>-0.4651784</v>
+        <v>-0.4687426</v>
       </c>
       <c r="AH113" t="n">
-        <v>-3.363324</v>
+        <v>-3.36563</v>
       </c>
       <c r="AI113" t="n">
         <v>915.128</v>
       </c>
       <c r="AJ113" t="n">
-        <v>975.8433</v>
+        <v>975.7264</v>
       </c>
       <c r="AK113" t="n">
-        <v>-0.9306962</v>
+        <v>-0.9334784</v>
       </c>
       <c r="AL113" t="n">
-        <v>-2.559379</v>
+        <v>-2.569891</v>
       </c>
       <c r="AM113" t="n">
         <v>974.3378</v>
       </c>
       <c r="AN113" t="n">
-        <v>-55.83432</v>
+        <v>-55.72201</v>
       </c>
       <c r="AO113" t="n">
         <v>-59.20975</v>
@@ -14886,31 +14886,31 @@
         <v>4.290257</v>
       </c>
       <c r="AF114" t="n">
-        <v>924.1061999999999</v>
+        <v>924.1107</v>
       </c>
       <c r="AG114" t="n">
-        <v>0.4453451</v>
+        <v>0.4463376</v>
       </c>
       <c r="AH114" t="n">
-        <v>-1.350902</v>
+        <v>-1.35185</v>
       </c>
       <c r="AI114" t="n">
         <v>947.7198</v>
       </c>
       <c r="AJ114" t="n">
-        <v>981.0737</v>
+        <v>981.7837</v>
       </c>
       <c r="AK114" t="n">
-        <v>0.5359848</v>
+        <v>0.6207948</v>
       </c>
       <c r="AL114" t="n">
-        <v>-1.103461</v>
+        <v>-1.108504</v>
       </c>
       <c r="AM114" t="n">
         <v>1006.748</v>
       </c>
       <c r="AN114" t="n">
-        <v>-56.96748</v>
+        <v>-57.67294</v>
       </c>
       <c r="AO114" t="n">
         <v>-59.02815</v>
@@ -15011,31 +15011,31 @@
         <v>4.208903</v>
       </c>
       <c r="AF115" t="n">
-        <v>907.053</v>
+        <v>907.086</v>
       </c>
       <c r="AG115" t="n">
-        <v>-1.845374</v>
+        <v>-1.842283</v>
       </c>
       <c r="AH115" t="n">
-        <v>-3.566929</v>
+        <v>-3.562584</v>
       </c>
       <c r="AI115" t="n">
         <v>902.5458</v>
       </c>
       <c r="AJ115" t="n">
-        <v>965.0127</v>
+        <v>965.0728</v>
       </c>
       <c r="AK115" t="n">
-        <v>-1.637085</v>
+        <v>-1.70209</v>
       </c>
       <c r="AL115" t="n">
-        <v>-3.549317</v>
+        <v>-3.541707</v>
       </c>
       <c r="AM115" t="n">
         <v>938.4977</v>
       </c>
       <c r="AN115" t="n">
-        <v>-57.95968</v>
+        <v>-57.98683</v>
       </c>
       <c r="AO115" t="n">
         <v>-35.95186</v>
@@ -15136,31 +15136,31 @@
         <v>4.271067</v>
       </c>
       <c r="AF116" t="n">
-        <v>917.1984</v>
+        <v>917.1677</v>
       </c>
       <c r="AG116" t="n">
-        <v>1.1185</v>
+        <v>1.111432</v>
       </c>
       <c r="AH116" t="n">
-        <v>-1.712162</v>
+        <v>-1.714535</v>
       </c>
       <c r="AI116" t="n">
         <v>934.7983</v>
       </c>
       <c r="AJ116" t="n">
-        <v>973.976</v>
+        <v>973.9306</v>
       </c>
       <c r="AK116" t="n">
-        <v>0.9288275</v>
+        <v>0.9178313</v>
       </c>
       <c r="AL116" t="n">
-        <v>-2.79152</v>
+        <v>-2.783634</v>
       </c>
       <c r="AM116" t="n">
         <v>1002.824</v>
       </c>
       <c r="AN116" t="n">
-        <v>-56.7776</v>
+        <v>-56.76293</v>
       </c>
       <c r="AO116" t="n">
         <v>-68.02596</v>
@@ -15261,31 +15261,31 @@
         <v>4.201206</v>
       </c>
       <c r="AF117" t="n">
-        <v>904.6165999999999</v>
+        <v>904.6384</v>
       </c>
       <c r="AG117" t="n">
-        <v>-1.371765</v>
+        <v>-1.366082</v>
       </c>
       <c r="AH117" t="n">
-        <v>-3.538246</v>
+        <v>-3.53442</v>
       </c>
       <c r="AI117" t="n">
         <v>841.6232</v>
       </c>
       <c r="AJ117" t="n">
-        <v>960.2241</v>
+        <v>960.1887</v>
       </c>
       <c r="AK117" t="n">
-        <v>-1.411927</v>
+        <v>-1.410978</v>
       </c>
       <c r="AL117" t="n">
-        <v>-3.500449</v>
+        <v>-3.506277</v>
       </c>
       <c r="AM117" t="n">
         <v>916.1043</v>
       </c>
       <c r="AN117" t="n">
-        <v>-55.60757</v>
+        <v>-55.55024</v>
       </c>
       <c r="AO117" t="n">
         <v>-74.4811</v>
@@ -15386,31 +15386,31 @@
         <v>4.180519</v>
       </c>
       <c r="AF118" t="n">
-        <v>901.0542</v>
+        <v>901.0358</v>
       </c>
       <c r="AG118" t="n">
-        <v>-0.3938031</v>
+        <v>-0.3982397</v>
       </c>
       <c r="AH118" t="n">
-        <v>-3.695692</v>
+        <v>-3.699251</v>
       </c>
       <c r="AI118" t="n">
         <v>904.1793</v>
       </c>
       <c r="AJ118" t="n">
-        <v>952.2952</v>
+        <v>952.2037</v>
       </c>
       <c r="AK118" t="n">
-        <v>-0.825745</v>
+        <v>-0.8316022</v>
       </c>
       <c r="AL118" t="n">
-        <v>-4.304905</v>
+        <v>-4.320279</v>
       </c>
       <c r="AM118" t="n">
         <v>956.3253999999999</v>
       </c>
       <c r="AN118" t="n">
-        <v>-51.24097</v>
+        <v>-51.16792</v>
       </c>
       <c r="AO118" t="n">
         <v>-52.14605</v>
@@ -15511,31 +15511,31 @@
         <v>4.139966</v>
       </c>
       <c r="AF119" t="n">
-        <v>906.4693</v>
+        <v>906.4173</v>
       </c>
       <c r="AG119" t="n">
-        <v>0.6009766</v>
+        <v>0.5972591</v>
       </c>
       <c r="AH119" t="n">
-        <v>-3.870735</v>
+        <v>-3.867319</v>
       </c>
       <c r="AI119" t="n">
         <v>972.3694</v>
       </c>
       <c r="AJ119" t="n">
-        <v>949.8505</v>
+        <v>949.6784</v>
       </c>
       <c r="AK119" t="n">
-        <v>-0.2567178</v>
+        <v>-0.2652059</v>
       </c>
       <c r="AL119" t="n">
-        <v>-5.817694</v>
+        <v>-5.810907</v>
       </c>
       <c r="AM119" t="n">
         <v>1025.863</v>
       </c>
       <c r="AN119" t="n">
-        <v>-43.38114</v>
+        <v>-43.2611</v>
       </c>
       <c r="AO119" t="n">
         <v>-53.49375</v>
@@ -15636,31 +15636,31 @@
         <v>4.085169</v>
       </c>
       <c r="AF120" t="n">
-        <v>894.0999</v>
+        <v>894.0946</v>
       </c>
       <c r="AG120" t="n">
-        <v>-1.364577</v>
+        <v>-1.359494</v>
       </c>
       <c r="AH120" t="n">
-        <v>-2.99808</v>
+        <v>-3.000655</v>
       </c>
       <c r="AI120" t="n">
         <v>914.4506</v>
       </c>
       <c r="AJ120" t="n">
-        <v>939.5288</v>
+        <v>939.5289</v>
       </c>
       <c r="AK120" t="n">
-        <v>-1.086659</v>
+        <v>-1.068728</v>
       </c>
       <c r="AL120" t="n">
-        <v>-4.607533</v>
+        <v>-4.599203</v>
       </c>
       <c r="AM120" t="n">
         <v>953.4582</v>
       </c>
       <c r="AN120" t="n">
-        <v>-45.42898</v>
+        <v>-45.43431</v>
       </c>
       <c r="AO120" t="n">
         <v>-39.00763</v>
@@ -15761,31 +15761,31 @@
         <v>4.268127</v>
       </c>
       <c r="AF121" t="n">
-        <v>905.4423</v>
+        <v>905.4262</v>
       </c>
       <c r="AG121" t="n">
-        <v>1.268593</v>
+        <v>1.267386</v>
       </c>
       <c r="AH121" t="n">
-        <v>-0.6806859</v>
+        <v>-0.6835364</v>
       </c>
       <c r="AI121" t="n">
         <v>871.7241</v>
       </c>
       <c r="AJ121" t="n">
-        <v>947.3517000000001</v>
+        <v>947.1893</v>
       </c>
       <c r="AK121" t="n">
-        <v>0.8326467</v>
+        <v>0.8153473</v>
       </c>
       <c r="AL121" t="n">
-        <v>-3.464792</v>
+        <v>-3.476939</v>
       </c>
       <c r="AM121" t="n">
         <v>919.404</v>
       </c>
       <c r="AN121" t="n">
-        <v>-41.90944</v>
+        <v>-41.7631</v>
       </c>
       <c r="AO121" t="n">
         <v>-47.67991</v>
@@ -15886,31 +15886,31 @@
         <v>4.728896</v>
       </c>
       <c r="AF122" t="n">
-        <v>911.4404</v>
+        <v>911.4406</v>
       </c>
       <c r="AG122" t="n">
-        <v>0.6624541</v>
+        <v>0.6642565</v>
       </c>
       <c r="AH122" t="n">
-        <v>-1.533077</v>
+        <v>-1.534779</v>
       </c>
       <c r="AI122" t="n">
         <v>872.4582</v>
       </c>
       <c r="AJ122" t="n">
-        <v>957.6711</v>
+        <v>957.6193</v>
       </c>
       <c r="AK122" t="n">
-        <v>1.089286</v>
+        <v>1.101151</v>
       </c>
       <c r="AL122" t="n">
-        <v>-3.155322</v>
+        <v>-3.144954</v>
       </c>
       <c r="AM122" t="n">
         <v>946.9575</v>
       </c>
       <c r="AN122" t="n">
-        <v>-46.23067</v>
+        <v>-46.17874</v>
       </c>
       <c r="AO122" t="n">
         <v>-74.49930000000001</v>
@@ -16011,31 +16011,31 @@
         <v>4.694243</v>
       </c>
       <c r="AF123" t="n">
-        <v>898.5813000000001</v>
+        <v>898.612</v>
       </c>
       <c r="AG123" t="n">
-        <v>-1.410859</v>
+        <v>-1.407509</v>
       </c>
       <c r="AH123" t="n">
-        <v>-2.327996</v>
+        <v>-2.325226</v>
       </c>
       <c r="AI123" t="n">
         <v>864.3414</v>
       </c>
       <c r="AJ123" t="n">
-        <v>925.0463</v>
+        <v>925.1613</v>
       </c>
       <c r="AK123" t="n">
-        <v>-3.406688</v>
+        <v>-3.38945</v>
       </c>
       <c r="AL123" t="n">
-        <v>-5.411261</v>
+        <v>-5.408318</v>
       </c>
       <c r="AM123" t="n">
         <v>866.8784000000001</v>
       </c>
       <c r="AN123" t="n">
-        <v>-26.46494</v>
+        <v>-26.54932</v>
       </c>
       <c r="AO123" t="n">
         <v>-2.537049</v>
@@ -16136,31 +16136,31 @@
         <v>4.783698</v>
       </c>
       <c r="AF124" t="n">
-        <v>824.8868</v>
+        <v>824.9052</v>
       </c>
       <c r="AG124" t="n">
-        <v>-8.201209</v>
+        <v>-8.202294</v>
       </c>
       <c r="AH124" t="n">
-        <v>-10.75635</v>
+        <v>-10.75711</v>
       </c>
       <c r="AI124" t="n">
         <v>882.5356</v>
       </c>
       <c r="AJ124" t="n">
-        <v>866.8165</v>
+        <v>866.6186</v>
       </c>
       <c r="AK124" t="n">
-        <v>-6.294797</v>
+        <v>-6.327837</v>
       </c>
       <c r="AL124" t="n">
-        <v>-11.99929</v>
+        <v>-12.01131</v>
       </c>
       <c r="AM124" t="n">
         <v>907.9982</v>
       </c>
       <c r="AN124" t="n">
-        <v>-41.92968</v>
+        <v>-41.71342</v>
       </c>
       <c r="AO124" t="n">
         <v>-25.46261</v>
@@ -16261,31 +16261,31 @@
         <v>7.377588</v>
       </c>
       <c r="AF125" t="n">
-        <v>633.9471</v>
+        <v>633.9739</v>
       </c>
       <c r="AG125" t="n">
-        <v>-23.14738</v>
+        <v>-23.14585</v>
       </c>
       <c r="AH125" t="n">
-        <v>-31.09338</v>
+        <v>-31.09012</v>
       </c>
       <c r="AI125" t="n">
         <v>632.6979</v>
       </c>
       <c r="AJ125" t="n">
-        <v>725.8668</v>
+        <v>726.0088</v>
       </c>
       <c r="AK125" t="n">
-        <v>-16.26061</v>
+        <v>-16.22511</v>
       </c>
       <c r="AL125" t="n">
-        <v>-25.61646</v>
+        <v>-25.593</v>
       </c>
       <c r="AM125" t="n">
         <v>722.4761999999999</v>
       </c>
       <c r="AN125" t="n">
-        <v>-91.91974999999999</v>
+        <v>-92.03487</v>
       </c>
       <c r="AO125" t="n">
         <v>-89.77822999999999</v>
@@ -16386,31 +16386,31 @@
         <v>7.061635</v>
       </c>
       <c r="AF126" t="n">
-        <v>660.663</v>
+        <v>660.6811</v>
       </c>
       <c r="AG126" t="n">
-        <v>4.214206</v>
+        <v>4.212662</v>
       </c>
       <c r="AH126" t="n">
-        <v>-28.5079</v>
+        <v>-28.50629</v>
       </c>
       <c r="AI126" t="n">
         <v>645.5452</v>
       </c>
       <c r="AJ126" t="n">
-        <v>735.5792</v>
+        <v>736.0214</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.338028</v>
+        <v>1.379135</v>
       </c>
       <c r="AL126" t="n">
-        <v>-25.02305</v>
+        <v>-25.03222</v>
       </c>
       <c r="AM126" t="n">
         <v>715.9213999999999</v>
       </c>
       <c r="AN126" t="n">
-        <v>-74.91621000000001</v>
+        <v>-75.34032999999999</v>
       </c>
       <c r="AO126" t="n">
         <v>-70.37611</v>
@@ -16511,31 +16511,31 @@
         <v>6.788226</v>
       </c>
       <c r="AF127" t="n">
-        <v>763.2234</v>
+        <v>763.2163</v>
       </c>
       <c r="AG127" t="n">
-        <v>15.52387</v>
+        <v>15.51963</v>
       </c>
       <c r="AH127" t="n">
-        <v>-15.8568</v>
+        <v>-15.86065</v>
       </c>
       <c r="AI127" t="n">
         <v>788.5819</v>
       </c>
       <c r="AJ127" t="n">
-        <v>813.1331</v>
+        <v>812.9815</v>
       </c>
       <c r="AK127" t="n">
-        <v>10.54325</v>
+        <v>10.45623</v>
       </c>
       <c r="AL127" t="n">
-        <v>-15.73861</v>
+        <v>-15.75957</v>
       </c>
       <c r="AM127" t="n">
         <v>830.7612</v>
       </c>
       <c r="AN127" t="n">
-        <v>-49.9097</v>
+        <v>-49.76517</v>
       </c>
       <c r="AO127" t="n">
         <v>-42.17934</v>
@@ -16636,31 +16636,31 @@
         <v>6.635896</v>
       </c>
       <c r="AF128" t="n">
-        <v>825.0633</v>
+        <v>825.0604</v>
       </c>
       <c r="AG128" t="n">
-        <v>8.102461</v>
+        <v>8.103085999999999</v>
       </c>
       <c r="AH128" t="n">
-        <v>-10.04528</v>
+        <v>-10.04258</v>
       </c>
       <c r="AI128" t="n">
         <v>843.3232</v>
       </c>
       <c r="AJ128" t="n">
-        <v>875.0806</v>
+        <v>875.0887</v>
       </c>
       <c r="AK128" t="n">
-        <v>7.618376</v>
+        <v>7.639433</v>
       </c>
       <c r="AL128" t="n">
-        <v>-10.15378</v>
+        <v>-10.14876</v>
       </c>
       <c r="AM128" t="n">
         <v>894.7418</v>
       </c>
       <c r="AN128" t="n">
-        <v>-50.01736</v>
+        <v>-50.02827</v>
       </c>
       <c r="AO128" t="n">
         <v>-51.41861</v>
@@ -16761,31 +16761,31 @@
         <v>6.182264</v>
       </c>
       <c r="AF129" t="n">
-        <v>862.9189</v>
+        <v>862.9285</v>
       </c>
       <c r="AG129" t="n">
-        <v>4.588211</v>
+        <v>4.589742</v>
       </c>
       <c r="AH129" t="n">
-        <v>-4.60943</v>
+        <v>-4.610666</v>
       </c>
       <c r="AI129" t="n">
         <v>783.2233</v>
       </c>
       <c r="AJ129" t="n">
-        <v>911.5491</v>
+        <v>911.5418</v>
       </c>
       <c r="AK129" t="n">
-        <v>4.167441</v>
+        <v>4.165653</v>
       </c>
       <c r="AL129" t="n">
-        <v>-5.069134</v>
+        <v>-5.066381</v>
       </c>
       <c r="AM129" t="n">
         <v>853.8751</v>
       </c>
       <c r="AN129" t="n">
-        <v>-48.63019</v>
+        <v>-48.61329</v>
       </c>
       <c r="AO129" t="n">
         <v>-70.65173</v>
@@ -16886,31 +16886,31 @@
         <v>5.959412</v>
       </c>
       <c r="AF130" t="n">
-        <v>888.6419</v>
+        <v>888.5904</v>
       </c>
       <c r="AG130" t="n">
-        <v>2.98093</v>
+        <v>2.973811</v>
       </c>
       <c r="AH130" t="n">
-        <v>-1.377526</v>
+        <v>-1.381229</v>
       </c>
       <c r="AI130" t="n">
         <v>912.7285000000001</v>
       </c>
       <c r="AJ130" t="n">
-        <v>930.1464</v>
+        <v>930.1259</v>
       </c>
       <c r="AK130" t="n">
-        <v>2.040187</v>
+        <v>2.038752</v>
       </c>
       <c r="AL130" t="n">
-        <v>-2.325828</v>
+        <v>-2.318599</v>
       </c>
       <c r="AM130" t="n">
         <v>956.0802</v>
       </c>
       <c r="AN130" t="n">
-        <v>-41.50449</v>
+        <v>-41.5355</v>
       </c>
       <c r="AO130" t="n">
         <v>-43.35172</v>
@@ -17011,31 +17011,31 @@
         <v>5.768685</v>
       </c>
       <c r="AF131" t="n">
-        <v>904.9921000000001</v>
+        <v>904.9561</v>
       </c>
       <c r="AG131" t="n">
-        <v>1.839909</v>
+        <v>1.841752</v>
       </c>
       <c r="AH131" t="n">
-        <v>-0.1629594</v>
+        <v>-0.161212</v>
       </c>
       <c r="AI131" t="n">
         <v>956.0192</v>
       </c>
       <c r="AJ131" t="n">
-        <v>941.9719</v>
+        <v>941.8291</v>
       </c>
       <c r="AK131" t="n">
-        <v>1.271359</v>
+        <v>1.258236</v>
       </c>
       <c r="AL131" t="n">
-        <v>-0.8294502</v>
+        <v>-0.8265221</v>
       </c>
       <c r="AM131" t="n">
         <v>990.8481</v>
       </c>
       <c r="AN131" t="n">
-        <v>-36.97978</v>
+        <v>-36.87305</v>
       </c>
       <c r="AO131" t="n">
         <v>-34.82899</v>
@@ -17136,31 +17136,31 @@
         <v>5.65024</v>
       </c>
       <c r="AF132" t="n">
-        <v>922.4469</v>
+        <v>922.4258</v>
       </c>
       <c r="AG132" t="n">
-        <v>1.928719</v>
+        <v>1.930454</v>
       </c>
       <c r="AH132" t="n">
-        <v>3.170457</v>
+        <v>3.168702</v>
       </c>
       <c r="AI132" t="n">
         <v>945.6511</v>
       </c>
       <c r="AJ132" t="n">
-        <v>976.914</v>
+        <v>976.8856</v>
       </c>
       <c r="AK132" t="n">
-        <v>3.709467</v>
+        <v>3.72217</v>
       </c>
       <c r="AL132" t="n">
-        <v>3.979147</v>
+        <v>3.976105</v>
       </c>
       <c r="AM132" t="n">
         <v>1001.082</v>
       </c>
       <c r="AN132" t="n">
-        <v>-54.46716</v>
+        <v>-54.45977</v>
       </c>
       <c r="AO132" t="n">
         <v>-55.4311</v>
@@ -17261,31 +17261,31 @@
         <v>5.634901</v>
       </c>
       <c r="AF133" t="n">
-        <v>960.3487</v>
+        <v>960.3496</v>
       </c>
       <c r="AG133" t="n">
-        <v>4.108835</v>
+        <v>4.111315</v>
       </c>
       <c r="AH133" t="n">
-        <v>6.06404</v>
+        <v>6.066027</v>
       </c>
       <c r="AI133" t="n">
         <v>952.5022</v>
       </c>
       <c r="AJ133" t="n">
-        <v>999.7061</v>
+        <v>999.7190000000001</v>
       </c>
       <c r="AK133" t="n">
-        <v>2.333066</v>
+        <v>2.337372</v>
       </c>
       <c r="AL133" t="n">
-        <v>5.526387</v>
+        <v>5.545848</v>
       </c>
       <c r="AM133" t="n">
         <v>996.2731</v>
       </c>
       <c r="AN133" t="n">
-        <v>-39.35738</v>
+        <v>-39.36939</v>
       </c>
       <c r="AO133" t="n">
         <v>-43.77097</v>
@@ -17386,31 +17386,31 @@
         <v>6.255826</v>
       </c>
       <c r="AF134" t="n">
-        <v>969.4231</v>
+        <v>969.4281999999999</v>
       </c>
       <c r="AG134" t="n">
-        <v>0.9449092</v>
+        <v>0.9453362</v>
       </c>
       <c r="AH134" t="n">
-        <v>6.361651</v>
+        <v>6.36219</v>
       </c>
       <c r="AI134" t="n">
         <v>888.4462</v>
       </c>
       <c r="AJ134" t="n">
-        <v>1005.936</v>
+        <v>1005.933</v>
       </c>
       <c r="AK134" t="n">
-        <v>0.6231654</v>
+        <v>0.621563</v>
       </c>
       <c r="AL134" t="n">
-        <v>5.039807</v>
+        <v>5.045176</v>
       </c>
       <c r="AM134" t="n">
         <v>942.6968000000001</v>
       </c>
       <c r="AN134" t="n">
-        <v>-36.51278</v>
+        <v>-36.50474</v>
       </c>
       <c r="AO134" t="n">
         <v>-54.25055</v>
@@ -17511,31 +17511,31 @@
         <v>6.09843</v>
       </c>
       <c r="AF135" t="n">
-        <v>963.1763</v>
+        <v>963.2086</v>
       </c>
       <c r="AG135" t="n">
-        <v>-0.6443906</v>
+        <v>-0.6415734</v>
       </c>
       <c r="AH135" t="n">
-        <v>7.188546</v>
+        <v>7.188485</v>
       </c>
       <c r="AI135" t="n">
         <v>920.8596</v>
       </c>
       <c r="AJ135" t="n">
-        <v>1020.278</v>
+        <v>1020.339</v>
       </c>
       <c r="AK135" t="n">
-        <v>1.425763</v>
+        <v>1.432085</v>
       </c>
       <c r="AL135" t="n">
-        <v>10.29483</v>
+        <v>10.28766</v>
       </c>
       <c r="AM135" t="n">
         <v>952.7789</v>
       </c>
       <c r="AN135" t="n">
-        <v>-57.10192</v>
+        <v>-57.13015</v>
       </c>
       <c r="AO135" t="n">
         <v>-31.91941</v>
@@ -17636,31 +17636,31 @@
         <v>5.675876</v>
       </c>
       <c r="AF136" t="n">
-        <v>1000.549</v>
+        <v>1000.552</v>
       </c>
       <c r="AG136" t="n">
-        <v>3.880198</v>
+        <v>3.876987</v>
       </c>
       <c r="AH136" t="n">
-        <v>21.29536</v>
+        <v>21.29298</v>
       </c>
       <c r="AI136" t="n">
         <v>1093.748</v>
       </c>
       <c r="AJ136" t="n">
-        <v>1068.673</v>
+        <v>1068.58</v>
       </c>
       <c r="AK136" t="n">
-        <v>4.743306</v>
+        <v>4.727972</v>
       </c>
       <c r="AL136" t="n">
-        <v>23.28712</v>
+        <v>23.30453</v>
       </c>
       <c r="AM136" t="n">
         <v>1144.244</v>
       </c>
       <c r="AN136" t="n">
-        <v>-68.12367999999999</v>
+        <v>-68.02800999999999</v>
       </c>
       <c r="AO136" t="n">
         <v>-50.49557</v>
@@ -17761,31 +17761,31 @@
         <v>5.681737</v>
       </c>
       <c r="AF137" t="n">
-        <v>1006.884</v>
+        <v>1006.924</v>
       </c>
       <c r="AG137" t="n">
-        <v>0.6330687</v>
+        <v>0.6368489000000001</v>
       </c>
       <c r="AH137" t="n">
-        <v>58.82769</v>
+        <v>58.82737</v>
       </c>
       <c r="AI137" t="n">
         <v>1011.643</v>
       </c>
       <c r="AJ137" t="n">
-        <v>1069.993</v>
+        <v>1069.953</v>
       </c>
       <c r="AK137" t="n">
-        <v>0.1235018</v>
+        <v>0.1285344</v>
       </c>
       <c r="AL137" t="n">
-        <v>47.40898</v>
+        <v>47.37474</v>
       </c>
       <c r="AM137" t="n">
         <v>1071.6</v>
       </c>
       <c r="AN137" t="n">
-        <v>-63.10935</v>
+        <v>-63.0295</v>
       </c>
       <c r="AO137" t="n">
         <v>-59.95728</v>
@@ -17886,31 +17886,31 @@
         <v>5.447627</v>
       </c>
       <c r="AF138" t="n">
-        <v>1026.745</v>
+        <v>1026.811</v>
       </c>
       <c r="AG138" t="n">
-        <v>1.972561</v>
+        <v>1.974992</v>
       </c>
       <c r="AH138" t="n">
-        <v>55.41131</v>
+        <v>55.417</v>
       </c>
       <c r="AI138" t="n">
         <v>1009.038</v>
       </c>
       <c r="AJ138" t="n">
-        <v>1097.961</v>
+        <v>1098.339</v>
       </c>
       <c r="AK138" t="n">
-        <v>2.613836</v>
+        <v>2.652983</v>
       </c>
       <c r="AL138" t="n">
-        <v>49.2648</v>
+        <v>49.22653</v>
       </c>
       <c r="AM138" t="n">
         <v>1078.157</v>
       </c>
       <c r="AN138" t="n">
-        <v>-71.21581999999999</v>
+        <v>-71.52851</v>
       </c>
       <c r="AO138" t="n">
         <v>-69.11938000000001</v>
@@ -18011,31 +18011,31 @@
         <v>5.1558</v>
       </c>
       <c r="AF139" t="n">
-        <v>1033.697</v>
+        <v>1033.712</v>
       </c>
       <c r="AG139" t="n">
-        <v>0.6771069</v>
+        <v>0.6720741</v>
       </c>
       <c r="AH139" t="n">
-        <v>35.43834</v>
+        <v>35.4415</v>
       </c>
       <c r="AI139" t="n">
         <v>1078.405</v>
       </c>
       <c r="AJ139" t="n">
-        <v>1107.55</v>
+        <v>1107.577</v>
       </c>
       <c r="AK139" t="n">
-        <v>0.8733231</v>
+        <v>0.8410245</v>
       </c>
       <c r="AL139" t="n">
-        <v>36.20765</v>
+        <v>36.23637</v>
       </c>
       <c r="AM139" t="n">
         <v>1139.828</v>
       </c>
       <c r="AN139" t="n">
-        <v>-73.8524</v>
+        <v>-73.86488</v>
       </c>
       <c r="AO139" t="n">
         <v>-61.42329</v>
@@ -18136,31 +18136,31 @@
         <v>4.960556</v>
       </c>
       <c r="AF140" t="n">
-        <v>1034.305</v>
+        <v>1034.291</v>
       </c>
       <c r="AG140" t="n">
-        <v>0.05876387</v>
+        <v>0.05604317</v>
       </c>
       <c r="AH140" t="n">
-        <v>25.36064</v>
+        <v>25.35942</v>
       </c>
       <c r="AI140" t="n">
         <v>1035.001</v>
       </c>
       <c r="AJ140" t="n">
-        <v>1104.363</v>
+        <v>1104.263</v>
       </c>
       <c r="AK140" t="n">
-        <v>-0.2877198</v>
+        <v>-0.2991578</v>
       </c>
       <c r="AL140" t="n">
-        <v>26.20127</v>
+        <v>26.18871</v>
       </c>
       <c r="AM140" t="n">
         <v>1099.93</v>
       </c>
       <c r="AN140" t="n">
-        <v>-70.05833</v>
+        <v>-69.97216</v>
       </c>
       <c r="AO140" t="n">
         <v>-64.9294</v>
@@ -18261,31 +18261,31 @@
         <v>4.902118</v>
       </c>
       <c r="AF141" t="n">
-        <v>1034.226</v>
+        <v>1034.196</v>
       </c>
       <c r="AG141" t="n">
-        <v>-0.007607495</v>
+        <v>-0.009138563000000001</v>
       </c>
       <c r="AH141" t="n">
-        <v>19.85203</v>
+        <v>19.84729</v>
       </c>
       <c r="AI141" t="n">
         <v>962.1660000000001</v>
       </c>
       <c r="AJ141" t="n">
-        <v>1113.396</v>
+        <v>1113.237</v>
       </c>
       <c r="AK141" t="n">
-        <v>0.8179969</v>
+        <v>0.8126639</v>
       </c>
       <c r="AL141" t="n">
-        <v>22.14334</v>
+        <v>22.12682</v>
       </c>
       <c r="AM141" t="n">
         <v>1075.029</v>
       </c>
       <c r="AN141" t="n">
-        <v>-79.17066</v>
+        <v>-79.04062999999999</v>
       </c>
       <c r="AO141" t="n">
         <v>-112.863</v>
@@ -18386,31 +18386,31 @@
         <v>4.61072</v>
       </c>
       <c r="AF142" t="n">
-        <v>1030.186</v>
+        <v>1030.157</v>
       </c>
       <c r="AG142" t="n">
-        <v>-0.3905896</v>
+        <v>-0.3906016</v>
       </c>
       <c r="AH142" t="n">
-        <v>15.92817</v>
+        <v>15.93157</v>
       </c>
       <c r="AI142" t="n">
         <v>1053.735</v>
       </c>
       <c r="AJ142" t="n">
-        <v>1123.036</v>
+        <v>1123.072</v>
       </c>
       <c r="AK142" t="n">
-        <v>0.8657575</v>
+        <v>0.8834416</v>
       </c>
       <c r="AL142" t="n">
-        <v>20.73754</v>
+        <v>20.74407</v>
       </c>
       <c r="AM142" t="n">
         <v>1154.262</v>
       </c>
       <c r="AN142" t="n">
-        <v>-92.84956</v>
+        <v>-92.91501</v>
       </c>
       <c r="AO142" t="n">
         <v>-100.5271</v>
@@ -18511,31 +18511,31 @@
         <v>4.48827</v>
       </c>
       <c r="AF143" t="n">
-        <v>1060.408</v>
+        <v>1060.348</v>
       </c>
       <c r="AG143" t="n">
-        <v>2.933652</v>
+        <v>2.930759</v>
       </c>
       <c r="AH143" t="n">
-        <v>17.17322</v>
+        <v>17.17125</v>
       </c>
       <c r="AI143" t="n">
         <v>1091.868</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1146.997</v>
+        <v>1146.924</v>
       </c>
       <c r="AK143" t="n">
-        <v>2.133619</v>
+        <v>2.123814</v>
       </c>
       <c r="AL143" t="n">
-        <v>21.76554</v>
+        <v>21.77621</v>
       </c>
       <c r="AM143" t="n">
         <v>1177.991</v>
       </c>
       <c r="AN143" t="n">
-        <v>-86.58878</v>
+        <v>-86.57556</v>
       </c>
       <c r="AO143" t="n">
         <v>-86.1237</v>
@@ -18636,31 +18636,31 @@
         <v>4.286112</v>
       </c>
       <c r="AF144" t="n">
-        <v>1081.939</v>
+        <v>1081.869</v>
       </c>
       <c r="AG144" t="n">
-        <v>2.030378</v>
+        <v>2.029631</v>
       </c>
       <c r="AH144" t="n">
-        <v>17.29008</v>
+        <v>17.28525</v>
       </c>
       <c r="AI144" t="n">
         <v>1123.97</v>
       </c>
       <c r="AJ144" t="n">
-        <v>1192.946</v>
+        <v>1192.833</v>
       </c>
       <c r="AK144" t="n">
-        <v>4.006001</v>
+        <v>4.00284</v>
       </c>
       <c r="AL144" t="n">
-        <v>22.1137</v>
+        <v>22.10574</v>
       </c>
       <c r="AM144" t="n">
         <v>1242.679</v>
       </c>
       <c r="AN144" t="n">
-        <v>-111.0072</v>
+        <v>-110.9639</v>
       </c>
       <c r="AO144" t="n">
         <v>-118.7087</v>
@@ -18761,31 +18761,31 @@
         <v>4.322198</v>
       </c>
       <c r="AF145" t="n">
-        <v>1096.779</v>
+        <v>1096.769</v>
       </c>
       <c r="AG145" t="n">
-        <v>1.371661</v>
+        <v>1.377243</v>
       </c>
       <c r="AH145" t="n">
-        <v>14.20635</v>
+        <v>14.20522</v>
       </c>
       <c r="AI145" t="n">
         <v>1099.05</v>
       </c>
       <c r="AJ145" t="n">
-        <v>1230.373</v>
+        <v>1230.431</v>
       </c>
       <c r="AK145" t="n">
-        <v>3.137332</v>
+        <v>3.15196</v>
       </c>
       <c r="AL145" t="n">
-        <v>23.07343</v>
+        <v>23.07768</v>
       </c>
       <c r="AM145" t="n">
         <v>1232.126</v>
       </c>
       <c r="AN145" t="n">
-        <v>-133.5934</v>
+        <v>-133.6616</v>
       </c>
       <c r="AO145" t="n">
         <v>-133.0756</v>
@@ -18886,31 +18886,31 @@
         <v>4.797073</v>
       </c>
       <c r="AF146" t="n">
-        <v>1101.634</v>
+        <v>1101.649</v>
       </c>
       <c r="AG146" t="n">
-        <v>0.4426323</v>
+        <v>0.4449492</v>
       </c>
       <c r="AH146" t="n">
-        <v>13.63809</v>
+        <v>13.6391</v>
       </c>
       <c r="AI146" t="n">
         <v>1022.495</v>
       </c>
       <c r="AJ146" t="n">
-        <v>1253.316</v>
+        <v>1253.343</v>
       </c>
       <c r="AK146" t="n">
-        <v>1.864754</v>
+        <v>1.862094</v>
       </c>
       <c r="AL146" t="n">
-        <v>24.59203</v>
+        <v>24.59506</v>
       </c>
       <c r="AM146" t="n">
         <v>1193.661</v>
       </c>
       <c r="AN146" t="n">
-        <v>-151.6821</v>
+        <v>-151.6933</v>
       </c>
       <c r="AO146" t="n">
         <v>-171.166</v>
@@ -19011,31 +19011,31 @@
         <v>4.523307</v>
       </c>
       <c r="AF147" t="n">
-        <v>1129.312</v>
+        <v>1129.372</v>
       </c>
       <c r="AG147" t="n">
-        <v>2.51248</v>
+        <v>2.51644</v>
       </c>
       <c r="AH147" t="n">
-        <v>17.24876</v>
+        <v>17.25101</v>
       </c>
       <c r="AI147" t="n">
         <v>1080.454</v>
       </c>
       <c r="AJ147" t="n">
-        <v>1268.208</v>
+        <v>1268.247</v>
       </c>
       <c r="AK147" t="n">
-        <v>1.188184</v>
+        <v>1.189193</v>
       </c>
       <c r="AL147" t="n">
-        <v>24.30019</v>
+        <v>24.29671</v>
       </c>
       <c r="AM147" t="n">
         <v>1183.41</v>
       </c>
       <c r="AN147" t="n">
-        <v>-138.8954</v>
+        <v>-138.8756</v>
       </c>
       <c r="AO147" t="n">
         <v>-102.9557</v>
@@ -19136,31 +19136,31 @@
         <v>4.294384</v>
       </c>
       <c r="AF148" t="n">
-        <v>1135.329</v>
+        <v>1135.388</v>
       </c>
       <c r="AG148" t="n">
-        <v>0.5328186</v>
+        <v>0.5327253</v>
       </c>
       <c r="AH148" t="n">
-        <v>13.4706</v>
+        <v>13.47618</v>
       </c>
       <c r="AI148" t="n">
         <v>1246.11</v>
       </c>
       <c r="AJ148" t="n">
-        <v>1305.342</v>
+        <v>1305.412</v>
       </c>
       <c r="AK148" t="n">
-        <v>2.928081</v>
+        <v>2.930401</v>
       </c>
       <c r="AL148" t="n">
-        <v>22.14604</v>
+        <v>22.16325</v>
       </c>
       <c r="AM148" t="n">
         <v>1397.45</v>
       </c>
       <c r="AN148" t="n">
-        <v>-170.0124</v>
+        <v>-170.0239</v>
       </c>
       <c r="AO148" t="n">
         <v>-151.3405</v>
@@ -19261,31 +19261,31 @@
         <v>4.08051</v>
       </c>
       <c r="AF149" t="n">
-        <v>1148.49</v>
+        <v>1148.539</v>
       </c>
       <c r="AG149" t="n">
-        <v>1.159156</v>
+        <v>1.158224</v>
       </c>
       <c r="AH149" t="n">
-        <v>14.0638</v>
+        <v>14.06407</v>
       </c>
       <c r="AI149" t="n">
         <v>1124.83</v>
       </c>
       <c r="AJ149" t="n">
-        <v>1307.818</v>
+        <v>1307.882</v>
       </c>
       <c r="AK149" t="n">
-        <v>0.1897302</v>
+        <v>0.1891998</v>
       </c>
       <c r="AL149" t="n">
-        <v>22.22683</v>
+        <v>22.23727</v>
       </c>
       <c r="AM149" t="n">
         <v>1273.83</v>
       </c>
       <c r="AN149" t="n">
-        <v>-159.3288</v>
+        <v>-159.3434</v>
       </c>
       <c r="AO149" t="n">
         <v>-149.0003</v>
@@ -19386,31 +19386,31 @@
         <v>3.931229</v>
       </c>
       <c r="AF150" t="n">
-        <v>1159.56</v>
+        <v>1159.629</v>
       </c>
       <c r="AG150" t="n">
-        <v>0.9638685</v>
+        <v>0.9656093</v>
       </c>
       <c r="AH150" t="n">
-        <v>12.9355</v>
+        <v>12.93503</v>
       </c>
       <c r="AI150" t="n">
         <v>1174.153</v>
       </c>
       <c r="AJ150" t="n">
-        <v>1320.131</v>
+        <v>1320.151</v>
       </c>
       <c r="AK150" t="n">
-        <v>0.9414922</v>
+        <v>0.9380902</v>
       </c>
       <c r="AL150" t="n">
-        <v>20.23485</v>
+        <v>20.19521</v>
       </c>
       <c r="AM150" t="n">
         <v>1337.567</v>
       </c>
       <c r="AN150" t="n">
-        <v>-160.5719</v>
+        <v>-160.5221</v>
       </c>
       <c r="AO150" t="n">
         <v>-163.4135</v>
@@ -19511,31 +19511,31 @@
         <v>3.828662</v>
       </c>
       <c r="AF151" t="n">
-        <v>1161.624</v>
+        <v>1161.718</v>
       </c>
       <c r="AG151" t="n">
-        <v>0.1780663</v>
+        <v>0.1801268</v>
       </c>
       <c r="AH151" t="n">
-        <v>12.3757</v>
+        <v>12.38316</v>
       </c>
       <c r="AI151" t="n">
         <v>1198.97</v>
       </c>
       <c r="AJ151" t="n">
-        <v>1316.077</v>
+        <v>1316.27</v>
       </c>
       <c r="AK151" t="n">
-        <v>-0.307091</v>
+        <v>-0.2939628</v>
       </c>
       <c r="AL151" t="n">
-        <v>18.82787</v>
+        <v>18.84238</v>
       </c>
       <c r="AM151" t="n">
         <v>1342.515</v>
       </c>
       <c r="AN151" t="n">
-        <v>-154.4531</v>
+        <v>-154.5526</v>
       </c>
       <c r="AO151" t="n">
         <v>-143.5449</v>
@@ -19636,31 +19636,31 @@
         <v>3.865972</v>
       </c>
       <c r="AF152" t="n">
-        <v>1141.484</v>
+        <v>1141.387</v>
       </c>
       <c r="AG152" t="n">
-        <v>-1.733794</v>
+        <v>-1.750089</v>
       </c>
       <c r="AH152" t="n">
-        <v>10.36248</v>
+        <v>10.35451</v>
       </c>
       <c r="AI152" t="n">
         <v>1116.375</v>
       </c>
       <c r="AJ152" t="n">
-        <v>1292.947</v>
+        <v>1292.774</v>
       </c>
       <c r="AK152" t="n">
-        <v>-1.7575</v>
+        <v>-1.785053</v>
       </c>
       <c r="AL152" t="n">
-        <v>17.07632</v>
+        <v>17.07121</v>
       </c>
       <c r="AM152" t="n">
         <v>1262.622</v>
       </c>
       <c r="AN152" t="n">
-        <v>-151.4632</v>
+        <v>-151.3875</v>
       </c>
       <c r="AO152" t="n">
         <v>-146.2471</v>
@@ -19761,31 +19761,31 @@
         <v>3.840135</v>
       </c>
       <c r="AF153" t="n">
-        <v>1169.776</v>
+        <v>1169.706</v>
       </c>
       <c r="AG153" t="n">
-        <v>2.47852</v>
+        <v>2.481161</v>
       </c>
       <c r="AH153" t="n">
-        <v>13.10644</v>
+        <v>13.10292</v>
       </c>
       <c r="AI153" t="n">
         <v>1112.997</v>
       </c>
       <c r="AJ153" t="n">
-        <v>1322.924</v>
+        <v>1322.864</v>
       </c>
       <c r="AK153" t="n">
-        <v>2.318503</v>
+        <v>2.327536</v>
       </c>
       <c r="AL153" t="n">
-        <v>18.8188</v>
+        <v>18.8304</v>
       </c>
       <c r="AM153" t="n">
         <v>1306.82</v>
       </c>
       <c r="AN153" t="n">
-        <v>-153.1483</v>
+        <v>-153.1577</v>
       </c>
       <c r="AO153" t="n">
         <v>-193.8231</v>
@@ -19882,31 +19882,31 @@
         <v>3.736797</v>
       </c>
       <c r="AF154" t="n">
-        <v>1140.036</v>
+        <v>1139.977</v>
       </c>
       <c r="AG154" t="n">
-        <v>-2.542413</v>
+        <v>-2.541642</v>
       </c>
       <c r="AH154" t="n">
-        <v>10.66305</v>
+        <v>10.66049</v>
       </c>
       <c r="AI154" t="n">
         <v>1169.184</v>
       </c>
       <c r="AJ154" t="n">
-        <v>1277.678</v>
+        <v>1277.4</v>
       </c>
       <c r="AK154" t="n">
-        <v>-3.420188</v>
+        <v>-3.436779</v>
       </c>
       <c r="AL154" t="n">
-        <v>13.77</v>
+        <v>13.74162</v>
       </c>
       <c r="AM154" t="n">
         <v>1315.101</v>
       </c>
       <c r="AN154" t="n">
-        <v>-137.6423</v>
+        <v>-137.4235</v>
       </c>
       <c r="AO154" t="n">
         <v>-145.9174</v>
@@ -20007,31 +20007,31 @@
         <v>3.761433</v>
       </c>
       <c r="AF155" t="n">
-        <v>1098.501</v>
+        <v>1098.448</v>
       </c>
       <c r="AG155" t="n">
-        <v>-3.643287</v>
+        <v>-3.642896</v>
       </c>
       <c r="AH155" t="n">
-        <v>3.592241</v>
+        <v>3.593174</v>
       </c>
       <c r="AI155" t="n">
         <v>1122.971</v>
       </c>
       <c r="AJ155" t="n">
-        <v>1248.952</v>
+        <v>1249</v>
       </c>
       <c r="AK155" t="n">
-        <v>-2.24829</v>
+        <v>-2.223231</v>
       </c>
       <c r="AL155" t="n">
-        <v>8.888847999999999</v>
+        <v>8.900043999999999</v>
       </c>
       <c r="AM155" t="n">
         <v>1281.71</v>
       </c>
       <c r="AN155" t="n">
-        <v>-150.4512</v>
+        <v>-150.5521</v>
       </c>
       <c r="AO155" t="n">
         <v>-158.739</v>
@@ -20132,31 +20132,31 @@
         <v>3.794706</v>
       </c>
       <c r="AF156" t="n">
-        <v>1122.406</v>
+        <v>1122.323</v>
       </c>
       <c r="AG156" t="n">
-        <v>2.176167</v>
+        <v>2.173465</v>
       </c>
       <c r="AH156" t="n">
-        <v>3.740262</v>
+        <v>3.739213</v>
       </c>
       <c r="AI156" t="n">
         <v>1167.455</v>
       </c>
       <c r="AJ156" t="n">
-        <v>1245.904</v>
+        <v>1246.07</v>
       </c>
       <c r="AK156" t="n">
-        <v>-0.2440174</v>
+        <v>-0.2346334</v>
       </c>
       <c r="AL156" t="n">
-        <v>4.439301</v>
+        <v>4.463041</v>
       </c>
       <c r="AM156" t="n">
         <v>1294.181</v>
       </c>
       <c r="AN156" t="n">
-        <v>-123.4983</v>
+        <v>-123.7472</v>
       </c>
       <c r="AO156" t="n">
         <v>-126.7258</v>
@@ -20257,31 +20257,31 @@
         <v>3.908644</v>
       </c>
       <c r="AF157" t="n">
-        <v>1142.724</v>
+        <v>1142.746</v>
       </c>
       <c r="AG157" t="n">
-        <v>1.810185</v>
+        <v>1.819733</v>
       </c>
       <c r="AH157" t="n">
-        <v>4.189032</v>
+        <v>4.192011</v>
       </c>
       <c r="AI157" t="n">
         <v>1127.915</v>
       </c>
       <c r="AJ157" t="n">
-        <v>1276.79</v>
+        <v>1276.796</v>
       </c>
       <c r="AK157" t="n">
-        <v>2.478982</v>
+        <v>2.465849</v>
       </c>
       <c r="AL157" t="n">
-        <v>3.77264</v>
+        <v>3.76821</v>
       </c>
       <c r="AM157" t="n">
         <v>1247.81</v>
       </c>
       <c r="AN157" t="n">
-        <v>-134.0664</v>
+        <v>-134.0501</v>
       </c>
       <c r="AO157" t="n">
         <v>-119.895</v>
@@ -20382,31 +20382,31 @@
         <v>4.272993</v>
       </c>
       <c r="AF158" t="n">
-        <v>1153.17</v>
+        <v>1153.159</v>
       </c>
       <c r="AG158" t="n">
-        <v>0.9141544</v>
+        <v>0.9112512</v>
       </c>
       <c r="AH158" t="n">
-        <v>4.678142</v>
+        <v>4.675709</v>
       </c>
       <c r="AI158" t="n">
         <v>1091.209</v>
       </c>
       <c r="AJ158" t="n">
-        <v>1280.204</v>
+        <v>1280.037</v>
       </c>
       <c r="AK158" t="n">
-        <v>0.2673978</v>
+        <v>0.2538531</v>
       </c>
       <c r="AL158" t="n">
-        <v>2.145366</v>
+        <v>2.129875</v>
       </c>
       <c r="AM158" t="n">
         <v>1248.391</v>
       </c>
       <c r="AN158" t="n">
-        <v>-127.0343</v>
+        <v>-126.878</v>
       </c>
       <c r="AO158" t="n">
         <v>-157.1821</v>
@@ -20507,31 +20507,31 @@
         <v>4.214634</v>
       </c>
       <c r="AF159" t="n">
-        <v>1138.43</v>
+        <v>1138.505</v>
       </c>
       <c r="AG159" t="n">
-        <v>-1.27824</v>
+        <v>-1.270822</v>
       </c>
       <c r="AH159" t="n">
-        <v>0.8073391</v>
+        <v>0.8086769</v>
       </c>
       <c r="AI159" t="n">
         <v>1090.724</v>
       </c>
       <c r="AJ159" t="n">
-        <v>1249.013</v>
+        <v>1249.056</v>
       </c>
       <c r="AK159" t="n">
-        <v>-2.436414</v>
+        <v>-2.42038</v>
       </c>
       <c r="AL159" t="n">
-        <v>-1.513518</v>
+        <v>-1.513254</v>
       </c>
       <c r="AM159" t="n">
         <v>1167.155</v>
       </c>
       <c r="AN159" t="n">
-        <v>-110.5835</v>
+        <v>-110.5508</v>
       </c>
       <c r="AO159" t="n">
         <v>-76.43136</v>
@@ -20632,31 +20632,31 @@
         <v>4.092597</v>
       </c>
       <c r="AF160" t="n">
-        <v>1134.026</v>
+        <v>1134.081</v>
       </c>
       <c r="AG160" t="n">
-        <v>-0.386833</v>
+        <v>-0.3885951</v>
       </c>
       <c r="AH160" t="n">
-        <v>-0.1148237</v>
+        <v>-0.1151725</v>
       </c>
       <c r="AI160" t="n">
         <v>1244.522</v>
       </c>
       <c r="AJ160" t="n">
-        <v>1213.421</v>
+        <v>1213.569</v>
       </c>
       <c r="AK160" t="n">
-        <v>-2.849613</v>
+        <v>-2.841099</v>
       </c>
       <c r="AL160" t="n">
-        <v>-7.04189</v>
+        <v>-7.03559</v>
       </c>
       <c r="AM160" t="n">
         <v>1303.016</v>
       </c>
       <c r="AN160" t="n">
-        <v>-79.39528</v>
+        <v>-79.48811000000001</v>
       </c>
       <c r="AO160" t="n">
         <v>-58.49376</v>
@@ -20757,31 +20757,31 @@
         <v>3.932123</v>
       </c>
       <c r="AF161" t="n">
-        <v>1120.249</v>
+        <v>1120.356</v>
       </c>
       <c r="AG161" t="n">
-        <v>-1.214854</v>
+        <v>-1.210151</v>
       </c>
       <c r="AH161" t="n">
-        <v>-2.458935</v>
+        <v>-2.453734</v>
       </c>
       <c r="AI161" t="n">
         <v>1069.801</v>
       </c>
       <c r="AJ161" t="n">
-        <v>1235.9</v>
+        <v>1236.091</v>
       </c>
       <c r="AK161" t="n">
-        <v>1.852544</v>
+        <v>1.855909</v>
       </c>
       <c r="AL161" t="n">
-        <v>-5.499096</v>
+        <v>-5.48907</v>
       </c>
       <c r="AM161" t="n">
         <v>1174.524</v>
       </c>
       <c r="AN161" t="n">
-        <v>-115.6512</v>
+        <v>-115.7349</v>
       </c>
       <c r="AO161" t="n">
         <v>-104.723</v>
@@ -20882,31 +20882,31 @@
         <v>3.794362</v>
       </c>
       <c r="AF162" t="n">
-        <v>1119.387</v>
+        <v>1119.461</v>
       </c>
       <c r="AG162" t="n">
-        <v>-0.07696482</v>
+        <v>-0.07990823</v>
       </c>
       <c r="AH162" t="n">
-        <v>-3.464483</v>
+        <v>-3.463844</v>
       </c>
       <c r="AI162" t="n">
         <v>1138.418</v>
       </c>
       <c r="AJ162" t="n">
-        <v>1223.604</v>
+        <v>1223.621</v>
       </c>
       <c r="AK162" t="n">
-        <v>-0.9949098</v>
+        <v>-1.008844</v>
       </c>
       <c r="AL162" t="n">
-        <v>-7.311946</v>
+        <v>-7.312035</v>
       </c>
       <c r="AM162" t="n">
         <v>1254.346</v>
       </c>
       <c r="AN162" t="n">
-        <v>-104.2173</v>
+        <v>-104.16</v>
       </c>
       <c r="AO162" t="n">
         <v>-115.9279</v>
@@ -21007,31 +21007,31 @@
         <v>3.703445</v>
       </c>
       <c r="AF163" t="n">
-        <v>1115.571</v>
+        <v>1115.688</v>
       </c>
       <c r="AG163" t="n">
-        <v>-0.3408516</v>
+        <v>-0.3370759</v>
       </c>
       <c r="AH163" t="n">
-        <v>-3.964533</v>
+        <v>-3.962234</v>
       </c>
       <c r="AI163" t="n">
         <v>1163.843</v>
       </c>
       <c r="AJ163" t="n">
-        <v>1200.601</v>
+        <v>1200.58</v>
       </c>
       <c r="AK163" t="n">
-        <v>-1.879983</v>
+        <v>-1.88301</v>
       </c>
       <c r="AL163" t="n">
-        <v>-8.774319999999999</v>
+        <v>-8.789232</v>
       </c>
       <c r="AM163" t="n">
         <v>1229.902</v>
       </c>
       <c r="AN163" t="n">
-        <v>-85.02921000000001</v>
+        <v>-84.89247</v>
       </c>
       <c r="AO163" t="n">
         <v>-66.05949</v>
@@ -21132,31 +21132,31 @@
         <v>3.752394</v>
       </c>
       <c r="AF164" t="n">
-        <v>1114.886</v>
+        <v>1114.735</v>
       </c>
       <c r="AG164" t="n">
-        <v>-0.06144051</v>
+        <v>-0.08535447</v>
       </c>
       <c r="AH164" t="n">
-        <v>-2.330143</v>
+        <v>-2.334981</v>
       </c>
       <c r="AI164" t="n">
         <v>1084.121</v>
       </c>
       <c r="AJ164" t="n">
-        <v>1206.006</v>
+        <v>1205.798</v>
       </c>
       <c r="AK164" t="n">
-        <v>0.4502669</v>
+        <v>0.4345801</v>
       </c>
       <c r="AL164" t="n">
-        <v>-6.724239</v>
+        <v>-6.727892</v>
       </c>
       <c r="AM164" t="n">
         <v>1178.084</v>
       </c>
       <c r="AN164" t="n">
-        <v>-91.12052</v>
+        <v>-91.06225000000001</v>
       </c>
       <c r="AO164" t="n">
         <v>-93.96275</v>
@@ -21257,31 +21257,31 @@
         <v>3.780441</v>
       </c>
       <c r="AF165" t="n">
-        <v>1121.477</v>
+        <v>1121.435</v>
       </c>
       <c r="AG165" t="n">
-        <v>0.5911618</v>
+        <v>0.6010369</v>
       </c>
       <c r="AH165" t="n">
-        <v>-4.12894</v>
+        <v>-4.126749</v>
       </c>
       <c r="AI165" t="n">
         <v>1065.823</v>
       </c>
       <c r="AJ165" t="n">
-        <v>1193.064</v>
+        <v>1193.073</v>
       </c>
       <c r="AK165" t="n">
-        <v>-1.073198</v>
+        <v>-1.05527</v>
       </c>
       <c r="AL165" t="n">
-        <v>-9.816186999999999</v>
+        <v>-9.811339</v>
       </c>
       <c r="AM165" t="n">
         <v>1169.973</v>
       </c>
       <c r="AN165" t="n">
-        <v>-71.58691</v>
+        <v>-71.63785</v>
       </c>
       <c r="AO165" t="n">
         <v>-104.1496</v>
@@ -21382,31 +21382,31 @@
         <v>3.725131</v>
       </c>
       <c r="AF166" t="n">
-        <v>1104.38</v>
+        <v>1104.287</v>
       </c>
       <c r="AG166" t="n">
-        <v>-1.524488</v>
+        <v>-1.529109</v>
       </c>
       <c r="AH166" t="n">
-        <v>-3.127586</v>
+        <v>-3.130684</v>
       </c>
       <c r="AI166" t="n">
         <v>1113.115</v>
       </c>
       <c r="AJ166" t="n">
-        <v>1177.967</v>
+        <v>1177.744</v>
       </c>
       <c r="AK166" t="n">
-        <v>-1.265374</v>
+        <v>-1.284851</v>
       </c>
       <c r="AL166" t="n">
-        <v>-7.804075</v>
+        <v>-7.80147</v>
       </c>
       <c r="AM166" t="n">
         <v>1183.397</v>
       </c>
       <c r="AN166" t="n">
-        <v>-73.58698</v>
+        <v>-73.45659999999999</v>
       </c>
       <c r="AO166" t="n">
         <v>-70.28215</v>
@@ -21507,31 +21507,31 @@
         <v>3.741018</v>
       </c>
       <c r="AF167" t="n">
-        <v>1100.014</v>
+        <v>1099.927</v>
       </c>
       <c r="AG167" t="n">
-        <v>-0.3953749</v>
+        <v>-0.3948245</v>
       </c>
       <c r="AH167" t="n">
-        <v>0.1377094</v>
+        <v>0.1346539</v>
       </c>
       <c r="AI167" t="n">
         <v>1148.072</v>
       </c>
       <c r="AJ167" t="n">
-        <v>1174.212</v>
+        <v>1174.129</v>
       </c>
       <c r="AK167" t="n">
-        <v>-0.3188019</v>
+        <v>-0.3069184</v>
       </c>
       <c r="AL167" t="n">
-        <v>-5.984251</v>
+        <v>-5.994484</v>
       </c>
       <c r="AM167" t="n">
         <v>1238.444</v>
       </c>
       <c r="AN167" t="n">
-        <v>-74.19803</v>
+        <v>-74.20188</v>
       </c>
       <c r="AO167" t="n">
         <v>-90.37164</v>
@@ -21632,31 +21632,31 @@
         <v>3.823076</v>
       </c>
       <c r="AF168" t="n">
-        <v>1113.773</v>
+        <v>1113.727</v>
       </c>
       <c r="AG168" t="n">
-        <v>1.250861</v>
+        <v>1.25459</v>
       </c>
       <c r="AH168" t="n">
-        <v>-0.7691359</v>
+        <v>-0.7658852</v>
       </c>
       <c r="AI168" t="n">
         <v>1160.758</v>
       </c>
       <c r="AJ168" t="n">
-        <v>1176.209</v>
+        <v>1176.49</v>
       </c>
       <c r="AK168" t="n">
-        <v>0.1700739</v>
+        <v>0.2010621</v>
       </c>
       <c r="AL168" t="n">
-        <v>-5.593988</v>
+        <v>-5.583943</v>
       </c>
       <c r="AM168" t="n">
         <v>1224.375</v>
       </c>
       <c r="AN168" t="n">
-        <v>-62.43541</v>
+        <v>-62.76303</v>
       </c>
       <c r="AO168" t="n">
         <v>-63.6173</v>
@@ -21757,31 +21757,31 @@
         <v>3.96942</v>
       </c>
       <c r="AF169" t="n">
-        <v>1122.807</v>
+        <v>1122.806</v>
       </c>
       <c r="AG169" t="n">
-        <v>0.8111351</v>
+        <v>0.8151503</v>
       </c>
       <c r="AH169" t="n">
-        <v>-1.742876</v>
+        <v>-1.744957</v>
       </c>
       <c r="AI169" t="n">
         <v>1070.039</v>
       </c>
       <c r="AJ169" t="n">
-        <v>1188.483</v>
+        <v>1188.531</v>
       </c>
       <c r="AK169" t="n">
-        <v>1.04352</v>
+        <v>1.023474</v>
       </c>
       <c r="AL169" t="n">
-        <v>-6.916369</v>
+        <v>-6.913004</v>
       </c>
       <c r="AM169" t="n">
         <v>1124.797</v>
       </c>
       <c r="AN169" t="n">
-        <v>-65.67518</v>
+        <v>-65.72556</v>
       </c>
       <c r="AO169" t="n">
         <v>-54.75834</v>
@@ -21878,34 +21878,34 @@
         <v>4.399451</v>
       </c>
       <c r="AF170" t="n">
-        <v>1120.323</v>
+        <v>1120.306</v>
       </c>
       <c r="AG170" t="n">
-        <v>-0.221284</v>
+        <v>-0.2226448</v>
       </c>
       <c r="AH170" t="n">
-        <v>-2.848418</v>
+        <v>-2.849006</v>
       </c>
       <c r="AI170" t="n">
-        <v>1073.558</v>
+        <v>1073.565</v>
       </c>
       <c r="AJ170" t="n">
-        <v>1165.542</v>
+        <v>1165.511</v>
       </c>
       <c r="AK170" t="n">
-        <v>-1.930244</v>
+        <v>-1.936842</v>
       </c>
       <c r="AL170" t="n">
-        <v>-8.956557999999999</v>
+        <v>-8.947093000000001</v>
       </c>
       <c r="AM170" t="n">
-        <v>1152.621</v>
+        <v>1152.63</v>
       </c>
       <c r="AN170" t="n">
-        <v>-45.21916</v>
+        <v>-45.20546</v>
       </c>
       <c r="AO170" t="n">
-        <v>-79.06274000000001</v>
+        <v>-79.06535</v>
       </c>
     </row>
     <row r="171">
@@ -21995,34 +21995,34 @@
         <v>4.270208</v>
       </c>
       <c r="AF171" t="n">
-        <v>1120.349</v>
+        <v>1120.455</v>
       </c>
       <c r="AG171" t="n">
-        <v>0.002377157</v>
+        <v>0.01328955</v>
       </c>
       <c r="AH171" t="n">
-        <v>-1.588169</v>
+        <v>-1.585421</v>
       </c>
       <c r="AI171" t="n">
-        <v>1097.362</v>
+        <v>1097.359</v>
       </c>
       <c r="AJ171" t="n">
-        <v>1190.455</v>
+        <v>1190.566</v>
       </c>
       <c r="AK171" t="n">
-        <v>2.137479</v>
+        <v>2.149638</v>
       </c>
       <c r="AL171" t="n">
-        <v>-4.688338</v>
+        <v>-4.682745</v>
       </c>
       <c r="AM171" t="n">
-        <v>1141.087</v>
+        <v>1141.146</v>
       </c>
       <c r="AN171" t="n">
-        <v>-70.10574</v>
+        <v>-70.11086</v>
       </c>
       <c r="AO171" t="n">
-        <v>-43.72504</v>
+        <v>-43.78662</v>
       </c>
     </row>
     <row r="172">
@@ -22112,34 +22112,34 @@
         <v>4.043137</v>
       </c>
       <c r="AF172" t="n">
-        <v>1114.131</v>
+        <v>1114.203</v>
       </c>
       <c r="AG172" t="n">
-        <v>-0.5550058</v>
+        <v>-0.5580006</v>
       </c>
       <c r="AH172" t="n">
-        <v>-1.754314</v>
+        <v>-1.752791</v>
       </c>
       <c r="AI172" t="n">
-        <v>1154.5</v>
+        <v>1154.49</v>
       </c>
       <c r="AJ172" t="n">
-        <v>1188.159</v>
+        <v>1188.351</v>
       </c>
       <c r="AK172" t="n">
-        <v>-0.1928519</v>
+        <v>-0.1860055</v>
       </c>
       <c r="AL172" t="n">
-        <v>-2.08186</v>
+        <v>-2.077978</v>
       </c>
       <c r="AM172" t="n">
-        <v>1193.395</v>
+        <v>1193.416</v>
       </c>
       <c r="AN172" t="n">
-        <v>-74.02791999999999</v>
+        <v>-74.14848000000001</v>
       </c>
       <c r="AO172" t="n">
-        <v>-38.89492</v>
+        <v>-38.92616</v>
       </c>
     </row>
     <row r="173">
@@ -22227,34 +22227,34 @@
         <v>3.991223</v>
       </c>
       <c r="AF173" t="n">
-        <v>1118.297</v>
+        <v>1118.358</v>
       </c>
       <c r="AG173" t="n">
-        <v>0.3738408</v>
+        <v>0.372947</v>
       </c>
       <c r="AH173" t="n">
-        <v>-0.1742953</v>
+        <v>-0.1783888</v>
       </c>
       <c r="AI173" t="n">
-        <v>1131.114</v>
+        <v>1131.103</v>
       </c>
       <c r="AJ173" t="n">
-        <v>1202.769</v>
+        <v>1202.701</v>
       </c>
       <c r="AK173" t="n">
-        <v>1.229615</v>
+        <v>1.207548</v>
       </c>
       <c r="AL173" t="n">
-        <v>-2.680727</v>
+        <v>-2.701298</v>
       </c>
       <c r="AM173" t="n">
-        <v>1225.092</v>
+        <v>1225.098</v>
       </c>
       <c r="AN173" t="n">
-        <v>-84.47263</v>
+        <v>-84.343</v>
       </c>
       <c r="AO173" t="n">
-        <v>-93.97803</v>
+        <v>-93.99469999999999</v>
       </c>
     </row>
     <row r="174">
@@ -22338,34 +22338,34 @@
         <v>3.912411</v>
       </c>
       <c r="AF174" t="n">
-        <v>1106.14</v>
+        <v>1106.255</v>
       </c>
       <c r="AG174" t="n">
-        <v>-1.087021</v>
+        <v>-1.082243</v>
       </c>
       <c r="AH174" t="n">
-        <v>-1.183367</v>
+        <v>-1.179736</v>
       </c>
       <c r="AI174" t="n">
-        <v>1128.436</v>
+        <v>1128.423</v>
       </c>
       <c r="AJ174" t="n">
-        <v>1186.672</v>
+        <v>1186.752</v>
       </c>
       <c r="AK174" t="n">
-        <v>-1.338384</v>
+        <v>-1.32606</v>
       </c>
       <c r="AL174" t="n">
-        <v>-3.018352</v>
+        <v>-3.013091</v>
       </c>
       <c r="AM174" t="n">
-        <v>1211.808</v>
+        <v>1211.814</v>
       </c>
       <c r="AN174" t="n">
-        <v>-80.53108</v>
+        <v>-80.49782</v>
       </c>
       <c r="AO174" t="n">
-        <v>-83.37231</v>
+        <v>-83.39121</v>
       </c>
     </row>
     <row r="175">

--- a/relevant_full.xlsx
+++ b/relevant_full.xlsx
@@ -22230,10 +22230,10 @@
         <v>1118.358</v>
       </c>
       <c r="AG173" t="n">
-        <v>0.372947</v>
+        <v>0.3729419</v>
       </c>
       <c r="AH173" t="n">
-        <v>-0.1783888</v>
+        <v>-0.1783939</v>
       </c>
       <c r="AI173" t="n">
         <v>1131.103</v>
@@ -22251,10 +22251,10 @@
         <v>1225.098</v>
       </c>
       <c r="AN173" t="n">
-        <v>-84.343</v>
+        <v>-84.34305999999999</v>
       </c>
       <c r="AO173" t="n">
-        <v>-93.99469999999999</v>
+        <v>-93.99476</v>
       </c>
     </row>
     <row r="174">
@@ -22338,16 +22338,16 @@
         <v>3.912411</v>
       </c>
       <c r="AF174" t="n">
-        <v>1106.255</v>
+        <v>1106.259</v>
       </c>
       <c r="AG174" t="n">
-        <v>-1.082243</v>
+        <v>-1.081885</v>
       </c>
       <c r="AH174" t="n">
-        <v>-1.179736</v>
+        <v>-1.179383</v>
       </c>
       <c r="AI174" t="n">
-        <v>1128.423</v>
+        <v>1128.427</v>
       </c>
       <c r="AJ174" t="n">
         <v>1186.752</v>
@@ -22362,10 +22362,10 @@
         <v>1211.814</v>
       </c>
       <c r="AN174" t="n">
-        <v>-80.49782</v>
+        <v>-80.49387</v>
       </c>
       <c r="AO174" t="n">
-        <v>-83.39121</v>
+        <v>-83.38701</v>
       </c>
     </row>
     <row r="175">
@@ -22448,16 +22448,36 @@
       <c r="AE175" t="n">
         <v>3.824927</v>
       </c>
-      <c r="AF175" t="inlineStr"/>
-      <c r="AG175" t="inlineStr"/>
-      <c r="AH175" t="inlineStr"/>
-      <c r="AI175" t="inlineStr"/>
-      <c r="AJ175" t="inlineStr"/>
-      <c r="AK175" t="inlineStr"/>
-      <c r="AL175" t="inlineStr"/>
-      <c r="AM175" t="inlineStr"/>
-      <c r="AN175" t="inlineStr"/>
-      <c r="AO175" t="inlineStr"/>
+      <c r="AF175" t="n">
+        <v>1111.758</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>0.4971463</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>-0.3522113</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1113.665</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1192.372</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>0.4735017</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>-0.6837208</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1165.598</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>-80.61342999999999</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>-51.93208</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">

--- a/relevant_full.xlsx
+++ b/relevant_full.xlsx
@@ -678,13 +678,13 @@
         <v>90.08351</v>
       </c>
       <c r="N2" t="n">
-        <v>17.90334</v>
+        <v>17.90336</v>
       </c>
       <c r="O2" t="n">
-        <v>8.709279</v>
+        <v>8.709288000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>7.353423</v>
+        <v>7.353431</v>
       </c>
       <c r="Q2" t="n">
         <v>18.58609</v>
@@ -699,10 +699,10 @@
         <v>16.36163</v>
       </c>
       <c r="U2" t="n">
-        <v>8.334125999999999</v>
+        <v>8.33413</v>
       </c>
       <c r="V2" t="n">
-        <v>7.109567</v>
+        <v>7.109574</v>
       </c>
       <c r="W2" t="n">
         <v>16.67121</v>
@@ -714,13 +714,13 @@
         <v>7.423635</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.20657</v>
+        <v>19.20658</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.977808</v>
+        <v>8.977819</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.511819</v>
+        <v>7.511829</v>
       </c>
       <c r="AC2" t="n">
         <v>20.17727</v>
@@ -805,13 +805,13 @@
         <v>90.55437999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>17.66826</v>
+        <v>17.66827</v>
       </c>
       <c r="O3" t="n">
-        <v>8.668252000000001</v>
+        <v>8.668259000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>7.347848</v>
+        <v>7.347854</v>
       </c>
       <c r="Q3" t="n">
         <v>18.30058</v>
@@ -826,10 +826,10 @@
         <v>16.50588</v>
       </c>
       <c r="U3" t="n">
-        <v>8.328205000000001</v>
+        <v>8.328208999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>7.086893</v>
+        <v>7.086899</v>
       </c>
       <c r="W3" t="n">
         <v>16.74849</v>
@@ -841,13 +841,13 @@
         <v>7.347026</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.59525</v>
+        <v>18.59526</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.909224999999999</v>
+        <v>8.909233</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.527881</v>
+        <v>7.527889</v>
       </c>
       <c r="AC3" t="n">
         <v>19.51362</v>
@@ -932,13 +932,13 @@
         <v>91.82644999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>17.8153</v>
+        <v>17.81531</v>
       </c>
       <c r="O4" t="n">
-        <v>8.650807</v>
+        <v>8.650812999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>7.305619</v>
+        <v>7.305624</v>
       </c>
       <c r="Q4" t="n">
         <v>18.04799</v>
@@ -953,10 +953,10 @@
         <v>16.80266</v>
       </c>
       <c r="U4" t="n">
-        <v>8.385144</v>
+        <v>8.385149</v>
       </c>
       <c r="V4" t="n">
-        <v>7.113759</v>
+        <v>7.113765</v>
       </c>
       <c r="W4" t="n">
         <v>16.55939</v>
@@ -968,13 +968,13 @@
         <v>7.199601</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.64824</v>
+        <v>18.64826</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.822608000000001</v>
+        <v>8.822615000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.413537</v>
+        <v>7.413541</v>
       </c>
       <c r="AC4" t="n">
         <v>19.38834</v>
@@ -1059,13 +1059,13 @@
         <v>91.61561</v>
       </c>
       <c r="N5" t="n">
-        <v>18.0011</v>
+        <v>18.00111</v>
       </c>
       <c r="O5" t="n">
-        <v>8.693574999999999</v>
+        <v>8.693581999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>7.326392</v>
+        <v>7.326398</v>
       </c>
       <c r="Q5" t="n">
         <v>17.74484</v>
@@ -1077,13 +1077,13 @@
         <v>7.336684</v>
       </c>
       <c r="T5" t="n">
-        <v>16.96767</v>
+        <v>16.96763</v>
       </c>
       <c r="U5" t="n">
-        <v>8.484885999999999</v>
+        <v>8.484892</v>
       </c>
       <c r="V5" t="n">
-        <v>7.204903</v>
+        <v>7.204917</v>
       </c>
       <c r="W5" t="n">
         <v>16.4461</v>
@@ -1095,13 +1095,13 @@
         <v>7.114145</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.81201</v>
+        <v>18.81203</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.813758999999999</v>
+        <v>8.813765999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.378766</v>
+        <v>7.378772</v>
       </c>
       <c r="AC5" t="n">
         <v>18.69027</v>
@@ -1186,13 +1186,13 @@
         <v>91.60078</v>
       </c>
       <c r="N6" t="n">
-        <v>17.53863</v>
+        <v>17.53864</v>
       </c>
       <c r="O6" t="n">
-        <v>8.557544999999999</v>
+        <v>8.557553</v>
       </c>
       <c r="P6" t="n">
-        <v>7.243851</v>
+        <v>7.243858</v>
       </c>
       <c r="Q6" t="n">
         <v>17.42166</v>
@@ -1207,10 +1207,10 @@
         <v>17.21096</v>
       </c>
       <c r="U6" t="n">
-        <v>8.426531000000001</v>
+        <v>8.426538000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>7.094028</v>
+        <v>7.094037</v>
       </c>
       <c r="W6" t="n">
         <v>17.20832</v>
@@ -1222,13 +1222,13 @@
         <v>6.934091</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.80038</v>
+        <v>17.8004</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.624836</v>
+        <v>8.624846</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.321555</v>
+        <v>7.321564</v>
       </c>
       <c r="AC6" t="n">
         <v>17.57087</v>
@@ -1313,13 +1313,13 @@
         <v>91.66764000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>17.42996</v>
+        <v>17.42997</v>
       </c>
       <c r="O7" t="n">
-        <v>8.463787999999999</v>
+        <v>8.463791000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>7.160287</v>
+        <v>7.160288</v>
       </c>
       <c r="Q7" t="n">
         <v>17.75853</v>
@@ -1331,13 +1331,13 @@
         <v>6.940337</v>
       </c>
       <c r="T7" t="n">
-        <v>16.65067</v>
+        <v>16.65068</v>
       </c>
       <c r="U7" t="n">
         <v>8.260638</v>
       </c>
       <c r="V7" t="n">
-        <v>7.000052</v>
+        <v>7.000051</v>
       </c>
       <c r="W7" t="n">
         <v>17.09269</v>
@@ -1349,13 +1349,13 @@
         <v>6.877761</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.16098</v>
+        <v>18.16099</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.604528999999999</v>
+        <v>8.604533999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.249567</v>
+        <v>7.249571</v>
       </c>
       <c r="AC7" t="n">
         <v>18.42628</v>
@@ -1440,13 +1440,13 @@
         <v>91.92849</v>
       </c>
       <c r="N8" t="n">
-        <v>17.36459</v>
+        <v>17.36461</v>
       </c>
       <c r="O8" t="n">
-        <v>8.448001</v>
+        <v>8.448016000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>7.145571</v>
+        <v>7.145586</v>
       </c>
       <c r="Q8" t="n">
         <v>17.52513</v>
@@ -1458,13 +1458,13 @@
         <v>7.044087</v>
       </c>
       <c r="T8" t="n">
-        <v>16.76946</v>
+        <v>16.76962</v>
       </c>
       <c r="U8" t="n">
-        <v>8.324282</v>
+        <v>8.324296</v>
       </c>
       <c r="V8" t="n">
-        <v>7.048986</v>
+        <v>7.048977</v>
       </c>
       <c r="W8" t="n">
         <v>17.33677</v>
@@ -1476,13 +1476,13 @@
         <v>7.147815</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.90467</v>
+        <v>17.9047</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.52594</v>
+        <v>8.525957</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.192313</v>
+        <v>7.192328</v>
       </c>
       <c r="AC8" t="n">
         <v>17.71739</v>
@@ -1567,13 +1567,13 @@
         <v>92.09649</v>
       </c>
       <c r="N9" t="n">
-        <v>17.12953</v>
+        <v>17.12954</v>
       </c>
       <c r="O9" t="n">
-        <v>8.409246</v>
+        <v>8.409248</v>
       </c>
       <c r="P9" t="n">
-        <v>7.134329</v>
+        <v>7.13433</v>
       </c>
       <c r="Q9" t="n">
         <v>17.03866</v>
@@ -1585,13 +1585,13 @@
         <v>6.995789</v>
       </c>
       <c r="T9" t="n">
-        <v>16.8372</v>
+        <v>16.83719</v>
       </c>
       <c r="U9" t="n">
-        <v>8.328835</v>
+        <v>8.328843000000001</v>
       </c>
       <c r="V9" t="n">
-        <v>7.036813</v>
+        <v>7.036824</v>
       </c>
       <c r="W9" t="n">
         <v>17.35397</v>
@@ -1603,13 +1603,13 @@
         <v>7.161031</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.45401</v>
+        <v>17.45403</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.453018999999999</v>
+        <v>8.453018</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.176194</v>
+        <v>7.176189</v>
       </c>
       <c r="AC9" t="n">
         <v>16.93767</v>
@@ -1694,13 +1694,13 @@
         <v>92.33266999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>17.16925</v>
+        <v>17.16926</v>
       </c>
       <c r="O10" t="n">
-        <v>8.423301</v>
+        <v>8.423304</v>
       </c>
       <c r="P10" t="n">
-        <v>7.156017</v>
+        <v>7.156018</v>
       </c>
       <c r="Q10" t="n">
         <v>17.32926</v>
@@ -1715,10 +1715,10 @@
         <v>16.80843</v>
       </c>
       <c r="U10" t="n">
-        <v>8.353194999999999</v>
+        <v>8.353199999999999</v>
       </c>
       <c r="V10" t="n">
-        <v>7.090279</v>
+        <v>7.090283</v>
       </c>
       <c r="W10" t="n">
         <v>17.14803</v>
@@ -1730,13 +1730,13 @@
         <v>7.071147</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.47886</v>
+        <v>17.47888</v>
       </c>
       <c r="AA10" t="n">
         <v>8.462676999999999</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.188881</v>
+        <v>7.188879</v>
       </c>
       <c r="AC10" t="n">
         <v>17.3299</v>
@@ -1821,13 +1821,13 @@
         <v>92.61346</v>
       </c>
       <c r="N11" t="n">
-        <v>17.43603</v>
+        <v>17.43602</v>
       </c>
       <c r="O11" t="n">
-        <v>8.441439000000001</v>
+        <v>8.441442</v>
       </c>
       <c r="P11" t="n">
-        <v>7.135074</v>
+        <v>7.135078</v>
       </c>
       <c r="Q11" t="n">
         <v>17.1561</v>
@@ -1839,13 +1839,13 @@
         <v>6.954552</v>
       </c>
       <c r="T11" t="n">
-        <v>17.36741</v>
+        <v>17.36747</v>
       </c>
       <c r="U11" t="n">
-        <v>8.438967</v>
+        <v>8.438972</v>
       </c>
       <c r="V11" t="n">
-        <v>7.101057</v>
+        <v>7.101051</v>
       </c>
       <c r="W11" t="n">
         <v>17.24533</v>
@@ -1857,13 +1857,13 @@
         <v>7.057797</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.51274</v>
+        <v>17.51276</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.422670999999999</v>
+        <v>8.422673</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.137904</v>
+        <v>7.137903</v>
       </c>
       <c r="AC11" t="n">
         <v>17.05451</v>
@@ -1948,13 +1948,13 @@
         <v>92.8755</v>
       </c>
       <c r="N12" t="n">
-        <v>17.37291</v>
+        <v>17.3729</v>
       </c>
       <c r="O12" t="n">
-        <v>8.474601</v>
+        <v>8.474600000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>7.183697</v>
+        <v>7.183698</v>
       </c>
       <c r="Q12" t="n">
         <v>16.79219</v>
@@ -1966,13 +1966,13 @@
         <v>6.977662</v>
       </c>
       <c r="T12" t="n">
-        <v>16.96843</v>
+        <v>16.96841</v>
       </c>
       <c r="U12" t="n">
-        <v>8.457848</v>
+        <v>8.457852000000001</v>
       </c>
       <c r="V12" t="n">
-        <v>7.181178</v>
+        <v>7.181187</v>
       </c>
       <c r="W12" t="n">
         <v>16.43328</v>
@@ -1984,13 +1984,13 @@
         <v>7.00923</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.69701</v>
+        <v>17.69702</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.464024999999999</v>
+        <v>8.464019</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.161895</v>
+        <v>7.161889</v>
       </c>
       <c r="AC12" t="n">
         <v>17.03149</v>
@@ -2078,10 +2078,10 @@
         <v>17.22368</v>
       </c>
       <c r="O13" t="n">
-        <v>8.348919</v>
+        <v>8.348924</v>
       </c>
       <c r="P13" t="n">
-        <v>7.067628</v>
+        <v>7.067633</v>
       </c>
       <c r="Q13" t="n">
         <v>16.41259</v>
@@ -2093,13 +2093,13 @@
         <v>7.019455</v>
       </c>
       <c r="T13" t="n">
-        <v>16.9215</v>
+        <v>16.92149</v>
       </c>
       <c r="U13" t="n">
-        <v>8.35117</v>
+        <v>8.351175</v>
       </c>
       <c r="V13" t="n">
-        <v>7.081996</v>
+        <v>7.082006</v>
       </c>
       <c r="W13" t="n">
         <v>15.75612</v>
@@ -2111,13 +2111,13 @@
         <v>6.876934</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.47299</v>
+        <v>17.47301</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.328205000000001</v>
+        <v>8.328208999999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.037056</v>
+        <v>7.037058</v>
       </c>
       <c r="AC13" t="n">
         <v>17.0406</v>
@@ -2202,13 +2202,13 @@
         <v>93.26646</v>
       </c>
       <c r="N14" t="n">
-        <v>17.14162</v>
+        <v>17.14164</v>
       </c>
       <c r="O14" t="n">
-        <v>8.217032</v>
+        <v>8.217043</v>
       </c>
       <c r="P14" t="n">
-        <v>6.923024</v>
+        <v>6.923033</v>
       </c>
       <c r="Q14" t="n">
         <v>17.70533</v>
@@ -2220,13 +2220,13 @@
         <v>7.408316</v>
       </c>
       <c r="T14" t="n">
-        <v>17.08279</v>
+        <v>17.08277</v>
       </c>
       <c r="U14" t="n">
-        <v>8.259496</v>
+        <v>8.259501</v>
       </c>
       <c r="V14" t="n">
-        <v>6.944641</v>
+        <v>6.944651</v>
       </c>
       <c r="W14" t="n">
         <v>17.38505</v>
@@ -2238,13 +2238,13 @@
         <v>7.22442</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.17173</v>
+        <v>17.17175</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.168934</v>
+        <v>8.168948</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.893579</v>
+        <v>6.893594</v>
       </c>
       <c r="AC14" t="n">
         <v>17.98106</v>
@@ -2329,13 +2329,13 @@
         <v>93.346</v>
       </c>
       <c r="N15" t="n">
-        <v>17.04652</v>
+        <v>17.04653</v>
       </c>
       <c r="O15" t="n">
-        <v>8.174789000000001</v>
+        <v>8.174795</v>
       </c>
       <c r="P15" t="n">
-        <v>6.893138</v>
+        <v>6.893143</v>
       </c>
       <c r="Q15" t="n">
         <v>17.62909</v>
@@ -2347,13 +2347,13 @@
         <v>7.31703</v>
       </c>
       <c r="T15" t="n">
-        <v>16.87856</v>
+        <v>16.87853</v>
       </c>
       <c r="U15" t="n">
-        <v>8.259342</v>
+        <v>8.259345</v>
       </c>
       <c r="V15" t="n">
-        <v>6.974472</v>
+        <v>6.974482</v>
       </c>
       <c r="W15" t="n">
         <v>17.13238</v>
@@ -2365,13 +2365,13 @@
         <v>7.225237</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.16582</v>
+        <v>17.16583</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.078044999999999</v>
+        <v>8.078053000000001</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.797042</v>
+        <v>6.79705</v>
       </c>
       <c r="AC15" t="n">
         <v>18.04909</v>
@@ -2456,13 +2456,13 @@
         <v>92.56092</v>
       </c>
       <c r="N16" t="n">
-        <v>16.87516</v>
+        <v>16.87518</v>
       </c>
       <c r="O16" t="n">
-        <v>8.072279999999999</v>
+        <v>8.072285000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>6.800809</v>
+        <v>6.800813</v>
       </c>
       <c r="Q16" t="n">
         <v>17.18015</v>
@@ -2474,13 +2474,13 @@
         <v>7.093496</v>
       </c>
       <c r="T16" t="n">
-        <v>16.66256</v>
+        <v>16.66253</v>
       </c>
       <c r="U16" t="n">
-        <v>8.144907</v>
+        <v>8.144911</v>
       </c>
       <c r="V16" t="n">
-        <v>6.886261</v>
+        <v>6.886271</v>
       </c>
       <c r="W16" t="n">
         <v>16.54158</v>
@@ -2492,13 +2492,13 @@
         <v>6.956036</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.00273</v>
+        <v>17.00275</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.998282</v>
+        <v>7.998287</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.717052</v>
+        <v>6.717055</v>
       </c>
       <c r="AC16" t="n">
         <v>17.69561</v>
@@ -2583,13 +2583,13 @@
         <v>93.46872999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>16.78875</v>
+        <v>16.78877</v>
       </c>
       <c r="O17" t="n">
-        <v>8.103647</v>
+        <v>8.103654000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>6.852844</v>
+        <v>6.852849</v>
       </c>
       <c r="Q17" t="n">
         <v>16.41855</v>
@@ -2601,13 +2601,13 @@
         <v>6.851585</v>
       </c>
       <c r="T17" t="n">
-        <v>16.56477</v>
+        <v>16.56472</v>
       </c>
       <c r="U17" t="n">
-        <v>8.16877</v>
+        <v>8.168775</v>
       </c>
       <c r="V17" t="n">
-        <v>6.925548</v>
+        <v>6.925564</v>
       </c>
       <c r="W17" t="n">
         <v>15.9473</v>
@@ -2619,13 +2619,13 @@
         <v>6.806667</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.96459</v>
+        <v>16.96461</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.015610000000001</v>
+        <v>8.015616</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.755652</v>
+        <v>6.755657</v>
       </c>
       <c r="AC17" t="n">
         <v>16.74754</v>
@@ -2710,13 +2710,13 @@
         <v>92.88892</v>
       </c>
       <c r="N18" t="n">
-        <v>16.90012</v>
+        <v>16.90013</v>
       </c>
       <c r="O18" t="n">
-        <v>8.124172</v>
+        <v>8.124181</v>
       </c>
       <c r="P18" t="n">
-        <v>6.855783</v>
+        <v>6.85579</v>
       </c>
       <c r="Q18" t="n">
         <v>16.7769</v>
@@ -2728,13 +2728,13 @@
         <v>6.699103</v>
       </c>
       <c r="T18" t="n">
-        <v>16.59798</v>
+        <v>16.59795</v>
       </c>
       <c r="U18" t="n">
-        <v>8.190842</v>
+        <v>8.190848000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>6.940253</v>
+        <v>6.940265</v>
       </c>
       <c r="W18" t="n">
         <v>16.50495</v>
@@ -2746,13 +2746,13 @@
         <v>6.740818</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.13312</v>
+        <v>17.13313</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.055445000000001</v>
+        <v>8.055455</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.774061</v>
+        <v>6.774072</v>
       </c>
       <c r="AC18" t="n">
         <v>16.92993</v>
@@ -2837,10 +2837,10 @@
         <v>93.74952999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>16.9519</v>
+        <v>16.95191</v>
       </c>
       <c r="O19" t="n">
-        <v>8.158457</v>
+        <v>8.158458</v>
       </c>
       <c r="P19" t="n">
         <v>6.890395</v>
@@ -2855,13 +2855,13 @@
         <v>6.683143</v>
       </c>
       <c r="T19" t="n">
-        <v>16.80963</v>
+        <v>16.80967</v>
       </c>
       <c r="U19" t="n">
-        <v>8.281998</v>
+        <v>8.281997</v>
       </c>
       <c r="V19" t="n">
-        <v>7.018165</v>
+        <v>7.018158</v>
       </c>
       <c r="W19" t="n">
         <v>17.33554</v>
@@ -2873,13 +2873,13 @@
         <v>6.889713</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.01415</v>
+        <v>17.01416</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.043174</v>
+        <v>8.043177</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.776486</v>
+        <v>6.776488</v>
       </c>
       <c r="AC19" t="n">
         <v>17.35578</v>
@@ -2964,13 +2964,13 @@
         <v>93.8261</v>
       </c>
       <c r="N20" t="n">
-        <v>16.91939</v>
+        <v>16.91942</v>
       </c>
       <c r="O20" t="n">
-        <v>8.133526</v>
+        <v>8.133546000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>6.867993</v>
+        <v>6.868013</v>
       </c>
       <c r="Q20" t="n">
         <v>17.14797</v>
@@ -2982,13 +2982,13 @@
         <v>6.765016</v>
       </c>
       <c r="T20" t="n">
-        <v>16.94425</v>
+        <v>16.94451</v>
       </c>
       <c r="U20" t="n">
-        <v>8.254868999999999</v>
+        <v>8.254882</v>
       </c>
       <c r="V20" t="n">
-        <v>6.970508</v>
+        <v>6.970482</v>
       </c>
       <c r="W20" t="n">
         <v>17.58589</v>
@@ -3000,13 +3000,13 @@
         <v>7.080611</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.93253</v>
+        <v>16.93257</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.011547999999999</v>
+        <v>8.011571999999999</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.752177</v>
+        <v>6.752199</v>
       </c>
       <c r="AC20" t="n">
         <v>16.83287</v>
@@ -3091,13 +3091,13 @@
         <v>93.42934</v>
       </c>
       <c r="N21" t="n">
-        <v>17.05063</v>
+        <v>17.05065</v>
       </c>
       <c r="O21" t="n">
-        <v>8.11764</v>
+        <v>8.117644</v>
       </c>
       <c r="P21" t="n">
-        <v>6.829202</v>
+        <v>6.829204</v>
       </c>
       <c r="Q21" t="n">
         <v>16.98476</v>
@@ -3109,13 +3109,13 @@
         <v>6.731748</v>
       </c>
       <c r="T21" t="n">
-        <v>16.85992</v>
+        <v>16.85991</v>
       </c>
       <c r="U21" t="n">
-        <v>8.251407</v>
+        <v>8.251416000000001</v>
       </c>
       <c r="V21" t="n">
-        <v>6.977715</v>
+        <v>6.977726</v>
       </c>
       <c r="W21" t="n">
         <v>17.30579</v>
@@ -3127,13 +3127,13 @@
         <v>7.139104</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.23751</v>
+        <v>17.23753</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.999616</v>
+        <v>7.999614</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.694925</v>
+        <v>6.694921</v>
       </c>
       <c r="AC21" t="n">
         <v>16.87284</v>
@@ -3218,13 +3218,13 @@
         <v>93.66285999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>16.7787</v>
+        <v>16.77871</v>
       </c>
       <c r="O22" t="n">
         <v>8.119448</v>
       </c>
       <c r="P22" t="n">
-        <v>6.865497</v>
+        <v>6.865495</v>
       </c>
       <c r="Q22" t="n">
         <v>16.85672</v>
@@ -3236,13 +3236,13 @@
         <v>6.649395</v>
       </c>
       <c r="T22" t="n">
-        <v>16.77768</v>
+        <v>16.77766</v>
       </c>
       <c r="U22" t="n">
-        <v>8.334144999999999</v>
+        <v>8.334148000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>7.08036</v>
+        <v>7.080369</v>
       </c>
       <c r="W22" t="n">
         <v>17.09603</v>
@@ -3254,13 +3254,13 @@
         <v>7.006113</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.7493</v>
+        <v>16.74932</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.917933</v>
+        <v>7.91793</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.671812</v>
+        <v>6.671805</v>
       </c>
       <c r="AC22" t="n">
         <v>16.47681</v>
@@ -3348,10 +3348,10 @@
         <v>16.54951</v>
       </c>
       <c r="O23" t="n">
-        <v>8.095003999999999</v>
+        <v>8.095006</v>
       </c>
       <c r="P23" t="n">
-        <v>6.864423</v>
+        <v>6.864427</v>
       </c>
       <c r="Q23" t="n">
         <v>16.20575</v>
@@ -3363,13 +3363,13 @@
         <v>6.676317</v>
       </c>
       <c r="T23" t="n">
-        <v>16.38158</v>
+        <v>16.38164</v>
       </c>
       <c r="U23" t="n">
-        <v>8.186191000000001</v>
+        <v>8.186194</v>
       </c>
       <c r="V23" t="n">
-        <v>6.961902</v>
+        <v>6.961895</v>
       </c>
       <c r="W23" t="n">
         <v>16.20568</v>
@@ -3381,13 +3381,13 @@
         <v>6.892035</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.70642</v>
+        <v>16.70644</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.011799</v>
+        <v>8.011799999999999</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.768682</v>
+        <v>6.768681</v>
       </c>
       <c r="AC23" t="n">
         <v>16.24095</v>
@@ -3472,13 +3472,13 @@
         <v>94.02499</v>
       </c>
       <c r="N24" t="n">
-        <v>16.75618</v>
+        <v>16.75616</v>
       </c>
       <c r="O24" t="n">
-        <v>8.105261</v>
+        <v>8.105254</v>
       </c>
       <c r="P24" t="n">
-        <v>6.853761</v>
+        <v>6.853756</v>
       </c>
       <c r="Q24" t="n">
         <v>16.27605</v>
@@ -3490,13 +3490,13 @@
         <v>6.679976</v>
       </c>
       <c r="T24" t="n">
-        <v>16.42558</v>
+        <v>16.42559</v>
       </c>
       <c r="U24" t="n">
-        <v>8.284834999999999</v>
+        <v>8.284840000000001</v>
       </c>
       <c r="V24" t="n">
-        <v>7.084289</v>
+        <v>7.084292</v>
       </c>
       <c r="W24" t="n">
         <v>16.00091</v>
@@ -3508,13 +3508,13 @@
         <v>6.951226</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.98157</v>
+        <v>16.98158</v>
       </c>
       <c r="AA24" t="n">
-        <v>7.935071</v>
+        <v>7.935055</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.653248</v>
+        <v>6.65323</v>
       </c>
       <c r="AC24" t="n">
         <v>16.40717</v>
@@ -3602,10 +3602,10 @@
         <v>16.85001</v>
       </c>
       <c r="O25" t="n">
-        <v>8.096861000000001</v>
+        <v>8.096864999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>6.830588</v>
+        <v>6.830592</v>
       </c>
       <c r="Q25" t="n">
         <v>16.03656</v>
@@ -3617,13 +3617,13 @@
         <v>6.777345</v>
       </c>
       <c r="T25" t="n">
-        <v>16.51233</v>
+        <v>16.51229</v>
       </c>
       <c r="U25" t="n">
-        <v>8.246775</v>
+        <v>8.246779999999999</v>
       </c>
       <c r="V25" t="n">
-        <v>7.031191</v>
+        <v>7.031202</v>
       </c>
       <c r="W25" t="n">
         <v>15.37872</v>
@@ -3635,10 +3635,10 @@
         <v>6.839631</v>
       </c>
       <c r="Z25" t="n">
-        <v>17.07363</v>
+        <v>17.07365</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.95328</v>
+        <v>7.953283</v>
       </c>
       <c r="AB25" t="n">
         <v>6.657628</v>
@@ -3726,13 +3726,13 @@
         <v>94.62135000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>16.61103</v>
+        <v>16.61106</v>
       </c>
       <c r="O26" t="n">
-        <v>8.021278000000001</v>
+        <v>8.021296</v>
       </c>
       <c r="P26" t="n">
-        <v>6.785724</v>
+        <v>6.78574</v>
       </c>
       <c r="Q26" t="n">
         <v>17.16382</v>
@@ -3744,13 +3744,13 @@
         <v>7.265854</v>
       </c>
       <c r="T26" t="n">
-        <v>16.75514</v>
+        <v>16.7551</v>
       </c>
       <c r="U26" t="n">
-        <v>8.277195000000001</v>
+        <v>8.277201</v>
       </c>
       <c r="V26" t="n">
-        <v>7.036924</v>
+        <v>7.036938</v>
       </c>
       <c r="W26" t="n">
         <v>17.1288</v>
@@ -3762,13 +3762,13 @@
         <v>7.348272</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.5052</v>
+        <v>16.50521</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.802297</v>
+        <v>7.802323</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.567472</v>
+        <v>6.567499</v>
       </c>
       <c r="AC26" t="n">
         <v>17.29109</v>
@@ -3853,13 +3853,13 @@
         <v>94.74196999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>16.91759</v>
+        <v>16.9176</v>
       </c>
       <c r="O27" t="n">
-        <v>8.133393</v>
+        <v>8.133399000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>6.867307</v>
+        <v>6.867312</v>
       </c>
       <c r="Q27" t="n">
         <v>17.52917</v>
@@ -3871,13 +3871,13 @@
         <v>7.286008</v>
       </c>
       <c r="T27" t="n">
-        <v>16.43018</v>
+        <v>16.43013</v>
       </c>
       <c r="U27" t="n">
-        <v>8.324553</v>
+        <v>8.324557</v>
       </c>
       <c r="V27" t="n">
-        <v>7.126699</v>
+        <v>7.126712</v>
       </c>
       <c r="W27" t="n">
         <v>16.75943</v>
@@ -3889,13 +3889,13 @@
         <v>7.3936</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.32491</v>
+        <v>17.32492</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.966426</v>
+        <v>7.966433</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.644747</v>
+        <v>6.644753</v>
       </c>
       <c r="AC27" t="n">
         <v>18.2508</v>
@@ -3980,13 +3980,13 @@
         <v>95.21040000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>16.69272</v>
+        <v>16.69274</v>
       </c>
       <c r="O28" t="n">
-        <v>8.096965000000001</v>
+        <v>8.096968</v>
       </c>
       <c r="P28" t="n">
-        <v>6.862352</v>
+        <v>6.862354</v>
       </c>
       <c r="Q28" t="n">
         <v>16.90845</v>
@@ -3998,13 +3998,13 @@
         <v>7.103452</v>
       </c>
       <c r="T28" t="n">
-        <v>16.64857</v>
+        <v>16.64853</v>
       </c>
       <c r="U28" t="n">
-        <v>8.265943</v>
+        <v>8.265947000000001</v>
       </c>
       <c r="V28" t="n">
-        <v>7.03451</v>
+        <v>7.034523</v>
       </c>
       <c r="W28" t="n">
         <v>16.50508</v>
@@ -4016,13 +4016,13 @@
         <v>7.09417</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.594</v>
+        <v>16.59402</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.931416</v>
+        <v>7.931418</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.716173</v>
+        <v>6.716172</v>
       </c>
       <c r="AC28" t="n">
         <v>17.0659</v>
@@ -4107,13 +4107,13 @@
         <v>94.51246</v>
       </c>
       <c r="N29" t="n">
-        <v>16.927</v>
+        <v>16.92701</v>
       </c>
       <c r="O29" t="n">
-        <v>8.116841000000001</v>
+        <v>8.116847</v>
       </c>
       <c r="P29" t="n">
-        <v>6.846616</v>
+        <v>6.846621</v>
       </c>
       <c r="Q29" t="n">
         <v>16.61809</v>
@@ -4125,13 +4125,13 @@
         <v>6.848914</v>
       </c>
       <c r="T29" t="n">
-        <v>16.60616</v>
+        <v>16.60605</v>
       </c>
       <c r="U29" t="n">
-        <v>8.301254999999999</v>
+        <v>8.301259</v>
       </c>
       <c r="V29" t="n">
-        <v>7.078535</v>
+        <v>7.078559</v>
       </c>
       <c r="W29" t="n">
         <v>16.11544</v>
@@ -4143,13 +4143,13 @@
         <v>6.98737</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.17538</v>
+        <v>17.1754</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.94988</v>
+        <v>7.949887</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.641346</v>
+        <v>6.641351</v>
       </c>
       <c r="AC29" t="n">
         <v>17.00167</v>
@@ -4234,13 +4234,13 @@
         <v>94.85511</v>
       </c>
       <c r="N30" t="n">
-        <v>16.74529</v>
+        <v>16.74531</v>
       </c>
       <c r="O30" t="n">
-        <v>8.119605999999999</v>
+        <v>8.119617</v>
       </c>
       <c r="P30" t="n">
-        <v>6.876385</v>
+        <v>6.876394</v>
       </c>
       <c r="Q30" t="n">
         <v>16.67071</v>
@@ -4252,13 +4252,13 @@
         <v>6.756646</v>
       </c>
       <c r="T30" t="n">
-        <v>16.638</v>
+        <v>16.63794</v>
       </c>
       <c r="U30" t="n">
-        <v>8.320819</v>
+        <v>8.320824999999999</v>
       </c>
       <c r="V30" t="n">
-        <v>7.094954</v>
+        <v>7.094969</v>
       </c>
       <c r="W30" t="n">
         <v>16.55543</v>
@@ -4270,13 +4270,13 @@
         <v>6.954533</v>
       </c>
       <c r="Z30" t="n">
-        <v>16.81398</v>
+        <v>16.81399</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.93446</v>
+        <v>7.934474</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.678304</v>
+        <v>6.678319</v>
       </c>
       <c r="AC30" t="n">
         <v>16.71212</v>
@@ -4361,13 +4361,13 @@
         <v>94.61539</v>
       </c>
       <c r="N31" t="n">
-        <v>16.61147</v>
+        <v>16.61148</v>
       </c>
       <c r="O31" t="n">
-        <v>8.094872000000001</v>
+        <v>8.094870999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>6.866813</v>
+        <v>6.86681</v>
       </c>
       <c r="Q31" t="n">
         <v>16.95637</v>
@@ -4379,13 +4379,13 @@
         <v>6.668481</v>
       </c>
       <c r="T31" t="n">
-        <v>16.54509</v>
+        <v>16.54516</v>
       </c>
       <c r="U31" t="n">
-        <v>8.287224</v>
+        <v>8.287222</v>
       </c>
       <c r="V31" t="n">
-        <v>7.070152</v>
+        <v>7.070138</v>
       </c>
       <c r="W31" t="n">
         <v>16.98939</v>
@@ -4397,13 +4397,13 @@
         <v>6.954885</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.69888</v>
+        <v>16.69889</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.931504</v>
+        <v>7.931502</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.692989</v>
+        <v>6.692986</v>
       </c>
       <c r="AC31" t="n">
         <v>17.01882</v>
@@ -4488,13 +4488,13 @@
         <v>94.76685000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>16.68683</v>
+        <v>16.68686</v>
       </c>
       <c r="O32" t="n">
-        <v>8.102202999999999</v>
+        <v>8.102231</v>
       </c>
       <c r="P32" t="n">
-        <v>6.873333</v>
+        <v>6.87336</v>
       </c>
       <c r="Q32" t="n">
         <v>16.79149</v>
@@ -4506,13 +4506,13 @@
         <v>6.785661</v>
       </c>
       <c r="T32" t="n">
-        <v>16.4674</v>
+        <v>16.46789</v>
       </c>
       <c r="U32" t="n">
-        <v>8.289661000000001</v>
+        <v>8.289681</v>
       </c>
       <c r="V32" t="n">
-        <v>7.100636</v>
+        <v>7.100581</v>
       </c>
       <c r="W32" t="n">
         <v>16.86236</v>
@@ -4524,13 +4524,13 @@
         <v>7.225388</v>
       </c>
       <c r="Z32" t="n">
-        <v>16.88945</v>
+        <v>16.8895</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.93874</v>
+        <v>7.938773</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.678507</v>
+        <v>6.678538</v>
       </c>
       <c r="AC32" t="n">
         <v>16.70157</v>
@@ -4615,13 +4615,13 @@
         <v>94.96736</v>
       </c>
       <c r="N33" t="n">
-        <v>16.91199</v>
+        <v>16.912</v>
       </c>
       <c r="O33" t="n">
-        <v>8.086378</v>
+        <v>8.086383</v>
       </c>
       <c r="P33" t="n">
-        <v>6.825803</v>
+        <v>6.825806</v>
       </c>
       <c r="Q33" t="n">
         <v>16.85103</v>
@@ -4633,13 +4633,13 @@
         <v>6.716151</v>
       </c>
       <c r="T33" t="n">
-        <v>16.61822</v>
+        <v>16.6182</v>
       </c>
       <c r="U33" t="n">
-        <v>8.242819000000001</v>
+        <v>8.242827</v>
       </c>
       <c r="V33" t="n">
-        <v>7.02217</v>
+        <v>7.022181</v>
       </c>
       <c r="W33" t="n">
         <v>17.01851</v>
@@ -4651,13 +4651,13 @@
         <v>7.149433</v>
       </c>
       <c r="Z33" t="n">
-        <v>17.18919</v>
+        <v>17.1892</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.944979</v>
+        <v>7.94498</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.647641</v>
+        <v>6.64764</v>
       </c>
       <c r="AC33" t="n">
         <v>16.85654</v>
@@ -4742,13 +4742,13 @@
         <v>95.04729</v>
       </c>
       <c r="N34" t="n">
-        <v>16.60754</v>
+        <v>16.60755</v>
       </c>
       <c r="O34" t="n">
-        <v>8.058175</v>
+        <v>8.058171</v>
       </c>
       <c r="P34" t="n">
-        <v>6.837587</v>
+        <v>6.837582</v>
       </c>
       <c r="Q34" t="n">
         <v>16.76176</v>
@@ -4760,13 +4760,13 @@
         <v>6.619586</v>
       </c>
       <c r="T34" t="n">
-        <v>16.43081</v>
+        <v>16.43075</v>
       </c>
       <c r="U34" t="n">
-        <v>8.220675999999999</v>
+        <v>8.220677</v>
       </c>
       <c r="V34" t="n">
-        <v>7.023908</v>
+        <v>7.023918</v>
       </c>
       <c r="W34" t="n">
         <v>16.80251</v>
@@ -4778,13 +4778,13 @@
         <v>6.931997</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.73897</v>
+        <v>16.73898</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.919635</v>
+        <v>7.919627</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.680968</v>
+        <v>6.680958</v>
       </c>
       <c r="AC34" t="n">
         <v>16.54453</v>
@@ -4869,13 +4869,13 @@
         <v>94.77048000000001</v>
       </c>
       <c r="N35" t="n">
-        <v>16.89416</v>
+        <v>16.89415</v>
       </c>
       <c r="O35" t="n">
-        <v>8.090728</v>
+        <v>8.090730000000001</v>
       </c>
       <c r="P35" t="n">
-        <v>6.830468</v>
+        <v>6.830472</v>
       </c>
       <c r="Q35" t="n">
         <v>16.67586</v>
@@ -4887,13 +4887,13 @@
         <v>6.677274</v>
       </c>
       <c r="T35" t="n">
-        <v>16.83629</v>
+        <v>16.83634</v>
       </c>
       <c r="U35" t="n">
-        <v>8.297018</v>
+        <v>8.297021000000001</v>
       </c>
       <c r="V35" t="n">
-        <v>7.054942</v>
+        <v>7.054935</v>
       </c>
       <c r="W35" t="n">
         <v>16.84305</v>
@@ -4905,13 +4905,13 @@
         <v>7.005472</v>
       </c>
       <c r="Z35" t="n">
-        <v>16.95221</v>
+        <v>16.95222</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.90555</v>
+        <v>7.905551</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.631172</v>
+        <v>6.63117</v>
       </c>
       <c r="AC35" t="n">
         <v>16.51372</v>
@@ -4996,13 +4996,13 @@
         <v>94.79213</v>
       </c>
       <c r="N36" t="n">
-        <v>16.92644</v>
+        <v>16.92641</v>
       </c>
       <c r="O36" t="n">
-        <v>8.159527000000001</v>
+        <v>8.159516</v>
       </c>
       <c r="P36" t="n">
-        <v>6.906856</v>
+        <v>6.906847</v>
       </c>
       <c r="Q36" t="n">
         <v>16.50159</v>
@@ -5014,13 +5014,13 @@
         <v>6.743825</v>
       </c>
       <c r="T36" t="n">
-        <v>16.90437</v>
+        <v>16.9044</v>
       </c>
       <c r="U36" t="n">
-        <v>8.356514000000001</v>
+        <v>8.356519</v>
       </c>
       <c r="V36" t="n">
-        <v>7.108322</v>
+        <v>7.108323</v>
       </c>
       <c r="W36" t="n">
         <v>16.48146</v>
@@ -5035,10 +5035,10 @@
         <v>16.92863</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.979516</v>
+        <v>7.979494</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.724607</v>
+        <v>6.724583</v>
       </c>
       <c r="AC36" t="n">
         <v>16.44012</v>
@@ -5126,10 +5126,10 @@
         <v>17.09995</v>
       </c>
       <c r="O37" t="n">
-        <v>8.20627</v>
+        <v>8.206272999999999</v>
       </c>
       <c r="P37" t="n">
-        <v>6.940331</v>
+        <v>6.940335</v>
       </c>
       <c r="Q37" t="n">
         <v>16.2415</v>
@@ -5141,13 +5141,13 @@
         <v>6.851937</v>
       </c>
       <c r="T37" t="n">
-        <v>17.30599</v>
+        <v>17.30594</v>
       </c>
       <c r="U37" t="n">
-        <v>8.458940999999999</v>
+        <v>8.458945999999999</v>
       </c>
       <c r="V37" t="n">
-        <v>7.163823</v>
+        <v>7.163837</v>
       </c>
       <c r="W37" t="n">
         <v>16.20387</v>
@@ -5159,13 +5159,13 @@
         <v>6.941101</v>
       </c>
       <c r="Z37" t="n">
-        <v>16.94591</v>
+        <v>16.94593</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.983751</v>
+        <v>7.983753</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.739031</v>
+        <v>6.739029</v>
       </c>
       <c r="AC37" t="n">
         <v>16.42501</v>
@@ -5250,13 +5250,13 @@
         <v>95.41007999999999</v>
       </c>
       <c r="N38" t="n">
-        <v>17.20981</v>
+        <v>17.20985</v>
       </c>
       <c r="O38" t="n">
-        <v>8.287077</v>
+        <v>8.287101</v>
       </c>
       <c r="P38" t="n">
-        <v>7.010375</v>
+        <v>7.010399</v>
       </c>
       <c r="Q38" t="n">
         <v>17.87162</v>
@@ -5268,13 +5268,13 @@
         <v>7.46672</v>
       </c>
       <c r="T38" t="n">
-        <v>16.99037</v>
+        <v>16.99031</v>
       </c>
       <c r="U38" t="n">
-        <v>8.441459999999999</v>
+        <v>8.441466</v>
       </c>
       <c r="V38" t="n">
-        <v>7.19033</v>
+        <v>7.190349</v>
       </c>
       <c r="W38" t="n">
         <v>17.42256</v>
@@ -5286,13 +5286,13 @@
         <v>7.505273</v>
       </c>
       <c r="Z38" t="n">
-        <v>17.3479</v>
+        <v>17.34793</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.139116</v>
+        <v>8.139154</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.845767</v>
+        <v>6.845808</v>
       </c>
       <c r="AC38" t="n">
         <v>18.22224</v>
@@ -5377,13 +5377,13 @@
         <v>95.86812999999999</v>
       </c>
       <c r="N39" t="n">
-        <v>16.89956</v>
+        <v>16.89959</v>
       </c>
       <c r="O39" t="n">
-        <v>8.197373000000001</v>
+        <v>8.197381</v>
       </c>
       <c r="P39" t="n">
-        <v>6.960033</v>
+        <v>6.960038</v>
       </c>
       <c r="Q39" t="n">
         <v>17.49078</v>
@@ -5395,13 +5395,13 @@
         <v>7.385682</v>
       </c>
       <c r="T39" t="n">
-        <v>16.97038</v>
+        <v>16.97028</v>
       </c>
       <c r="U39" t="n">
-        <v>8.425772</v>
+        <v>8.425777</v>
       </c>
       <c r="V39" t="n">
-        <v>7.180439</v>
+        <v>7.180459</v>
       </c>
       <c r="W39" t="n">
         <v>17.34855</v>
@@ -5416,10 +5416,10 @@
         <v>16.75605</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.978137</v>
+        <v>7.978146</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.757919</v>
+        <v>6.757929</v>
       </c>
       <c r="AC39" t="n">
         <v>17.57715</v>
@@ -5504,13 +5504,13 @@
         <v>95.55983999999999</v>
       </c>
       <c r="N40" t="n">
-        <v>16.8518</v>
+        <v>16.85181</v>
       </c>
       <c r="O40" t="n">
-        <v>8.135904</v>
+        <v>8.135906</v>
       </c>
       <c r="P40" t="n">
-        <v>6.904508</v>
+        <v>6.904509</v>
       </c>
       <c r="Q40" t="n">
         <v>17.07098</v>
@@ -5522,13 +5522,13 @@
         <v>7.126958</v>
       </c>
       <c r="T40" t="n">
-        <v>16.60839</v>
+        <v>16.60831</v>
       </c>
       <c r="U40" t="n">
-        <v>8.328529</v>
+        <v>8.328535</v>
       </c>
       <c r="V40" t="n">
-        <v>7.129221</v>
+        <v>7.129241</v>
       </c>
       <c r="W40" t="n">
         <v>16.56217</v>
@@ -5540,13 +5540,13 @@
         <v>7.162861</v>
       </c>
       <c r="Z40" t="n">
-        <v>17.00076</v>
+        <v>17.0008</v>
       </c>
       <c r="AA40" t="n">
-        <v>7.956266</v>
+        <v>7.956265</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.702309</v>
+        <v>6.702301</v>
       </c>
       <c r="AC40" t="n">
         <v>17.52255</v>
@@ -5631,13 +5631,13 @@
         <v>95.5866</v>
       </c>
       <c r="N41" t="n">
-        <v>16.96163</v>
+        <v>16.96165</v>
       </c>
       <c r="O41" t="n">
-        <v>8.164172000000001</v>
+        <v>8.164179000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>6.910149</v>
+        <v>6.910153</v>
       </c>
       <c r="Q41" t="n">
         <v>16.61441</v>
@@ -5649,13 +5649,13 @@
         <v>6.915383</v>
       </c>
       <c r="T41" t="n">
-        <v>16.84758</v>
+        <v>16.84744</v>
       </c>
       <c r="U41" t="n">
-        <v>8.302192</v>
+        <v>8.302197</v>
       </c>
       <c r="V41" t="n">
-        <v>7.052246</v>
+        <v>7.052278</v>
       </c>
       <c r="W41" t="n">
         <v>16.25612</v>
@@ -5667,13 +5667,13 @@
         <v>6.99267</v>
       </c>
       <c r="Z41" t="n">
-        <v>16.95382</v>
+        <v>16.95384</v>
       </c>
       <c r="AA41" t="n">
-        <v>8.022957</v>
+        <v>8.022964</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.777256</v>
+        <v>6.777261</v>
       </c>
       <c r="AC41" t="n">
         <v>16.74784</v>
@@ -5758,13 +5758,13 @@
         <v>96.31619000000001</v>
       </c>
       <c r="N42" t="n">
-        <v>16.62449</v>
+        <v>16.6245</v>
       </c>
       <c r="O42" t="n">
-        <v>8.081846000000001</v>
+        <v>8.081859</v>
       </c>
       <c r="P42" t="n">
-        <v>6.865463</v>
+        <v>6.865475</v>
       </c>
       <c r="Q42" t="n">
         <v>16.50598</v>
@@ -5776,13 +5776,13 @@
         <v>6.739891</v>
       </c>
       <c r="T42" t="n">
-        <v>16.49237</v>
+        <v>16.4923</v>
       </c>
       <c r="U42" t="n">
-        <v>8.173396</v>
+        <v>8.173401999999999</v>
       </c>
       <c r="V42" t="n">
-        <v>6.967117</v>
+        <v>6.967135</v>
       </c>
       <c r="W42" t="n">
         <v>16.47371</v>
@@ -5797,10 +5797,10 @@
         <v>16.75397</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.984572</v>
+        <v>7.984591</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.759787</v>
+        <v>6.759807</v>
       </c>
       <c r="AC42" t="n">
         <v>16.51682</v>
@@ -5885,13 +5885,13 @@
         <v>96.35003</v>
       </c>
       <c r="N43" t="n">
-        <v>16.61996</v>
+        <v>16.61997</v>
       </c>
       <c r="O43" t="n">
-        <v>8.043198</v>
+        <v>8.043200000000001</v>
       </c>
       <c r="P43" t="n">
-        <v>6.826784</v>
+        <v>6.826786</v>
       </c>
       <c r="Q43" t="n">
         <v>16.96233</v>
@@ -5903,13 +5903,13 @@
         <v>6.628273</v>
       </c>
       <c r="T43" t="n">
-        <v>16.59805</v>
+        <v>16.59811</v>
       </c>
       <c r="U43" t="n">
-        <v>8.20417</v>
+        <v>8.204167999999999</v>
       </c>
       <c r="V43" t="n">
-        <v>6.990026</v>
+        <v>6.990013</v>
       </c>
       <c r="W43" t="n">
         <v>16.91864</v>
@@ -5924,10 +5924,10 @@
         <v>16.64789</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.907273</v>
+        <v>7.907279</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.687785</v>
+        <v>6.687793</v>
       </c>
       <c r="AC43" t="n">
         <v>17.04076</v>
@@ -6012,13 +6012,13 @@
         <v>96.60236</v>
       </c>
       <c r="N44" t="n">
-        <v>16.51851</v>
+        <v>16.51855</v>
       </c>
       <c r="O44" t="n">
-        <v>7.950749</v>
+        <v>7.950779</v>
       </c>
       <c r="P44" t="n">
-        <v>6.74316</v>
+        <v>6.743189</v>
       </c>
       <c r="Q44" t="n">
         <v>16.68187</v>
@@ -6030,13 +6030,13 @@
         <v>6.649366</v>
       </c>
       <c r="T44" t="n">
-        <v>16.32585</v>
+        <v>16.32649</v>
       </c>
       <c r="U44" t="n">
-        <v>8.038558</v>
+        <v>8.038574000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>6.846036</v>
+        <v>6.845956</v>
       </c>
       <c r="W44" t="n">
         <v>16.69277</v>
@@ -6048,13 +6048,13 @@
         <v>6.930964</v>
       </c>
       <c r="Z44" t="n">
-        <v>16.78017</v>
+        <v>16.78025</v>
       </c>
       <c r="AA44" t="n">
-        <v>7.888134</v>
+        <v>7.888174</v>
       </c>
       <c r="AB44" t="n">
-        <v>6.652536</v>
+        <v>6.652571</v>
       </c>
       <c r="AC44" t="n">
         <v>16.684</v>
@@ -6139,13 +6139,13 @@
         <v>96.46529</v>
       </c>
       <c r="N45" t="n">
-        <v>16.65835</v>
+        <v>16.65836</v>
       </c>
       <c r="O45" t="n">
-        <v>7.972331</v>
+        <v>7.972334</v>
       </c>
       <c r="P45" t="n">
-        <v>6.746894</v>
+        <v>6.746898</v>
       </c>
       <c r="Q45" t="n">
         <v>16.50294</v>
@@ -6157,13 +6157,13 @@
         <v>6.638128</v>
       </c>
       <c r="T45" t="n">
-        <v>16.45721</v>
+        <v>16.45715</v>
       </c>
       <c r="U45" t="n">
-        <v>8.030877</v>
+        <v>8.030889</v>
       </c>
       <c r="V45" t="n">
-        <v>6.822955</v>
+        <v>6.822975</v>
       </c>
       <c r="W45" t="n">
         <v>16.66369</v>
@@ -6175,13 +6175,13 @@
         <v>6.93316</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.8442</v>
+        <v>16.84421</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.929322</v>
+        <v>7.92932</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.690784</v>
+        <v>6.69078</v>
       </c>
       <c r="AC45" t="n">
         <v>16.39789</v>
@@ -6269,10 +6269,10 @@
         <v>16.55523</v>
       </c>
       <c r="O46" t="n">
-        <v>7.94337</v>
+        <v>7.943363</v>
       </c>
       <c r="P46" t="n">
-        <v>6.726279</v>
+        <v>6.72627</v>
       </c>
       <c r="Q46" t="n">
         <v>16.63355</v>
@@ -6284,13 +6284,13 @@
         <v>6.523661</v>
       </c>
       <c r="T46" t="n">
-        <v>16.16169</v>
+        <v>16.16158</v>
       </c>
       <c r="U46" t="n">
-        <v>8.017590999999999</v>
+        <v>8.017594000000001</v>
       </c>
       <c r="V46" t="n">
-        <v>6.854898</v>
+        <v>6.854916</v>
       </c>
       <c r="W46" t="n">
         <v>16.39391</v>
@@ -6302,13 +6302,13 @@
         <v>6.788626</v>
       </c>
       <c r="Z46" t="n">
-        <v>16.83106</v>
+        <v>16.83107</v>
       </c>
       <c r="AA46" t="n">
-        <v>7.85563</v>
+        <v>7.855617</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.601275</v>
+        <v>6.601259</v>
       </c>
       <c r="AC46" t="n">
         <v>16.60735</v>
@@ -6393,10 +6393,10 @@
         <v>96.71879</v>
       </c>
       <c r="N47" t="n">
-        <v>16.3222</v>
+        <v>16.32218</v>
       </c>
       <c r="O47" t="n">
-        <v>7.865091</v>
+        <v>7.865089</v>
       </c>
       <c r="P47" t="n">
         <v>6.676928</v>
@@ -6417,7 +6417,7 @@
         <v>8.008201</v>
       </c>
       <c r="V47" t="n">
-        <v>6.833415</v>
+        <v>6.833413</v>
       </c>
       <c r="W47" t="n">
         <v>16.30692</v>
@@ -6429,13 +6429,13 @@
         <v>6.771443</v>
       </c>
       <c r="Z47" t="n">
-        <v>16.40753</v>
+        <v>16.40755</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.749712</v>
+        <v>7.749708</v>
       </c>
       <c r="AB47" t="n">
-        <v>6.554804</v>
+        <v>6.554796</v>
       </c>
       <c r="AC47" t="n">
         <v>16.04769</v>
@@ -6520,13 +6520,13 @@
         <v>97.04822</v>
       </c>
       <c r="N48" t="n">
-        <v>15.95354</v>
+        <v>15.9535</v>
       </c>
       <c r="O48" t="n">
-        <v>7.795283</v>
+        <v>7.795269</v>
       </c>
       <c r="P48" t="n">
-        <v>6.650688</v>
+        <v>6.650677</v>
       </c>
       <c r="Q48" t="n">
         <v>15.46931</v>
@@ -6538,13 +6538,13 @@
         <v>6.535463</v>
       </c>
       <c r="T48" t="n">
-        <v>16.1134</v>
+        <v>16.11345</v>
       </c>
       <c r="U48" t="n">
-        <v>7.992588</v>
+        <v>7.99259</v>
       </c>
       <c r="V48" t="n">
-        <v>6.825004</v>
+        <v>6.824998</v>
       </c>
       <c r="W48" t="n">
         <v>15.64555</v>
@@ -6556,13 +6556,13 @@
         <v>6.702405</v>
       </c>
       <c r="Z48" t="n">
-        <v>15.82458</v>
+        <v>15.82457</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.635758</v>
+        <v>7.635733</v>
       </c>
       <c r="AB48" t="n">
-        <v>6.509051</v>
+        <v>6.509022</v>
       </c>
       <c r="AC48" t="n">
         <v>15.2778</v>
@@ -6647,13 +6647,13 @@
         <v>96.97678000000001</v>
       </c>
       <c r="N49" t="n">
-        <v>15.69127</v>
+        <v>15.69126</v>
       </c>
       <c r="O49" t="n">
-        <v>7.706491</v>
+        <v>7.706492</v>
       </c>
       <c r="P49" t="n">
-        <v>6.578891</v>
+        <v>6.578894</v>
       </c>
       <c r="Q49" t="n">
         <v>14.88051</v>
@@ -6665,13 +6665,13 @@
         <v>6.474727</v>
       </c>
       <c r="T49" t="n">
-        <v>15.86482</v>
+        <v>15.86475</v>
       </c>
       <c r="U49" t="n">
-        <v>7.956152</v>
+        <v>7.956156</v>
       </c>
       <c r="V49" t="n">
-        <v>6.817376</v>
+        <v>6.817392</v>
       </c>
       <c r="W49" t="n">
         <v>14.91735</v>
@@ -6683,13 +6683,13 @@
         <v>6.577774</v>
       </c>
       <c r="Z49" t="n">
-        <v>15.44265</v>
+        <v>15.44268</v>
       </c>
       <c r="AA49" t="n">
-        <v>7.461828</v>
+        <v>7.461827</v>
       </c>
       <c r="AB49" t="n">
-        <v>6.359315</v>
+        <v>6.35931</v>
       </c>
       <c r="AC49" t="n">
         <v>14.91173</v>
@@ -6774,13 +6774,13 @@
         <v>96.81959999999999</v>
       </c>
       <c r="N50" t="n">
-        <v>16.00358</v>
+        <v>16.00362</v>
       </c>
       <c r="O50" t="n">
-        <v>7.68679</v>
+        <v>7.68682</v>
       </c>
       <c r="P50" t="n">
-        <v>6.520092</v>
+        <v>6.520123</v>
       </c>
       <c r="Q50" t="n">
         <v>16.70573</v>
@@ -6792,13 +6792,13 @@
         <v>6.957699</v>
       </c>
       <c r="T50" t="n">
-        <v>16.01692</v>
+        <v>16.01685</v>
       </c>
       <c r="U50" t="n">
-        <v>7.872885</v>
+        <v>7.872901</v>
       </c>
       <c r="V50" t="n">
-        <v>6.707994</v>
+        <v>6.708026</v>
       </c>
       <c r="W50" t="n">
         <v>16.51944</v>
@@ -6810,13 +6810,13 @@
         <v>6.995</v>
       </c>
       <c r="Z50" t="n">
-        <v>15.96387</v>
+        <v>15.9639</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.55824</v>
+        <v>7.558281</v>
       </c>
       <c r="AB50" t="n">
-        <v>6.393855</v>
+        <v>6.393898</v>
       </c>
       <c r="AC50" t="n">
         <v>16.81892</v>
@@ -6901,13 +6901,13 @@
         <v>97.18379</v>
       </c>
       <c r="N51" t="n">
-        <v>15.99285</v>
+        <v>15.99291</v>
       </c>
       <c r="O51" t="n">
-        <v>7.703651</v>
+        <v>7.703658</v>
       </c>
       <c r="P51" t="n">
-        <v>6.5442</v>
+        <v>6.544199</v>
       </c>
       <c r="Q51" t="n">
         <v>16.5275</v>
@@ -6919,13 +6919,13 @@
         <v>6.968096</v>
       </c>
       <c r="T51" t="n">
-        <v>15.75346</v>
+        <v>15.75333</v>
       </c>
       <c r="U51" t="n">
-        <v>7.865475</v>
+        <v>7.865487</v>
       </c>
       <c r="V51" t="n">
-        <v>6.739611</v>
+        <v>6.739642</v>
       </c>
       <c r="W51" t="n">
         <v>16.08391</v>
@@ -6937,13 +6937,13 @@
         <v>7.016326</v>
       </c>
       <c r="Z51" t="n">
-        <v>16.15993</v>
+        <v>16.15994</v>
       </c>
       <c r="AA51" t="n">
-        <v>7.591278</v>
+        <v>7.59128</v>
       </c>
       <c r="AB51" t="n">
-        <v>6.408781</v>
+        <v>6.408783</v>
       </c>
       <c r="AC51" t="n">
         <v>16.9194</v>
@@ -7028,13 +7028,13 @@
         <v>98.55798</v>
       </c>
       <c r="N52" t="n">
-        <v>16.03741</v>
+        <v>16.03742</v>
       </c>
       <c r="O52" t="n">
-        <v>7.69378</v>
+        <v>7.693782</v>
       </c>
       <c r="P52" t="n">
-        <v>6.517952</v>
+        <v>6.517953</v>
       </c>
       <c r="Q52" t="n">
         <v>16.17309</v>
@@ -7046,13 +7046,13 @@
         <v>6.722568</v>
       </c>
       <c r="T52" t="n">
-        <v>15.93903</v>
+        <v>15.93892</v>
       </c>
       <c r="U52" t="n">
-        <v>7.907235</v>
+        <v>7.907243</v>
       </c>
       <c r="V52" t="n">
-        <v>6.758255</v>
+        <v>6.758282</v>
       </c>
       <c r="W52" t="n">
         <v>15.80773</v>
@@ -7064,13 +7064,13 @@
         <v>6.816424</v>
       </c>
       <c r="Z52" t="n">
-        <v>16.10889</v>
+        <v>16.10896</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.522053</v>
+        <v>7.52205</v>
       </c>
       <c r="AB52" t="n">
-        <v>6.327829</v>
+        <v>6.327814</v>
       </c>
       <c r="AC52" t="n">
         <v>16.48331</v>
@@ -7155,13 +7155,13 @@
         <v>97.20653</v>
       </c>
       <c r="N53" t="n">
-        <v>15.45587</v>
+        <v>15.4559</v>
       </c>
       <c r="O53" t="n">
-        <v>7.51245</v>
+        <v>7.512456</v>
       </c>
       <c r="P53" t="n">
-        <v>6.400361</v>
+        <v>6.400364</v>
       </c>
       <c r="Q53" t="n">
         <v>15.0846</v>
@@ -7173,13 +7173,13 @@
         <v>6.384512</v>
       </c>
       <c r="T53" t="n">
-        <v>15.00415</v>
+        <v>15.00395</v>
       </c>
       <c r="U53" t="n">
-        <v>7.642839</v>
+        <v>7.642847</v>
       </c>
       <c r="V53" t="n">
-        <v>6.599959</v>
+        <v>6.600001</v>
       </c>
       <c r="W53" t="n">
         <v>14.32909</v>
@@ -7191,13 +7191,13 @@
         <v>6.496702</v>
       </c>
       <c r="Z53" t="n">
-        <v>15.84335</v>
+        <v>15.84337</v>
       </c>
       <c r="AA53" t="n">
-        <v>7.407755</v>
+        <v>7.407761</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.239388</v>
+        <v>6.23939</v>
       </c>
       <c r="AC53" t="n">
         <v>15.61308</v>
@@ -7282,13 +7282,13 @@
         <v>97.44947000000001</v>
       </c>
       <c r="N54" t="n">
-        <v>15.42102</v>
+        <v>15.42104</v>
       </c>
       <c r="O54" t="n">
-        <v>7.503178</v>
+        <v>7.503191</v>
       </c>
       <c r="P54" t="n">
-        <v>6.395483</v>
+        <v>6.395495</v>
       </c>
       <c r="Q54" t="n">
         <v>15.21639</v>
@@ -7300,13 +7300,13 @@
         <v>6.253841</v>
       </c>
       <c r="T54" t="n">
-        <v>15.33037</v>
+        <v>15.33021</v>
       </c>
       <c r="U54" t="n">
-        <v>7.745861</v>
+        <v>7.745869</v>
       </c>
       <c r="V54" t="n">
-        <v>6.669847</v>
+        <v>6.669879</v>
       </c>
       <c r="W54" t="n">
         <v>15.14918</v>
@@ -7321,10 +7321,10 @@
         <v>15.48008</v>
       </c>
       <c r="AA54" t="n">
-        <v>7.320859</v>
+        <v>7.320876</v>
       </c>
       <c r="AB54" t="n">
-        <v>6.194229</v>
+        <v>6.194248</v>
       </c>
       <c r="AC54" t="n">
         <v>15.24131</v>
@@ -7409,13 +7409,13 @@
         <v>97.88084000000001</v>
       </c>
       <c r="N55" t="n">
-        <v>15.43447</v>
+        <v>15.43449</v>
       </c>
       <c r="O55" t="n">
-        <v>7.424407</v>
+        <v>7.424421</v>
       </c>
       <c r="P55" t="n">
-        <v>6.30603</v>
+        <v>6.306046</v>
       </c>
       <c r="Q55" t="n">
         <v>15.7933</v>
@@ -7427,13 +7427,13 @@
         <v>6.091119</v>
       </c>
       <c r="T55" t="n">
-        <v>15.02079</v>
+        <v>15.02085</v>
       </c>
       <c r="U55" t="n">
-        <v>7.625609</v>
+        <v>7.625606</v>
       </c>
       <c r="V55" t="n">
-        <v>6.56719</v>
+        <v>6.567174</v>
       </c>
       <c r="W55" t="n">
         <v>15.39099</v>
@@ -7445,13 +7445,13 @@
         <v>6.448153</v>
       </c>
       <c r="Z55" t="n">
-        <v>15.77186</v>
+        <v>15.77184</v>
       </c>
       <c r="AA55" t="n">
-        <v>7.268685</v>
+        <v>7.268715</v>
       </c>
       <c r="AB55" t="n">
-        <v>6.100527</v>
+        <v>6.100566</v>
       </c>
       <c r="AC55" t="n">
         <v>16.15709</v>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
-        <v>7.455922</v>
+        <v>7.455857</v>
       </c>
       <c r="P56" t="n">
         <v>6.338991</v>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>7.64977</v>
+        <v>7.649701</v>
       </c>
       <c r="V56" t="n">
         <v>6.602455</v>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
-        <v>7.303944</v>
+        <v>7.303883</v>
       </c>
       <c r="AB56" t="n">
         <v>6.146402</v>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
-        <v>7.390211</v>
+        <v>7.390178</v>
       </c>
       <c r="P57" t="n">
         <v>6.290234</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>7.597515</v>
+        <v>7.597498</v>
       </c>
       <c r="V57" t="n">
         <v>6.513862</v>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
-        <v>7.240855</v>
+        <v>7.240809</v>
       </c>
       <c r="AB57" t="n">
         <v>6.129498</v>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>7.322931</v>
+        <v>7.322919</v>
       </c>
       <c r="P58" t="n">
         <v>6.177614</v>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>7.579972</v>
+        <v>7.579973</v>
       </c>
       <c r="V58" t="n">
         <v>6.483597</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
-        <v>7.128227</v>
+        <v>7.128204</v>
       </c>
       <c r="AB58" t="n">
         <v>5.942549</v>
@@ -7881,13 +7881,13 @@
         <v>98.70013</v>
       </c>
       <c r="N59" t="n">
-        <v>15.07353</v>
+        <v>15.07351</v>
       </c>
       <c r="O59" t="n">
-        <v>7.286014</v>
+        <v>7.286005</v>
       </c>
       <c r="P59" t="n">
-        <v>6.201412</v>
+        <v>6.201404</v>
       </c>
       <c r="Q59" t="n">
         <v>15.08001</v>
@@ -7899,13 +7899,13 @@
         <v>6.072878</v>
       </c>
       <c r="T59" t="n">
-        <v>15.46569</v>
+        <v>15.46566</v>
       </c>
       <c r="U59" t="n">
-        <v>7.561007</v>
+        <v>7.561002</v>
       </c>
       <c r="V59" t="n">
-        <v>6.442222</v>
+        <v>6.44222</v>
       </c>
       <c r="W59" t="n">
         <v>15.55053</v>
@@ -7917,13 +7917,13 @@
         <v>6.400233</v>
       </c>
       <c r="Z59" t="n">
-        <v>14.69346</v>
+        <v>14.6935</v>
       </c>
       <c r="AA59" t="n">
-        <v>7.066486</v>
+        <v>7.066473</v>
       </c>
       <c r="AB59" t="n">
-        <v>6.018849</v>
+        <v>6.018828</v>
       </c>
       <c r="AC59" t="n">
         <v>14.58243</v>
@@ -8008,13 +8008,13 @@
         <v>99.19562999999999</v>
       </c>
       <c r="N60" t="n">
-        <v>15.27029</v>
+        <v>15.27023</v>
       </c>
       <c r="O60" t="n">
-        <v>7.285751</v>
+        <v>7.285736</v>
       </c>
       <c r="P60" t="n">
-        <v>6.17091</v>
+        <v>6.170899</v>
       </c>
       <c r="Q60" t="n">
         <v>14.8144</v>
@@ -8026,13 +8026,13 @@
         <v>6.081438</v>
       </c>
       <c r="T60" t="n">
-        <v>15.51745</v>
+        <v>15.51749</v>
       </c>
       <c r="U60" t="n">
-        <v>7.518112</v>
+        <v>7.518109</v>
       </c>
       <c r="V60" t="n">
-        <v>6.3856</v>
+        <v>6.385593</v>
       </c>
       <c r="W60" t="n">
         <v>14.99689</v>
@@ -8044,13 +8044,13 @@
         <v>6.305967</v>
       </c>
       <c r="Z60" t="n">
-        <v>14.9849</v>
+        <v>14.98489</v>
       </c>
       <c r="AA60" t="n">
-        <v>7.123918</v>
+        <v>7.123892</v>
       </c>
       <c r="AB60" t="n">
-        <v>6.038607</v>
+        <v>6.038578</v>
       </c>
       <c r="AC60" t="n">
         <v>14.47029</v>
@@ -8135,13 +8135,13 @@
         <v>99.28212000000001</v>
       </c>
       <c r="N61" t="n">
-        <v>14.8863</v>
+        <v>14.88628</v>
       </c>
       <c r="O61" t="n">
-        <v>7.144231</v>
+        <v>7.14423</v>
       </c>
       <c r="P61" t="n">
-        <v>6.069666</v>
+        <v>6.069667</v>
       </c>
       <c r="Q61" t="n">
         <v>14.09546</v>
@@ -8153,13 +8153,13 @@
         <v>5.983021</v>
       </c>
       <c r="T61" t="n">
-        <v>14.87031</v>
+        <v>14.87017</v>
       </c>
       <c r="U61" t="n">
-        <v>7.332219</v>
+        <v>7.332217</v>
       </c>
       <c r="V61" t="n">
-        <v>6.270484</v>
+        <v>6.270504</v>
       </c>
       <c r="W61" t="n">
         <v>14.00175</v>
@@ -8171,13 +8171,13 @@
         <v>6.071082</v>
       </c>
       <c r="Z61" t="n">
-        <v>14.93228</v>
+        <v>14.93232</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.001819</v>
+        <v>7.001817</v>
       </c>
       <c r="AB61" t="n">
-        <v>5.914075</v>
+        <v>5.914068</v>
       </c>
       <c r="AC61" t="n">
         <v>14.36983</v>
@@ -8262,13 +8262,13 @@
         <v>99.15958999999999</v>
       </c>
       <c r="N62" t="n">
-        <v>14.64889</v>
+        <v>14.64892</v>
       </c>
       <c r="O62" t="n">
-        <v>7.145001</v>
+        <v>7.145047</v>
       </c>
       <c r="P62" t="n">
-        <v>6.105593</v>
+        <v>6.105642</v>
       </c>
       <c r="Q62" t="n">
         <v>15.31261</v>
@@ -8280,13 +8280,13 @@
         <v>6.496302</v>
       </c>
       <c r="T62" t="n">
-        <v>14.39629</v>
+        <v>14.3962</v>
       </c>
       <c r="U62" t="n">
-        <v>7.287036</v>
+        <v>7.287061</v>
       </c>
       <c r="V62" t="n">
-        <v>6.291599</v>
+        <v>6.291644</v>
       </c>
       <c r="W62" t="n">
         <v>14.80876</v>
@@ -8298,13 +8298,13 @@
         <v>6.548837</v>
       </c>
       <c r="Z62" t="n">
-        <v>14.8562</v>
+        <v>14.85625</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.035165</v>
+        <v>7.035227</v>
       </c>
       <c r="AB62" t="n">
-        <v>5.965692</v>
+        <v>5.965756</v>
       </c>
       <c r="AC62" t="n">
         <v>15.76599</v>
@@ -8389,13 +8389,13 @@
         <v>99.1572</v>
       </c>
       <c r="N63" t="n">
-        <v>14.77233</v>
+        <v>14.77243</v>
       </c>
       <c r="O63" t="n">
-        <v>7.100684</v>
+        <v>7.100696</v>
       </c>
       <c r="P63" t="n">
-        <v>6.036098</v>
+        <v>6.036096</v>
       </c>
       <c r="Q63" t="n">
         <v>15.34149</v>
@@ -8407,13 +8407,13 @@
         <v>6.415486</v>
       </c>
       <c r="T63" t="n">
-        <v>14.73511</v>
+        <v>14.73494</v>
       </c>
       <c r="U63" t="n">
-        <v>7.276128</v>
+        <v>7.276141</v>
       </c>
       <c r="V63" t="n">
-        <v>6.229292</v>
+        <v>6.22933</v>
       </c>
       <c r="W63" t="n">
         <v>15.15714</v>
@@ -8425,13 +8425,13 @@
         <v>6.46903</v>
       </c>
       <c r="Z63" t="n">
-        <v>14.73847</v>
+        <v>14.73854</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.95931</v>
+        <v>6.959321</v>
       </c>
       <c r="AB63" t="n">
-        <v>5.890698</v>
+        <v>5.890701</v>
       </c>
       <c r="AC63" t="n">
         <v>15.4287</v>
@@ -8516,13 +8516,13 @@
         <v>99.39885</v>
       </c>
       <c r="N64" t="n">
-        <v>14.72722</v>
+        <v>14.72724</v>
       </c>
       <c r="O64" t="n">
-        <v>7.030472</v>
+        <v>7.030478</v>
       </c>
       <c r="P64" t="n">
-        <v>5.963881</v>
+        <v>5.963885</v>
       </c>
       <c r="Q64" t="n">
         <v>14.80105</v>
@@ -8534,13 +8534,13 @@
         <v>6.172925</v>
       </c>
       <c r="T64" t="n">
-        <v>14.63997</v>
+        <v>14.63984</v>
       </c>
       <c r="U64" t="n">
-        <v>7.206748</v>
+        <v>7.206759</v>
       </c>
       <c r="V64" t="n">
-        <v>6.160757</v>
+        <v>6.160793</v>
       </c>
       <c r="W64" t="n">
         <v>14.50229</v>
@@ -8552,13 +8552,13 @@
         <v>6.248717</v>
       </c>
       <c r="Z64" t="n">
-        <v>14.77906</v>
+        <v>14.77917</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.888522</v>
+        <v>6.888523</v>
       </c>
       <c r="AB64" t="n">
-        <v>5.808269</v>
+        <v>5.808253</v>
       </c>
       <c r="AC64" t="n">
         <v>15.0245</v>
@@ -8643,13 +8643,13 @@
         <v>99.49267999999999</v>
       </c>
       <c r="N65" t="n">
-        <v>14.39816</v>
+        <v>14.3982</v>
       </c>
       <c r="O65" t="n">
-        <v>7.03541</v>
+        <v>7.035422</v>
       </c>
       <c r="P65" t="n">
-        <v>6.017712</v>
+        <v>6.017719</v>
       </c>
       <c r="Q65" t="n">
         <v>13.98288</v>
@@ -8661,13 +8661,13 @@
         <v>6.021405</v>
       </c>
       <c r="T65" t="n">
-        <v>14.39159</v>
+        <v>14.39144</v>
       </c>
       <c r="U65" t="n">
-        <v>7.296655</v>
+        <v>7.296666</v>
       </c>
       <c r="V65" t="n">
-        <v>6.295777</v>
+        <v>6.295816</v>
       </c>
       <c r="W65" t="n">
         <v>13.87225</v>
@@ -8679,13 +8679,13 @@
         <v>6.23199</v>
       </c>
       <c r="Z65" t="n">
-        <v>14.39813</v>
+        <v>14.39817</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.841834</v>
+        <v>6.841846</v>
       </c>
       <c r="AB65" t="n">
-        <v>5.812325</v>
+        <v>5.812335</v>
       </c>
       <c r="AC65" t="n">
         <v>14.04101</v>
@@ -8770,13 +8770,13 @@
         <v>99.93053</v>
       </c>
       <c r="N66" t="n">
-        <v>14.60908</v>
+        <v>14.6091</v>
       </c>
       <c r="O66" t="n">
-        <v>7.017172</v>
+        <v>7.017186</v>
       </c>
       <c r="P66" t="n">
-        <v>5.968212</v>
+        <v>5.968224</v>
       </c>
       <c r="Q66" t="n">
         <v>14.42095</v>
@@ -8788,13 +8788,13 @@
         <v>5.825926</v>
       </c>
       <c r="T66" t="n">
-        <v>14.49799</v>
+        <v>14.49781</v>
       </c>
       <c r="U66" t="n">
-        <v>7.20905</v>
+        <v>7.209061</v>
       </c>
       <c r="V66" t="n">
-        <v>6.183854</v>
+        <v>6.183894</v>
       </c>
       <c r="W66" t="n">
         <v>14.37911</v>
@@ -8806,13 +8806,13 @@
         <v>6.000966</v>
       </c>
       <c r="Z66" t="n">
-        <v>14.74223</v>
+        <v>14.74222</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.874974</v>
+        <v>6.874989</v>
       </c>
       <c r="AB66" t="n">
-        <v>5.80237</v>
+        <v>5.802389</v>
       </c>
       <c r="AC66" t="n">
         <v>14.49389</v>
@@ -8897,13 +8897,13 @@
         <v>99.8069</v>
       </c>
       <c r="N67" t="n">
-        <v>14.57541</v>
+        <v>14.57543</v>
       </c>
       <c r="O67" t="n">
-        <v>6.900049</v>
+        <v>6.900076</v>
       </c>
       <c r="P67" t="n">
-        <v>5.841205</v>
+        <v>5.841236</v>
       </c>
       <c r="Q67" t="n">
         <v>14.9571</v>
@@ -8915,13 +8915,13 @@
         <v>5.667231</v>
       </c>
       <c r="T67" t="n">
-        <v>14.5988</v>
+        <v>14.59885</v>
       </c>
       <c r="U67" t="n">
-        <v>7.156823</v>
+        <v>7.156818</v>
       </c>
       <c r="V67" t="n">
-        <v>6.101278</v>
+        <v>6.101263</v>
       </c>
       <c r="W67" t="n">
         <v>14.91976</v>
@@ -8933,13 +8933,13 @@
         <v>6.005058</v>
       </c>
       <c r="Z67" t="n">
-        <v>14.50923</v>
+        <v>14.50918</v>
       </c>
       <c r="AA67" t="n">
-        <v>6.697131</v>
+        <v>6.697184</v>
       </c>
       <c r="AB67" t="n">
-        <v>5.641126</v>
+        <v>5.641194</v>
       </c>
       <c r="AC67" t="n">
         <v>14.89874</v>
@@ -9024,13 +9024,13 @@
         <v>100.3604</v>
       </c>
       <c r="N68" t="n">
-        <v>14.27194</v>
+        <v>14.27183</v>
       </c>
       <c r="O68" t="n">
-        <v>6.823351</v>
+        <v>6.82327</v>
       </c>
       <c r="P68" t="n">
-        <v>5.802912</v>
+        <v>5.802834</v>
       </c>
       <c r="Q68" t="n">
         <v>14.456</v>
@@ -9042,13 +9042,13 @@
         <v>5.726627</v>
       </c>
       <c r="T68" t="n">
-        <v>14.27884</v>
+        <v>14.28026</v>
       </c>
       <c r="U68" t="n">
-        <v>7.046298</v>
+        <v>7.046205</v>
       </c>
       <c r="V68" t="n">
-        <v>6.033243</v>
+        <v>6.032919</v>
       </c>
       <c r="W68" t="n">
         <v>14.74929</v>
@@ -9060,13 +9060,13 @@
         <v>6.089718</v>
       </c>
       <c r="Z68" t="n">
-        <v>14.25609</v>
+        <v>14.25581</v>
       </c>
       <c r="AA68" t="n">
-        <v>6.660862</v>
+        <v>6.660791</v>
       </c>
       <c r="AB68" t="n">
-        <v>5.63639</v>
+        <v>5.636349</v>
       </c>
       <c r="AC68" t="n">
         <v>14.2731</v>
@@ -9151,13 +9151,13 @@
         <v>100.5182</v>
       </c>
       <c r="N69" t="n">
-        <v>14.06302</v>
+        <v>14.06293</v>
       </c>
       <c r="O69" t="n">
-        <v>6.78156</v>
+        <v>6.781528</v>
       </c>
       <c r="P69" t="n">
-        <v>5.784723</v>
+        <v>5.7847</v>
       </c>
       <c r="Q69" t="n">
         <v>13.88647</v>
@@ -9169,13 +9169,13 @@
         <v>5.678743</v>
       </c>
       <c r="T69" t="n">
-        <v>14.28898</v>
+        <v>14.2888</v>
       </c>
       <c r="U69" t="n">
-        <v>6.998547</v>
+        <v>6.998534</v>
       </c>
       <c r="V69" t="n">
-        <v>5.983355</v>
+        <v>5.983366</v>
       </c>
       <c r="W69" t="n">
         <v>14.41045</v>
@@ -9187,13 +9187,13 @@
         <v>6.06095</v>
       </c>
       <c r="Z69" t="n">
-        <v>13.8414</v>
+        <v>13.84134</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.608106</v>
+        <v>6.608058</v>
       </c>
       <c r="AB69" t="n">
-        <v>5.633986</v>
+        <v>5.63394</v>
       </c>
       <c r="AC69" t="n">
         <v>13.48806</v>
@@ -9278,13 +9278,13 @@
         <v>100.6164</v>
       </c>
       <c r="N70" t="n">
-        <v>13.99819</v>
+        <v>13.99815</v>
       </c>
       <c r="O70" t="n">
-        <v>6.750784</v>
+        <v>6.750762</v>
       </c>
       <c r="P70" t="n">
-        <v>5.755588</v>
+        <v>5.755567</v>
       </c>
       <c r="Q70" t="n">
         <v>14.21106</v>
@@ -9296,13 +9296,13 @@
         <v>5.580993</v>
       </c>
       <c r="T70" t="n">
-        <v>14.03263</v>
+        <v>14.03237</v>
       </c>
       <c r="U70" t="n">
         <v>6.936265</v>
       </c>
       <c r="V70" t="n">
-        <v>5.942745</v>
+        <v>5.94278</v>
       </c>
       <c r="W70" t="n">
         <v>14.44004</v>
@@ -9314,13 +9314,13 @@
         <v>5.873593</v>
       </c>
       <c r="Z70" t="n">
-        <v>13.94448</v>
+        <v>13.94446</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.597517</v>
+        <v>6.597476</v>
       </c>
       <c r="AB70" t="n">
-        <v>5.604561</v>
+        <v>5.604515</v>
       </c>
       <c r="AC70" t="n">
         <v>13.83718</v>
@@ -9405,13 +9405,13 @@
         <v>100.3787</v>
       </c>
       <c r="N71" t="n">
-        <v>13.94032</v>
+        <v>13.9403</v>
       </c>
       <c r="O71" t="n">
-        <v>6.732957</v>
+        <v>6.73294</v>
       </c>
       <c r="P71" t="n">
-        <v>5.740221</v>
+        <v>5.740206</v>
       </c>
       <c r="Q71" t="n">
         <v>13.87567</v>
@@ -9423,13 +9423,13 @@
         <v>5.596339</v>
       </c>
       <c r="T71" t="n">
-        <v>13.94904</v>
+        <v>13.94899</v>
       </c>
       <c r="U71" t="n">
-        <v>6.940784</v>
+        <v>6.940778</v>
       </c>
       <c r="V71" t="n">
-        <v>5.962666</v>
+        <v>5.962664</v>
       </c>
       <c r="W71" t="n">
         <v>14.00447</v>
@@ -9441,13 +9441,13 @@
         <v>5.919618</v>
       </c>
       <c r="Z71" t="n">
-        <v>13.88055</v>
+        <v>13.88059</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.542835</v>
+        <v>6.54281</v>
       </c>
       <c r="AB71" t="n">
-        <v>5.545438</v>
+        <v>5.545403</v>
       </c>
       <c r="AC71" t="n">
         <v>13.66195</v>
@@ -9532,13 +9532,13 @@
         <v>100.1115</v>
       </c>
       <c r="N72" t="n">
-        <v>13.64961</v>
+        <v>13.64955</v>
       </c>
       <c r="O72" t="n">
-        <v>6.650018</v>
+        <v>6.649999</v>
       </c>
       <c r="P72" t="n">
-        <v>5.689297</v>
+        <v>5.689283</v>
       </c>
       <c r="Q72" t="n">
         <v>13.15595</v>
@@ -9550,13 +9550,13 @@
         <v>5.577316</v>
       </c>
       <c r="T72" t="n">
-        <v>13.32038</v>
+        <v>13.3204</v>
       </c>
       <c r="U72" t="n">
-        <v>6.833899</v>
+        <v>6.833891</v>
       </c>
       <c r="V72" t="n">
-        <v>5.929667</v>
+        <v>5.929656</v>
       </c>
       <c r="W72" t="n">
         <v>12.81703</v>
@@ -9571,10 +9571,10 @@
         <v>13.96358</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.511548</v>
+        <v>6.511519</v>
       </c>
       <c r="AB72" t="n">
-        <v>5.498706</v>
+        <v>5.498672</v>
       </c>
       <c r="AC72" t="n">
         <v>13.43858</v>
@@ -9659,13 +9659,13 @@
         <v>101.069</v>
       </c>
       <c r="N73" t="n">
-        <v>13.85753</v>
+        <v>13.85751</v>
       </c>
       <c r="O73" t="n">
-        <v>6.678935</v>
+        <v>6.67893</v>
       </c>
       <c r="P73" t="n">
-        <v>5.690316</v>
+        <v>5.690313</v>
       </c>
       <c r="Q73" t="n">
         <v>13.19473</v>
@@ -9677,13 +9677,13 @@
         <v>5.631583</v>
       </c>
       <c r="T73" t="n">
-        <v>13.6305</v>
+        <v>13.6304</v>
       </c>
       <c r="U73" t="n">
-        <v>6.867085</v>
+        <v>6.867081</v>
       </c>
       <c r="V73" t="n">
-        <v>5.914843</v>
+        <v>5.914855</v>
       </c>
       <c r="W73" t="n">
         <v>12.70309</v>
@@ -9695,13 +9695,13 @@
         <v>5.724418</v>
       </c>
       <c r="Z73" t="n">
-        <v>14.05856</v>
+        <v>14.0586</v>
       </c>
       <c r="AA73" t="n">
-        <v>6.528133</v>
+        <v>6.528129</v>
       </c>
       <c r="AB73" t="n">
-        <v>5.507063</v>
+        <v>5.50705</v>
       </c>
       <c r="AC73" t="n">
         <v>13.70261</v>
@@ -9786,13 +9786,13 @@
         <v>100.9966</v>
       </c>
       <c r="N74" t="n">
-        <v>13.47675</v>
+        <v>13.47678</v>
       </c>
       <c r="O74" t="n">
-        <v>6.595567</v>
+        <v>6.595614</v>
       </c>
       <c r="P74" t="n">
-        <v>5.655448</v>
+        <v>5.655499</v>
       </c>
       <c r="Q74" t="n">
         <v>14.16611</v>
@@ -9804,13 +9804,13 @@
         <v>6.02291</v>
       </c>
       <c r="T74" t="n">
-        <v>13.37325</v>
+        <v>13.37319</v>
       </c>
       <c r="U74" t="n">
-        <v>6.830411</v>
+        <v>6.830442</v>
       </c>
       <c r="V74" t="n">
-        <v>5.917205</v>
+        <v>5.917253</v>
       </c>
       <c r="W74" t="n">
         <v>13.89118</v>
@@ -9822,13 +9822,13 @@
         <v>6.173108</v>
       </c>
       <c r="Z74" t="n">
-        <v>13.54925</v>
+        <v>13.54932</v>
       </c>
       <c r="AA74" t="n">
-        <v>6.403317</v>
+        <v>6.403377</v>
       </c>
       <c r="AB74" t="n">
-        <v>5.444678</v>
+        <v>5.444737</v>
       </c>
       <c r="AC74" t="n">
         <v>14.35547</v>
@@ -9913,13 +9913,13 @@
         <v>101.3684</v>
       </c>
       <c r="N75" t="n">
-        <v>13.64971</v>
+        <v>13.64983</v>
       </c>
       <c r="O75" t="n">
-        <v>6.592721</v>
+        <v>6.59274</v>
       </c>
       <c r="P75" t="n">
-        <v>5.626419</v>
+        <v>5.626421</v>
       </c>
       <c r="Q75" t="n">
         <v>14.07783</v>
@@ -9931,13 +9931,13 @@
         <v>5.992198</v>
       </c>
       <c r="T75" t="n">
-        <v>13.52796</v>
+        <v>13.52783</v>
       </c>
       <c r="U75" t="n">
-        <v>6.787339</v>
+        <v>6.787355</v>
       </c>
       <c r="V75" t="n">
-        <v>5.849305</v>
+        <v>5.849341</v>
       </c>
       <c r="W75" t="n">
         <v>13.73739</v>
@@ -9949,13 +9949,13 @@
         <v>6.100532</v>
       </c>
       <c r="Z75" t="n">
-        <v>13.74221</v>
+        <v>13.74232</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.431467</v>
+        <v>6.431486</v>
       </c>
       <c r="AB75" t="n">
-        <v>5.448219</v>
+        <v>5.448226</v>
       </c>
       <c r="AC75" t="n">
         <v>14.36579</v>
@@ -10040,13 +10040,13 @@
         <v>100.9746</v>
       </c>
       <c r="N76" t="n">
-        <v>13.67835</v>
+        <v>13.6784</v>
       </c>
       <c r="O76" t="n">
-        <v>6.617905</v>
+        <v>6.617923</v>
       </c>
       <c r="P76" t="n">
-        <v>5.651165</v>
+        <v>5.651179</v>
       </c>
       <c r="Q76" t="n">
         <v>13.72079</v>
@@ -10058,13 +10058,13 @@
         <v>5.83432</v>
       </c>
       <c r="T76" t="n">
-        <v>13.61463</v>
+        <v>13.61451</v>
       </c>
       <c r="U76" t="n">
-        <v>6.834165</v>
+        <v>6.834184</v>
       </c>
       <c r="V76" t="n">
-        <v>5.885335</v>
+        <v>5.885376</v>
       </c>
       <c r="W76" t="n">
         <v>13.43486</v>
@@ -10076,13 +10076,13 @@
         <v>5.938402</v>
       </c>
       <c r="Z76" t="n">
-        <v>13.73536</v>
+        <v>13.73549</v>
       </c>
       <c r="AA76" t="n">
-        <v>6.436435</v>
+        <v>6.436452</v>
       </c>
       <c r="AB76" t="n">
-        <v>5.454237</v>
+        <v>5.454239</v>
       </c>
       <c r="AC76" t="n">
         <v>14.00921</v>
@@ -10167,13 +10167,13 @@
         <v>101.1929</v>
       </c>
       <c r="N77" t="n">
-        <v>13.63062</v>
+        <v>13.63069</v>
       </c>
       <c r="O77" t="n">
-        <v>6.542384</v>
+        <v>6.542408</v>
       </c>
       <c r="P77" t="n">
-        <v>5.571158</v>
+        <v>5.571176</v>
       </c>
       <c r="Q77" t="n">
         <v>13.22531</v>
@@ -10185,13 +10185,13 @@
         <v>5.541544</v>
       </c>
       <c r="T77" t="n">
-        <v>13.70291</v>
+        <v>13.70276</v>
       </c>
       <c r="U77" t="n">
-        <v>6.769721</v>
+        <v>6.769737</v>
       </c>
       <c r="V77" t="n">
-        <v>5.798667</v>
+        <v>5.798713</v>
       </c>
       <c r="W77" t="n">
         <v>13.19684</v>
@@ -10203,13 +10203,13 @@
         <v>5.714976</v>
       </c>
       <c r="Z77" t="n">
-        <v>13.56526</v>
+        <v>13.5653</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.373547</v>
+        <v>6.373577</v>
       </c>
       <c r="AB77" t="n">
-        <v>5.404331</v>
+        <v>5.40436</v>
       </c>
       <c r="AC77" t="n">
         <v>13.20309</v>
@@ -10294,13 +10294,13 @@
         <v>101.4619</v>
       </c>
       <c r="N78" t="n">
-        <v>13.52001</v>
+        <v>13.52004</v>
       </c>
       <c r="O78" t="n">
-        <v>6.470707</v>
+        <v>6.470731</v>
       </c>
       <c r="P78" t="n">
-        <v>5.505927</v>
+        <v>5.505949</v>
       </c>
       <c r="Q78" t="n">
         <v>13.35826</v>
@@ -10312,13 +10312,13 @@
         <v>5.356787</v>
       </c>
       <c r="T78" t="n">
-        <v>13.50142</v>
+        <v>13.50119</v>
       </c>
       <c r="U78" t="n">
-        <v>6.697104</v>
+        <v>6.697119</v>
       </c>
       <c r="V78" t="n">
-        <v>5.749269</v>
+        <v>5.74932</v>
       </c>
       <c r="W78" t="n">
         <v>13.35075</v>
@@ -10333,10 +10333,10 @@
         <v>13.52719</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.292658</v>
+        <v>6.292689</v>
       </c>
       <c r="AB78" t="n">
-        <v>5.317015</v>
+        <v>5.317051</v>
       </c>
       <c r="AC78" t="n">
         <v>13.37498</v>
@@ -10421,13 +10421,13 @@
         <v>101.6983</v>
       </c>
       <c r="N79" t="n">
-        <v>13.5403</v>
+        <v>13.54031</v>
       </c>
       <c r="O79" t="n">
-        <v>6.476333</v>
+        <v>6.476369</v>
       </c>
       <c r="P79" t="n">
-        <v>5.512209</v>
+        <v>5.512253</v>
       </c>
       <c r="Q79" t="n">
         <v>13.95205</v>
@@ -10439,13 +10439,13 @@
         <v>5.343566</v>
       </c>
       <c r="T79" t="n">
-        <v>13.44147</v>
+        <v>13.44153</v>
       </c>
       <c r="U79" t="n">
-        <v>6.685238</v>
+        <v>6.685233</v>
       </c>
       <c r="V79" t="n">
-        <v>5.745559</v>
+        <v>5.745543</v>
       </c>
       <c r="W79" t="n">
         <v>13.89564</v>
@@ -10457,13 +10457,13 @@
         <v>5.637823</v>
       </c>
       <c r="Z79" t="n">
-        <v>13.61725</v>
+        <v>13.61719</v>
       </c>
       <c r="AA79" t="n">
-        <v>6.299909</v>
+        <v>6.299979</v>
       </c>
       <c r="AB79" t="n">
-        <v>5.31601</v>
+        <v>5.316101</v>
       </c>
       <c r="AC79" t="n">
         <v>14.01143</v>
@@ -10548,13 +10548,13 @@
         <v>101.9231</v>
       </c>
       <c r="N80" t="n">
-        <v>13.56507</v>
+        <v>13.56496</v>
       </c>
       <c r="O80" t="n">
-        <v>6.423429</v>
+        <v>6.423327</v>
       </c>
       <c r="P80" t="n">
-        <v>5.458134</v>
+        <v>5.458033</v>
       </c>
       <c r="Q80" t="n">
         <v>13.91195</v>
@@ -10566,13 +10566,13 @@
         <v>5.386122</v>
       </c>
       <c r="T80" t="n">
-        <v>13.50996</v>
+        <v>13.51179</v>
       </c>
       <c r="U80" t="n">
-        <v>6.609887</v>
+        <v>6.609817</v>
       </c>
       <c r="V80" t="n">
-        <v>5.658024</v>
+        <v>5.65767</v>
       </c>
       <c r="W80" t="n">
         <v>14.13131</v>
@@ -10584,13 +10584,13 @@
         <v>5.712487</v>
       </c>
       <c r="Z80" t="n">
-        <v>13.52626</v>
+        <v>13.52587</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.286386</v>
+        <v>6.286258</v>
       </c>
       <c r="AB80" t="n">
-        <v>5.318516</v>
+        <v>5.318426</v>
       </c>
       <c r="AC80" t="n">
         <v>13.69883</v>
@@ -10675,13 +10675,13 @@
         <v>101.9278</v>
       </c>
       <c r="N81" t="n">
-        <v>13.2666</v>
+        <v>13.26647</v>
       </c>
       <c r="O81" t="n">
-        <v>6.440012</v>
+        <v>6.439974</v>
       </c>
       <c r="P81" t="n">
-        <v>5.512336</v>
+        <v>5.512312</v>
       </c>
       <c r="Q81" t="n">
         <v>13.06059</v>
@@ -10693,13 +10693,13 @@
         <v>5.475845</v>
       </c>
       <c r="T81" t="n">
-        <v>13.04689</v>
+        <v>13.04676</v>
       </c>
       <c r="U81" t="n">
-        <v>6.661779</v>
+        <v>6.661763</v>
       </c>
       <c r="V81" t="n">
-        <v>5.77563</v>
+        <v>5.775628</v>
       </c>
       <c r="W81" t="n">
         <v>13.32753</v>
@@ -10711,13 +10711,13 @@
         <v>5.884752</v>
       </c>
       <c r="Z81" t="n">
-        <v>13.45855</v>
+        <v>13.45847</v>
       </c>
       <c r="AA81" t="n">
-        <v>6.272089</v>
+        <v>6.272035</v>
       </c>
       <c r="AB81" t="n">
-        <v>5.309988</v>
+        <v>5.309937</v>
       </c>
       <c r="AC81" t="n">
         <v>12.98035</v>
@@ -10802,13 +10802,13 @@
         <v>102.0651</v>
       </c>
       <c r="N82" t="n">
-        <v>13.17259</v>
+        <v>13.17251</v>
       </c>
       <c r="O82" t="n">
-        <v>6.451051</v>
+        <v>6.451016</v>
       </c>
       <c r="P82" t="n">
-        <v>5.542449</v>
+        <v>5.54242</v>
       </c>
       <c r="Q82" t="n">
         <v>13.30936</v>
@@ -10820,13 +10820,13 @@
         <v>5.397514</v>
       </c>
       <c r="T82" t="n">
-        <v>13.25823</v>
+        <v>13.25792</v>
       </c>
       <c r="U82" t="n">
-        <v>6.679533</v>
+        <v>6.67953</v>
       </c>
       <c r="V82" t="n">
-        <v>5.778971</v>
+        <v>5.779008</v>
       </c>
       <c r="W82" t="n">
         <v>13.61969</v>
@@ -10838,13 +10838,13 @@
         <v>5.740963</v>
       </c>
       <c r="Z82" t="n">
-        <v>13.16035</v>
+        <v>13.16033</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.273056</v>
+        <v>6.272997</v>
       </c>
       <c r="AB82" t="n">
-        <v>5.355621</v>
+        <v>5.355556</v>
       </c>
       <c r="AC82" t="n">
         <v>13.01641</v>
@@ -10929,13 +10929,13 @@
         <v>102.9587</v>
       </c>
       <c r="N83" t="n">
-        <v>13.24509</v>
+        <v>13.24503</v>
       </c>
       <c r="O83" t="n">
-        <v>6.389148</v>
+        <v>6.38913</v>
       </c>
       <c r="P83" t="n">
-        <v>5.462955</v>
+        <v>5.462941</v>
       </c>
       <c r="Q83" t="n">
         <v>13.17975</v>
@@ -10947,13 +10947,13 @@
         <v>5.325988</v>
       </c>
       <c r="T83" t="n">
-        <v>13.1517</v>
+        <v>13.15164</v>
       </c>
       <c r="U83" t="n">
-        <v>6.602166</v>
+        <v>6.602158</v>
       </c>
       <c r="V83" t="n">
-        <v>5.703942</v>
+        <v>5.70394</v>
       </c>
       <c r="W83" t="n">
         <v>13.17232</v>
@@ -10965,13 +10965,13 @@
         <v>5.609966</v>
       </c>
       <c r="Z83" t="n">
-        <v>13.37837</v>
+        <v>13.37838</v>
       </c>
       <c r="AA83" t="n">
-        <v>6.21353</v>
+        <v>6.213503</v>
       </c>
       <c r="AB83" t="n">
-        <v>5.256542</v>
+        <v>5.256509</v>
       </c>
       <c r="AC83" t="n">
         <v>13.26213</v>
@@ -11056,13 +11056,13 @@
         <v>102.4807</v>
       </c>
       <c r="N84" t="n">
-        <v>13.27996</v>
+        <v>13.27987</v>
       </c>
       <c r="O84" t="n">
-        <v>6.32215</v>
+        <v>6.32212</v>
       </c>
       <c r="P84" t="n">
-        <v>5.379072</v>
+        <v>5.379048</v>
       </c>
       <c r="Q84" t="n">
         <v>12.77759</v>
@@ -11077,10 +11077,10 @@
         <v>12.85777</v>
       </c>
       <c r="U84" t="n">
-        <v>6.508997</v>
+        <v>6.508988</v>
       </c>
       <c r="V84" t="n">
-        <v>5.636247</v>
+        <v>5.636238</v>
       </c>
       <c r="W84" t="n">
         <v>12.40447</v>
@@ -11092,13 +11092,13 @@
         <v>5.510188</v>
       </c>
       <c r="Z84" t="n">
-        <v>13.58497</v>
+        <v>13.58498</v>
       </c>
       <c r="AA84" t="n">
-        <v>6.168701</v>
+        <v>6.168654</v>
       </c>
       <c r="AB84" t="n">
-        <v>5.174138</v>
+        <v>5.174082</v>
       </c>
       <c r="AC84" t="n">
         <v>12.9603</v>
@@ -11183,13 +11183,13 @@
         <v>102.9866</v>
       </c>
       <c r="N85" t="n">
-        <v>13.17421</v>
+        <v>13.17418</v>
       </c>
       <c r="O85" t="n">
-        <v>6.326188</v>
+        <v>6.326181</v>
       </c>
       <c r="P85" t="n">
-        <v>5.400194</v>
+        <v>5.40019</v>
       </c>
       <c r="Q85" t="n">
         <v>12.46116</v>
@@ -11201,13 +11201,13 @@
         <v>5.336363</v>
       </c>
       <c r="T85" t="n">
-        <v>13.03123</v>
+        <v>13.03112</v>
       </c>
       <c r="U85" t="n">
-        <v>6.525479</v>
+        <v>6.525459</v>
       </c>
       <c r="V85" t="n">
-        <v>5.637531</v>
+        <v>5.637526</v>
       </c>
       <c r="W85" t="n">
         <v>12.09112</v>
@@ -11219,13 +11219,13 @@
         <v>5.474319</v>
       </c>
       <c r="Z85" t="n">
-        <v>13.31952</v>
+        <v>13.31959</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.156662</v>
+        <v>6.156666</v>
       </c>
       <c r="AB85" t="n">
-        <v>5.19873</v>
+        <v>5.198723</v>
       </c>
       <c r="AC85" t="n">
         <v>12.83703</v>
@@ -11310,13 +11310,13 @@
         <v>103.27</v>
       </c>
       <c r="N86" t="n">
-        <v>12.91587</v>
+        <v>12.91592</v>
       </c>
       <c r="O86" t="n">
-        <v>6.254556</v>
+        <v>6.254603</v>
       </c>
       <c r="P86" t="n">
-        <v>5.352668</v>
+        <v>5.352717</v>
       </c>
       <c r="Q86" t="n">
         <v>13.61805</v>
@@ -11328,13 +11328,13 @@
         <v>5.737632</v>
       </c>
       <c r="T86" t="n">
-        <v>12.83698</v>
+        <v>12.83689</v>
       </c>
       <c r="U86" t="n">
-        <v>6.481736</v>
+        <v>6.481768</v>
       </c>
       <c r="V86" t="n">
-        <v>5.605673</v>
+        <v>5.605727</v>
       </c>
       <c r="W86" t="n">
         <v>13.15302</v>
@@ -11346,13 +11346,13 @@
         <v>5.894127</v>
       </c>
       <c r="Z86" t="n">
-        <v>12.96003</v>
+        <v>12.96014</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.06952</v>
+        <v>6.06958</v>
       </c>
       <c r="AB86" t="n">
-        <v>5.151753</v>
+        <v>5.151806</v>
       </c>
       <c r="AC86" t="n">
         <v>13.90244</v>
@@ -11437,13 +11437,13 @@
         <v>103.2119</v>
       </c>
       <c r="N87" t="n">
-        <v>12.76579</v>
+        <v>12.76597</v>
       </c>
       <c r="O87" t="n">
-        <v>6.214743</v>
+        <v>6.214779</v>
       </c>
       <c r="P87" t="n">
-        <v>5.329789</v>
+        <v>5.329807</v>
       </c>
       <c r="Q87" t="n">
         <v>13.22014</v>
@@ -11455,13 +11455,13 @@
         <v>5.688752</v>
       </c>
       <c r="T87" t="n">
-        <v>12.69471</v>
+        <v>12.69459</v>
       </c>
       <c r="U87" t="n">
-        <v>6.442251</v>
+        <v>6.442275</v>
       </c>
       <c r="V87" t="n">
-        <v>5.586137</v>
+        <v>5.586179</v>
       </c>
       <c r="W87" t="n">
         <v>12.94347</v>
@@ -11473,13 +11473,13 @@
         <v>5.852934</v>
       </c>
       <c r="Z87" t="n">
-        <v>12.8565</v>
+        <v>12.85669</v>
       </c>
       <c r="AA87" t="n">
-        <v>6.013682</v>
+        <v>6.013729</v>
       </c>
       <c r="AB87" t="n">
-        <v>5.101988</v>
+        <v>5.102015</v>
       </c>
       <c r="AC87" t="n">
         <v>13.50483</v>
@@ -11564,13 +11564,13 @@
         <v>103.425</v>
       </c>
       <c r="N88" t="n">
-        <v>12.67516</v>
+        <v>12.67525</v>
       </c>
       <c r="O88" t="n">
-        <v>6.123861</v>
+        <v>6.123868</v>
       </c>
       <c r="P88" t="n">
-        <v>5.236364</v>
+        <v>5.23636</v>
       </c>
       <c r="Q88" t="n">
         <v>12.72973</v>
@@ -11582,13 +11582,13 @@
         <v>5.408299</v>
       </c>
       <c r="T88" t="n">
-        <v>12.64693</v>
+        <v>12.64677</v>
       </c>
       <c r="U88" t="n">
-        <v>6.350048</v>
+        <v>6.350078</v>
       </c>
       <c r="V88" t="n">
-        <v>5.484136</v>
+        <v>5.484195</v>
       </c>
       <c r="W88" t="n">
         <v>12.48951</v>
@@ -11600,13 +11600,13 @@
         <v>5.552047</v>
       </c>
       <c r="Z88" t="n">
-        <v>12.6856</v>
+        <v>12.6858</v>
       </c>
       <c r="AA88" t="n">
-        <v>5.926016</v>
+        <v>5.926004</v>
       </c>
       <c r="AB88" t="n">
-        <v>5.023865</v>
+        <v>5.023825</v>
       </c>
       <c r="AC88" t="n">
         <v>12.96784</v>
@@ -11691,13 +11691,13 @@
         <v>103.7905</v>
       </c>
       <c r="N89" t="n">
-        <v>12.66662</v>
+        <v>12.66672</v>
       </c>
       <c r="O89" t="n">
-        <v>6.0307</v>
+        <v>6.030751</v>
       </c>
       <c r="P89" t="n">
-        <v>5.131692</v>
+        <v>5.131739</v>
       </c>
       <c r="Q89" t="n">
         <v>12.39151</v>
@@ -11709,13 +11709,13 @@
         <v>5.106481</v>
       </c>
       <c r="T89" t="n">
-        <v>12.78694</v>
+        <v>12.78681</v>
       </c>
       <c r="U89" t="n">
-        <v>6.313005</v>
+        <v>6.313037</v>
       </c>
       <c r="V89" t="n">
-        <v>5.425712</v>
+        <v>5.42577</v>
       </c>
       <c r="W89" t="n">
         <v>12.32156</v>
@@ -11727,13 +11727,13 @@
         <v>5.351178</v>
       </c>
       <c r="Z89" t="n">
-        <v>12.59408</v>
+        <v>12.59417</v>
       </c>
       <c r="AA89" t="n">
-        <v>5.805651</v>
+        <v>5.805718</v>
       </c>
       <c r="AB89" t="n">
-        <v>4.896178</v>
+        <v>4.89624</v>
       </c>
       <c r="AC89" t="n">
         <v>12.42583</v>
@@ -11818,13 +11818,13 @@
         <v>103.6721</v>
       </c>
       <c r="N90" t="n">
-        <v>12.45882</v>
+        <v>12.45895</v>
       </c>
       <c r="O90" t="n">
-        <v>6.034132</v>
+        <v>6.034203</v>
       </c>
       <c r="P90" t="n">
-        <v>5.168855</v>
+        <v>5.168917</v>
       </c>
       <c r="Q90" t="n">
         <v>12.26809</v>
@@ -11836,13 +11836,13 @@
         <v>5.005194</v>
       </c>
       <c r="T90" t="n">
-        <v>12.45444</v>
+        <v>12.45421</v>
       </c>
       <c r="U90" t="n">
-        <v>6.344016</v>
+        <v>6.34404</v>
       </c>
       <c r="V90" t="n">
-        <v>5.509649</v>
+        <v>5.509709</v>
       </c>
       <c r="W90" t="n">
         <v>12.25476</v>
@@ -11854,13 +11854,13 @@
         <v>5.329449</v>
       </c>
       <c r="Z90" t="n">
-        <v>12.4113</v>
+        <v>12.41134</v>
       </c>
       <c r="AA90" t="n">
-        <v>5.782701</v>
+        <v>5.782811</v>
       </c>
       <c r="AB90" t="n">
-        <v>4.899535</v>
+        <v>4.899655</v>
       </c>
       <c r="AC90" t="n">
         <v>12.20474</v>
@@ -11945,13 +11945,13 @@
         <v>103.9808</v>
       </c>
       <c r="N91" t="n">
-        <v>12.45953</v>
+        <v>12.45952</v>
       </c>
       <c r="O91" t="n">
-        <v>5.904672</v>
+        <v>5.904722</v>
       </c>
       <c r="P91" t="n">
-        <v>5.019767</v>
+        <v>5.01983</v>
       </c>
       <c r="Q91" t="n">
         <v>12.77715</v>
@@ -11963,13 +11963,13 @@
         <v>4.837553</v>
       </c>
       <c r="T91" t="n">
-        <v>12.48504</v>
+        <v>12.48508</v>
       </c>
       <c r="U91" t="n">
-        <v>6.175627</v>
+        <v>6.175636</v>
       </c>
       <c r="V91" t="n">
-        <v>5.313107</v>
+        <v>5.31311</v>
       </c>
       <c r="W91" t="n">
         <v>12.93459</v>
@@ -11981,13 +11981,13 @@
         <v>5.151621</v>
       </c>
       <c r="Z91" t="n">
-        <v>12.43836</v>
+        <v>12.43833</v>
       </c>
       <c r="AA91" t="n">
-        <v>5.674506</v>
+        <v>5.67459</v>
       </c>
       <c r="AB91" t="n">
-        <v>4.774003</v>
+        <v>4.774106</v>
       </c>
       <c r="AC91" t="n">
         <v>12.70381</v>
@@ -12072,13 +12072,13 @@
         <v>104.2326</v>
       </c>
       <c r="N92" t="n">
-        <v>12.30629</v>
+        <v>12.3061</v>
       </c>
       <c r="O92" t="n">
-        <v>5.860191</v>
+        <v>5.860015</v>
       </c>
       <c r="P92" t="n">
-        <v>4.999205</v>
+        <v>4.99903</v>
       </c>
       <c r="Q92" t="n">
         <v>12.57073</v>
@@ -12090,13 +12090,13 @@
         <v>4.928166</v>
       </c>
       <c r="T92" t="n">
-        <v>12.40482</v>
+        <v>12.40657</v>
       </c>
       <c r="U92" t="n">
-        <v>6.136945</v>
+        <v>6.136825</v>
       </c>
       <c r="V92" t="n">
-        <v>5.288737</v>
+        <v>5.288346</v>
       </c>
       <c r="W92" t="n">
         <v>12.82672</v>
@@ -12108,13 +12108,13 @@
         <v>5.34643</v>
       </c>
       <c r="Z92" t="n">
-        <v>12.22651</v>
+        <v>12.22574</v>
       </c>
       <c r="AA92" t="n">
-        <v>5.652517</v>
+        <v>5.652295</v>
       </c>
       <c r="AB92" t="n">
-        <v>4.781227</v>
+        <v>4.781084</v>
       </c>
       <c r="AC92" t="n">
         <v>12.42556</v>
@@ -12199,13 +12199,13 @@
         <v>103.9837</v>
       </c>
       <c r="N93" t="n">
-        <v>12.28481</v>
+        <v>12.28462</v>
       </c>
       <c r="O93" t="n">
-        <v>5.882632</v>
+        <v>5.882586</v>
       </c>
       <c r="P93" t="n">
-        <v>5.026207</v>
+        <v>5.02618</v>
       </c>
       <c r="Q93" t="n">
         <v>12.24035</v>
@@ -12217,13 +12217,13 @@
         <v>5.00864</v>
       </c>
       <c r="T93" t="n">
-        <v>12.3109</v>
+        <v>12.3108</v>
       </c>
       <c r="U93" t="n">
-        <v>6.169217</v>
+        <v>6.169208</v>
       </c>
       <c r="V93" t="n">
-        <v>5.3339</v>
+        <v>5.333904</v>
       </c>
       <c r="W93" t="n">
         <v>12.65057</v>
@@ -12235,13 +12235,13 @@
         <v>5.470337</v>
       </c>
       <c r="Z93" t="n">
-        <v>12.24171</v>
+        <v>12.2416</v>
       </c>
       <c r="AA93" t="n">
-        <v>5.656796</v>
+        <v>5.65672</v>
       </c>
       <c r="AB93" t="n">
-        <v>4.785367</v>
+        <v>4.785293</v>
       </c>
       <c r="AC93" t="n">
         <v>11.96384</v>
@@ -12326,13 +12326,13 @@
         <v>105.0841</v>
       </c>
       <c r="N94" t="n">
-        <v>12.32945</v>
+        <v>12.3293</v>
       </c>
       <c r="O94" t="n">
-        <v>5.822725</v>
+        <v>5.822676</v>
       </c>
       <c r="P94" t="n">
-        <v>4.950691</v>
+        <v>4.950653</v>
       </c>
       <c r="Q94" t="n">
         <v>12.54437</v>
@@ -12344,13 +12344,13 @@
         <v>4.802837</v>
       </c>
       <c r="T94" t="n">
-        <v>12.19547</v>
+        <v>12.19515</v>
       </c>
       <c r="U94" t="n">
-        <v>6.086931</v>
+        <v>6.086926</v>
       </c>
       <c r="V94" t="n">
-        <v>5.256852</v>
+        <v>5.256886</v>
       </c>
       <c r="W94" t="n">
         <v>12.51679</v>
@@ -12362,13 +12362,13 @@
         <v>5.212187</v>
       </c>
       <c r="Z94" t="n">
-        <v>12.4552</v>
+        <v>12.45519</v>
       </c>
       <c r="AA94" t="n">
-        <v>5.60918</v>
+        <v>5.609096</v>
       </c>
       <c r="AB94" t="n">
-        <v>4.703256</v>
+        <v>4.703159</v>
       </c>
       <c r="AC94" t="n">
         <v>12.50658</v>
@@ -12453,13 +12453,13 @@
         <v>104.7014</v>
       </c>
       <c r="N95" t="n">
-        <v>12.15227</v>
+        <v>12.15219</v>
       </c>
       <c r="O95" t="n">
-        <v>5.767171</v>
+        <v>5.767161</v>
       </c>
       <c r="P95" t="n">
-        <v>4.917393</v>
+        <v>4.917389</v>
       </c>
       <c r="Q95" t="n">
         <v>12.09783</v>
@@ -12471,13 +12471,13 @@
         <v>4.755043</v>
       </c>
       <c r="T95" t="n">
-        <v>12.00916</v>
+        <v>12.00909</v>
       </c>
       <c r="U95" t="n">
-        <v>5.989853</v>
+        <v>5.989847</v>
       </c>
       <c r="V95" t="n">
-        <v>5.177115</v>
+        <v>5.177117</v>
       </c>
       <c r="W95" t="n">
         <v>12.11181</v>
@@ -12489,13 +12489,13 @@
         <v>5.083105</v>
       </c>
       <c r="Z95" t="n">
-        <v>12.2034</v>
+        <v>12.20341</v>
       </c>
       <c r="AA95" t="n">
-        <v>5.562669</v>
+        <v>5.562656</v>
       </c>
       <c r="AB95" t="n">
-        <v>4.693183</v>
+        <v>4.693165</v>
       </c>
       <c r="AC95" t="n">
         <v>11.9878</v>
@@ -12580,13 +12580,13 @@
         <v>105.5729</v>
       </c>
       <c r="N96" t="n">
-        <v>12.41073</v>
+        <v>12.41063</v>
       </c>
       <c r="O96" t="n">
-        <v>5.751135</v>
+        <v>5.751094</v>
       </c>
       <c r="P96" t="n">
-        <v>4.868905</v>
+        <v>4.86887</v>
       </c>
       <c r="Q96" t="n">
         <v>11.91158</v>
@@ -12601,10 +12601,10 @@
         <v>12.4469</v>
       </c>
       <c r="U96" t="n">
-        <v>6.041378</v>
+        <v>6.041369</v>
       </c>
       <c r="V96" t="n">
-        <v>5.177098</v>
+        <v>5.177092</v>
       </c>
       <c r="W96" t="n">
         <v>11.88414</v>
@@ -12616,13 +12616,13 @@
         <v>5.004419</v>
       </c>
       <c r="Z96" t="n">
-        <v>12.39911</v>
+        <v>12.39918</v>
       </c>
       <c r="AA96" t="n">
-        <v>5.523573</v>
+        <v>5.523506</v>
       </c>
       <c r="AB96" t="n">
-        <v>4.623853</v>
+        <v>4.623767</v>
       </c>
       <c r="AC96" t="n">
         <v>11.85314</v>
@@ -12707,13 +12707,13 @@
         <v>106.0058</v>
       </c>
       <c r="N97" t="n">
-        <v>12.07258</v>
+        <v>12.07254</v>
       </c>
       <c r="O97" t="n">
-        <v>5.677732</v>
+        <v>5.67772</v>
       </c>
       <c r="P97" t="n">
-        <v>4.828759</v>
+        <v>4.828751</v>
       </c>
       <c r="Q97" t="n">
         <v>11.33746</v>
@@ -12725,13 +12725,13 @@
         <v>4.764421</v>
       </c>
       <c r="T97" t="n">
-        <v>12.18659</v>
+        <v>12.18653</v>
       </c>
       <c r="U97" t="n">
-        <v>5.930902</v>
+        <v>5.930856</v>
       </c>
       <c r="V97" t="n">
-        <v>5.082742</v>
+        <v>5.0827</v>
       </c>
       <c r="W97" t="n">
         <v>11.34557</v>
@@ -12743,13 +12743,13 @@
         <v>4.906972</v>
       </c>
       <c r="Z97" t="n">
-        <v>12.01834</v>
+        <v>12.0184</v>
       </c>
       <c r="AA97" t="n">
-        <v>5.477099</v>
+        <v>5.477114</v>
       </c>
       <c r="AB97" t="n">
-        <v>4.62203</v>
+        <v>4.622033</v>
       </c>
       <c r="AC97" t="n">
         <v>11.50586</v>
@@ -12832,13 +12832,13 @@
         <v>105.2915</v>
       </c>
       <c r="N98" t="n">
-        <v>11.87499</v>
+        <v>11.87505</v>
       </c>
       <c r="O98" t="n">
-        <v>5.572408</v>
+        <v>5.572457</v>
       </c>
       <c r="P98" t="n">
-        <v>4.732601</v>
+        <v>4.732649</v>
       </c>
       <c r="Q98" t="n">
         <v>12.42441</v>
@@ -12850,13 +12850,13 @@
         <v>5.118233</v>
       </c>
       <c r="T98" t="n">
-        <v>11.94449</v>
+        <v>11.94439</v>
       </c>
       <c r="U98" t="n">
-        <v>5.863727</v>
+        <v>5.863756</v>
       </c>
       <c r="V98" t="n">
-        <v>5.036376</v>
+        <v>5.036431</v>
       </c>
       <c r="W98" t="n">
         <v>12.28362</v>
@@ -12868,13 +12868,13 @@
         <v>5.320414</v>
       </c>
       <c r="Z98" t="n">
-        <v>11.82899</v>
+        <v>11.82918</v>
       </c>
       <c r="AA98" t="n">
-        <v>5.354701</v>
+        <v>5.354764</v>
       </c>
       <c r="AB98" t="n">
-        <v>4.504343</v>
+        <v>4.50439</v>
       </c>
       <c r="AC98" t="n">
         <v>12.44402</v>
@@ -12957,13 +12957,13 @@
         <v>105.3743</v>
       </c>
       <c r="N99" t="n">
-        <v>11.99237</v>
+        <v>11.99258</v>
       </c>
       <c r="O99" t="n">
-        <v>5.590243</v>
+        <v>5.590301</v>
       </c>
       <c r="P99" t="n">
-        <v>4.73533</v>
+        <v>4.735366</v>
       </c>
       <c r="Q99" t="n">
         <v>12.35956</v>
@@ -12975,13 +12975,13 @@
         <v>5.076021</v>
       </c>
       <c r="T99" t="n">
-        <v>12.04645</v>
+        <v>12.04642</v>
       </c>
       <c r="U99" t="n">
-        <v>5.896203</v>
+        <v>5.896235</v>
       </c>
       <c r="V99" t="n">
-        <v>5.062405</v>
+        <v>5.062445</v>
       </c>
       <c r="W99" t="n">
         <v>12.25666</v>
@@ -12993,13 +12993,13 @@
         <v>5.319564</v>
       </c>
       <c r="Z99" t="n">
-        <v>11.95531</v>
+        <v>11.95558</v>
       </c>
       <c r="AA99" t="n">
-        <v>5.337461</v>
+        <v>5.337538</v>
       </c>
       <c r="AB99" t="n">
-        <v>4.468468</v>
+        <v>4.46852</v>
       </c>
       <c r="AC99" t="n">
         <v>12.3833</v>
@@ -13082,13 +13082,13 @@
         <v>105.5541</v>
       </c>
       <c r="N100" t="n">
-        <v>11.74665</v>
+        <v>11.74679</v>
       </c>
       <c r="O100" t="n">
-        <v>5.550056</v>
+        <v>5.550059</v>
       </c>
       <c r="P100" t="n">
-        <v>4.722561</v>
+        <v>4.722546</v>
       </c>
       <c r="Q100" t="n">
         <v>11.7173</v>
@@ -13100,13 +13100,13 @@
         <v>4.875341</v>
       </c>
       <c r="T100" t="n">
-        <v>11.81481</v>
+        <v>11.81465</v>
       </c>
       <c r="U100" t="n">
-        <v>5.830492</v>
+        <v>5.830532</v>
       </c>
       <c r="V100" t="n">
-        <v>5.020743</v>
+        <v>5.020814</v>
       </c>
       <c r="W100" t="n">
         <v>11.64298</v>
@@ -13118,13 +13118,13 @@
         <v>5.084083</v>
       </c>
       <c r="Z100" t="n">
-        <v>11.6881</v>
+        <v>11.68839</v>
       </c>
       <c r="AA100" t="n">
-        <v>5.31383</v>
+        <v>5.313802</v>
       </c>
       <c r="AB100" t="n">
-        <v>4.469069</v>
+        <v>4.468999</v>
       </c>
       <c r="AC100" t="n">
         <v>11.82454</v>
@@ -13207,13 +13207,13 @@
         <v>105.9408</v>
       </c>
       <c r="N101" t="n">
-        <v>11.48575</v>
+        <v>11.4859</v>
       </c>
       <c r="O101" t="n">
-        <v>5.543939</v>
+        <v>5.544023</v>
       </c>
       <c r="P101" t="n">
-        <v>4.751915</v>
+        <v>4.751992</v>
       </c>
       <c r="Q101" t="n">
         <v>11.09977</v>
@@ -13225,13 +13225,13 @@
         <v>4.729111</v>
       </c>
       <c r="T101" t="n">
-        <v>11.21925</v>
+        <v>11.21906</v>
       </c>
       <c r="U101" t="n">
-        <v>5.751791</v>
+        <v>5.751836</v>
       </c>
       <c r="V101" t="n">
-        <v>5.011288</v>
+        <v>5.01137</v>
       </c>
       <c r="W101" t="n">
         <v>10.70644</v>
@@ -13243,13 +13243,13 @@
         <v>4.929767</v>
       </c>
       <c r="Z101" t="n">
-        <v>11.67486</v>
+        <v>11.67508</v>
       </c>
       <c r="AA101" t="n">
-        <v>5.372509</v>
+        <v>5.372624</v>
       </c>
       <c r="AB101" t="n">
-        <v>4.544244</v>
+        <v>4.544342</v>
       </c>
       <c r="AC101" t="n">
         <v>11.33315</v>
@@ -13332,13 +13332,13 @@
         <v>106.4757</v>
       </c>
       <c r="N102" t="n">
-        <v>11.56919</v>
+        <v>11.56949</v>
       </c>
       <c r="O102" t="n">
-        <v>5.438893</v>
+        <v>5.43902</v>
       </c>
       <c r="P102" t="n">
-        <v>4.621398</v>
+        <v>4.621502</v>
       </c>
       <c r="Q102" t="n">
         <v>11.38779</v>
@@ -13350,13 +13350,13 @@
         <v>4.477547</v>
       </c>
       <c r="T102" t="n">
-        <v>11.41711</v>
+        <v>11.41679</v>
       </c>
       <c r="U102" t="n">
-        <v>5.672116</v>
+        <v>5.672162</v>
       </c>
       <c r="V102" t="n">
-        <v>4.895836</v>
+        <v>4.895929</v>
       </c>
       <c r="W102" t="n">
         <v>11.28298</v>
@@ -13368,13 +13368,13 @@
         <v>4.713222</v>
       </c>
       <c r="Z102" t="n">
-        <v>11.71834</v>
+        <v>11.71836</v>
       </c>
       <c r="AA102" t="n">
-        <v>5.262006</v>
+        <v>5.262199</v>
       </c>
       <c r="AB102" t="n">
-        <v>4.409968</v>
+        <v>4.410188</v>
       </c>
       <c r="AC102" t="n">
         <v>11.48886</v>
@@ -13460,10 +13460,10 @@
         <v>11.69548</v>
       </c>
       <c r="O103" t="n">
-        <v>5.482277</v>
+        <v>5.482378</v>
       </c>
       <c r="P103" t="n">
-        <v>4.655659</v>
+        <v>4.655778</v>
       </c>
       <c r="Q103" t="n">
         <v>12.0065</v>
@@ -13475,13 +13475,13 @@
         <v>4.529013</v>
       </c>
       <c r="T103" t="n">
-        <v>11.57542</v>
+        <v>11.57541</v>
       </c>
       <c r="U103" t="n">
-        <v>5.713164</v>
+        <v>5.713224</v>
       </c>
       <c r="V103" t="n">
-        <v>4.923347</v>
+        <v>4.923415</v>
       </c>
       <c r="W103" t="n">
         <v>11.99864</v>
@@ -13493,13 +13493,13 @@
         <v>4.816301</v>
       </c>
       <c r="Z103" t="n">
-        <v>11.78279</v>
+        <v>11.78272</v>
       </c>
       <c r="AA103" t="n">
-        <v>5.290506</v>
+        <v>5.29064</v>
       </c>
       <c r="AB103" t="n">
-        <v>4.436653</v>
+        <v>4.436819</v>
       </c>
       <c r="AC103" t="n">
         <v>12.07788</v>
@@ -13582,13 +13582,13 @@
         <v>106.4837</v>
       </c>
       <c r="N104" t="n">
-        <v>11.55313</v>
+        <v>11.55275</v>
       </c>
       <c r="O104" t="n">
-        <v>5.431032</v>
+        <v>5.430718</v>
       </c>
       <c r="P104" t="n">
-        <v>4.616035</v>
+        <v>4.615729</v>
       </c>
       <c r="Q104" t="n">
         <v>11.88292</v>
@@ -13600,13 +13600,13 @@
         <v>4.551461</v>
       </c>
       <c r="T104" t="n">
-        <v>11.43203</v>
+        <v>11.43311</v>
       </c>
       <c r="U104" t="n">
-        <v>5.663369</v>
+        <v>5.663116</v>
       </c>
       <c r="V104" t="n">
-        <v>4.883761</v>
+        <v>4.883319</v>
       </c>
       <c r="W104" t="n">
         <v>11.89373</v>
@@ -13618,13 +13618,13 @@
         <v>4.951618</v>
       </c>
       <c r="Z104" t="n">
-        <v>11.6446</v>
+        <v>11.64348</v>
       </c>
       <c r="AA104" t="n">
-        <v>5.232224</v>
+        <v>5.231861</v>
       </c>
       <c r="AB104" t="n">
-        <v>4.392761</v>
+        <v>4.392504</v>
       </c>
       <c r="AC104" t="n">
         <v>11.93213</v>
@@ -13707,13 +13707,13 @@
         <v>106.368</v>
       </c>
       <c r="N105" t="n">
-        <v>11.62686</v>
+        <v>11.62664</v>
       </c>
       <c r="O105" t="n">
-        <v>5.459953</v>
+        <v>5.459898</v>
       </c>
       <c r="P105" t="n">
-        <v>4.652509</v>
+        <v>4.652474</v>
       </c>
       <c r="Q105" t="n">
         <v>11.53901</v>
@@ -13725,13 +13725,13 @@
         <v>4.600882</v>
       </c>
       <c r="T105" t="n">
-        <v>11.47731</v>
+        <v>11.47723</v>
       </c>
       <c r="U105" t="n">
-        <v>5.650766</v>
+        <v>5.650765</v>
       </c>
       <c r="V105" t="n">
-        <v>4.878932</v>
+        <v>4.878941</v>
       </c>
       <c r="W105" t="n">
         <v>11.66015</v>
@@ -13743,13 +13743,13 @@
         <v>5.009295</v>
       </c>
       <c r="Z105" t="n">
-        <v>11.75223</v>
+        <v>11.75201</v>
       </c>
       <c r="AA105" t="n">
-        <v>5.297754</v>
+        <v>5.297654</v>
       </c>
       <c r="AB105" t="n">
-        <v>4.459527</v>
+        <v>4.459439</v>
       </c>
       <c r="AC105" t="n">
         <v>11.52841</v>
@@ -13832,13 +13832,13 @@
         <v>105.9428</v>
       </c>
       <c r="N106" t="n">
-        <v>11.76625</v>
+        <v>11.76607</v>
       </c>
       <c r="O106" t="n">
-        <v>5.434952</v>
+        <v>5.434904</v>
       </c>
       <c r="P106" t="n">
-        <v>4.599729</v>
+        <v>4.599695</v>
       </c>
       <c r="Q106" t="n">
         <v>12.07539</v>
@@ -13850,13 +13850,13 @@
         <v>4.435166</v>
       </c>
       <c r="T106" t="n">
-        <v>11.82378</v>
+        <v>11.82355</v>
       </c>
       <c r="U106" t="n">
-        <v>5.638792</v>
+        <v>5.638793</v>
       </c>
       <c r="V106" t="n">
-        <v>4.813171</v>
+        <v>4.813195</v>
       </c>
       <c r="W106" t="n">
         <v>12.17007</v>
@@ -13868,13 +13868,13 @@
         <v>4.765272</v>
       </c>
       <c r="Z106" t="n">
-        <v>11.73556</v>
+        <v>11.73561</v>
       </c>
       <c r="AA106" t="n">
-        <v>5.258072</v>
+        <v>5.257983</v>
       </c>
       <c r="AB106" t="n">
-        <v>4.416173</v>
+        <v>4.416063</v>
       </c>
       <c r="AC106" t="n">
         <v>11.91708</v>
@@ -13957,13 +13957,13 @@
         <v>106.3821</v>
       </c>
       <c r="N107" t="n">
-        <v>11.86217</v>
+        <v>11.8621</v>
       </c>
       <c r="O107" t="n">
         <v>5.45646</v>
       </c>
       <c r="P107" t="n">
-        <v>4.613084</v>
+        <v>4.613091</v>
       </c>
       <c r="Q107" t="n">
         <v>11.79862</v>
@@ -13975,13 +13975,13 @@
         <v>4.466769</v>
       </c>
       <c r="T107" t="n">
-        <v>11.85928</v>
+        <v>11.85918</v>
       </c>
       <c r="U107" t="n">
         <v>5.668838</v>
       </c>
       <c r="V107" t="n">
-        <v>4.838647</v>
+        <v>4.838662</v>
       </c>
       <c r="W107" t="n">
         <v>11.8096</v>
@@ -13993,13 +13993,13 @@
         <v>4.765438</v>
       </c>
       <c r="Z107" t="n">
-        <v>11.82096</v>
+        <v>11.82106</v>
       </c>
       <c r="AA107" t="n">
-        <v>5.289453</v>
+        <v>5.289452</v>
       </c>
       <c r="AB107" t="n">
-        <v>4.439577</v>
+        <v>4.439561</v>
       </c>
       <c r="AC107" t="n">
         <v>11.68912</v>
@@ -14082,13 +14082,13 @@
         <v>106.8648</v>
       </c>
       <c r="N108" t="n">
-        <v>11.8</v>
+        <v>11.79989</v>
       </c>
       <c r="O108" t="n">
-        <v>5.472478</v>
+        <v>5.472425</v>
       </c>
       <c r="P108" t="n">
-        <v>4.639585</v>
+        <v>4.63954</v>
       </c>
       <c r="Q108" t="n">
         <v>11.23235</v>
@@ -14103,10 +14103,10 @@
         <v>11.9739</v>
       </c>
       <c r="U108" t="n">
-        <v>5.693568</v>
+        <v>5.693561</v>
       </c>
       <c r="V108" t="n">
-        <v>4.858414</v>
+        <v>4.85841</v>
       </c>
       <c r="W108" t="n">
         <v>11.43297</v>
@@ -14118,13 +14118,13 @@
         <v>4.735904</v>
       </c>
       <c r="Z108" t="n">
-        <v>11.6511</v>
+        <v>11.65133</v>
       </c>
       <c r="AA108" t="n">
-        <v>5.295222</v>
+        <v>5.295132</v>
       </c>
       <c r="AB108" t="n">
-        <v>4.465654</v>
+        <v>4.465521</v>
       </c>
       <c r="AC108" t="n">
         <v>11.07891</v>
@@ -14207,13 +14207,13 @@
         <v>106.0438</v>
       </c>
       <c r="N109" t="n">
-        <v>12.12575</v>
+        <v>12.12569</v>
       </c>
       <c r="O109" t="n">
-        <v>5.553965</v>
+        <v>5.553946</v>
       </c>
       <c r="P109" t="n">
-        <v>4.684703</v>
+        <v>4.68469</v>
       </c>
       <c r="Q109" t="n">
         <v>11.50156</v>
@@ -14225,13 +14225,13 @@
         <v>4.589364</v>
       </c>
       <c r="T109" t="n">
-        <v>12.1224</v>
+        <v>12.12241</v>
       </c>
       <c r="U109" t="n">
-        <v>5.750485</v>
+        <v>5.750419</v>
       </c>
       <c r="V109" t="n">
-        <v>4.896892</v>
+        <v>4.896818</v>
       </c>
       <c r="W109" t="n">
         <v>11.24684</v>
@@ -14243,13 +14243,13 @@
         <v>4.707914</v>
       </c>
       <c r="Z109" t="n">
-        <v>12.12528</v>
+        <v>12.12523</v>
       </c>
       <c r="AA109" t="n">
-        <v>5.384247</v>
+        <v>5.384267</v>
       </c>
       <c r="AB109" t="n">
-        <v>4.502412</v>
+        <v>4.502431</v>
       </c>
       <c r="AC109" t="n">
         <v>11.78721</v>
@@ -14332,13 +14332,13 @@
         <v>106.5842</v>
       </c>
       <c r="N110" t="n">
-        <v>12.1402</v>
+        <v>12.14025</v>
       </c>
       <c r="O110" t="n">
-        <v>5.584742</v>
+        <v>5.584766</v>
       </c>
       <c r="P110" t="n">
-        <v>4.716417</v>
+        <v>4.71644</v>
       </c>
       <c r="Q110" t="n">
         <v>12.7226</v>
@@ -14350,13 +14350,13 @@
         <v>5.113296</v>
       </c>
       <c r="T110" t="n">
-        <v>12.26537</v>
+        <v>12.26528</v>
       </c>
       <c r="U110" t="n">
-        <v>5.817079</v>
+        <v>5.817106</v>
       </c>
       <c r="V110" t="n">
-        <v>4.949378</v>
+        <v>4.949431</v>
       </c>
       <c r="W110" t="n">
         <v>12.53901</v>
@@ -14368,13 +14368,13 @@
         <v>5.255214</v>
       </c>
       <c r="Z110" t="n">
-        <v>12.00638</v>
+        <v>12.00661</v>
       </c>
       <c r="AA110" t="n">
-        <v>5.380555</v>
+        <v>5.380578</v>
       </c>
       <c r="AB110" t="n">
-        <v>4.516877</v>
+        <v>4.516873</v>
       </c>
       <c r="AC110" t="n">
         <v>12.78572</v>
@@ -14457,13 +14457,13 @@
         <v>106.3931</v>
       </c>
       <c r="N111" t="n">
-        <v>12.00542</v>
+        <v>12.00566</v>
       </c>
       <c r="O111" t="n">
-        <v>5.506246</v>
+        <v>5.506319</v>
       </c>
       <c r="P111" t="n">
-        <v>4.649055</v>
+        <v>4.649107</v>
       </c>
       <c r="Q111" t="n">
         <v>12.31346</v>
@@ -14475,13 +14475,13 @@
         <v>4.986743</v>
       </c>
       <c r="T111" t="n">
-        <v>11.99975</v>
+        <v>11.99974</v>
       </c>
       <c r="U111" t="n">
-        <v>5.729477</v>
+        <v>5.729506</v>
       </c>
       <c r="V111" t="n">
-        <v>4.889196</v>
+        <v>4.88923</v>
       </c>
       <c r="W111" t="n">
         <v>12.14647</v>
@@ -14493,13 +14493,13 @@
         <v>5.150922</v>
       </c>
       <c r="Z111" t="n">
-        <v>12.02229</v>
+        <v>12.0226</v>
       </c>
       <c r="AA111" t="n">
-        <v>5.329243</v>
+        <v>5.329353</v>
       </c>
       <c r="AB111" t="n">
-        <v>4.455807</v>
+        <v>4.455894</v>
       </c>
       <c r="AC111" t="n">
         <v>12.41351</v>
@@ -14582,13 +14582,13 @@
         <v>107.2161</v>
       </c>
       <c r="N112" t="n">
-        <v>12.02162</v>
+        <v>12.02179</v>
       </c>
       <c r="O112" t="n">
-        <v>5.539527</v>
+        <v>5.539528</v>
       </c>
       <c r="P112" t="n">
-        <v>4.67888</v>
+        <v>4.67886</v>
       </c>
       <c r="Q112" t="n">
         <v>11.95357</v>
@@ -14600,13 +14600,13 @@
         <v>4.83027</v>
       </c>
       <c r="T112" t="n">
-        <v>11.67535</v>
+        <v>11.67512</v>
       </c>
       <c r="U112" t="n">
-        <v>5.737603</v>
+        <v>5.737638</v>
       </c>
       <c r="V112" t="n">
-        <v>4.931204</v>
+        <v>4.931278</v>
       </c>
       <c r="W112" t="n">
         <v>11.45663</v>
@@ -14618,13 +14618,13 @@
         <v>4.9587</v>
       </c>
       <c r="Z112" t="n">
-        <v>12.35672</v>
+        <v>12.35695</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.379766</v>
+        <v>5.37974</v>
       </c>
       <c r="AB112" t="n">
-        <v>4.470283</v>
+        <v>4.470224</v>
       </c>
       <c r="AC112" t="n">
         <v>12.5491</v>
@@ -14707,13 +14707,13 @@
         <v>107.315</v>
       </c>
       <c r="N113" t="n">
-        <v>11.84293</v>
+        <v>11.84314</v>
       </c>
       <c r="O113" t="n">
-        <v>5.45774</v>
+        <v>5.45784</v>
       </c>
       <c r="P113" t="n">
-        <v>4.608534</v>
+        <v>4.608621</v>
       </c>
       <c r="Q113" t="n">
         <v>11.39129</v>
@@ -14725,13 +14725,13 @@
         <v>4.569666</v>
       </c>
       <c r="T113" t="n">
-        <v>11.50852</v>
+        <v>11.50835</v>
       </c>
       <c r="U113" t="n">
-        <v>5.620633</v>
+        <v>5.620691</v>
       </c>
       <c r="V113" t="n">
-        <v>4.824774</v>
+        <v>4.824869</v>
       </c>
       <c r="W113" t="n">
         <v>10.83425</v>
@@ -14743,13 +14743,13 @@
         <v>4.712917</v>
       </c>
       <c r="Z113" t="n">
-        <v>12.06446</v>
+        <v>12.06509</v>
       </c>
       <c r="AA113" t="n">
-        <v>5.308557</v>
+        <v>5.308689</v>
       </c>
       <c r="AB113" t="n">
-        <v>4.424762</v>
+        <v>4.424823</v>
       </c>
       <c r="AC113" t="n">
         <v>11.65544</v>
@@ -14832,13 +14832,13 @@
         <v>107.3385</v>
       </c>
       <c r="N114" t="n">
-        <v>11.81357</v>
+        <v>11.81413</v>
       </c>
       <c r="O114" t="n">
-        <v>5.403704</v>
+        <v>5.40391</v>
       </c>
       <c r="P114" t="n">
-        <v>4.553765</v>
+        <v>4.553925</v>
       </c>
       <c r="Q114" t="n">
         <v>11.59232</v>
@@ -14850,13 +14850,13 @@
         <v>4.424302</v>
       </c>
       <c r="T114" t="n">
-        <v>11.62386</v>
+        <v>11.6234</v>
       </c>
       <c r="U114" t="n">
-        <v>5.598632</v>
+        <v>5.598692</v>
       </c>
       <c r="V114" t="n">
-        <v>4.780487</v>
+        <v>4.78061</v>
       </c>
       <c r="W114" t="n">
         <v>11.49551</v>
@@ -14868,13 +14868,13 @@
         <v>4.572971</v>
       </c>
       <c r="Z114" t="n">
-        <v>12.00804</v>
+        <v>12.0085</v>
       </c>
       <c r="AA114" t="n">
-        <v>5.260231</v>
+        <v>5.260556</v>
       </c>
       <c r="AB114" t="n">
-        <v>4.381825</v>
+        <v>4.382137</v>
       </c>
       <c r="AC114" t="n">
         <v>11.6373</v>
@@ -14957,13 +14957,13 @@
         <v>107.851</v>
       </c>
       <c r="N115" t="n">
-        <v>11.66354</v>
+        <v>11.66372</v>
       </c>
       <c r="O115" t="n">
-        <v>5.352886</v>
+        <v>5.353108</v>
       </c>
       <c r="P115" t="n">
-        <v>4.518044</v>
+        <v>4.518278</v>
       </c>
       <c r="Q115" t="n">
         <v>11.94938</v>
@@ -14975,13 +14975,13 @@
         <v>4.39631</v>
       </c>
       <c r="T115" t="n">
-        <v>11.3275</v>
+        <v>11.32742</v>
       </c>
       <c r="U115" t="n">
-        <v>5.489456</v>
+        <v>5.489613</v>
       </c>
       <c r="V115" t="n">
-        <v>4.703794</v>
+        <v>4.703981</v>
       </c>
       <c r="W115" t="n">
         <v>11.75443</v>
@@ -14993,13 +14993,13 @@
         <v>4.596892</v>
       </c>
       <c r="Z115" t="n">
-        <v>12.02311</v>
+        <v>12.02294</v>
       </c>
       <c r="AA115" t="n">
-        <v>5.2436</v>
+        <v>5.243877</v>
       </c>
       <c r="AB115" t="n">
-        <v>4.356259</v>
+        <v>4.356599</v>
       </c>
       <c r="AC115" t="n">
         <v>12.24912</v>
@@ -15082,13 +15082,13 @@
         <v>107.8667</v>
       </c>
       <c r="N116" t="n">
-        <v>11.90758</v>
+        <v>11.90667</v>
       </c>
       <c r="O116" t="n">
-        <v>5.420222</v>
+        <v>5.4197</v>
       </c>
       <c r="P116" t="n">
-        <v>4.5634</v>
+        <v>4.562927</v>
       </c>
       <c r="Q116" t="n">
         <v>12.44852</v>
@@ -15100,13 +15100,13 @@
         <v>4.522121</v>
       </c>
       <c r="T116" t="n">
-        <v>11.93051</v>
+        <v>11.93151</v>
       </c>
       <c r="U116" t="n">
-        <v>5.609783</v>
+        <v>5.609368</v>
       </c>
       <c r="V116" t="n">
-        <v>4.760473</v>
+        <v>4.759857</v>
       </c>
       <c r="W116" t="n">
         <v>12.66812</v>
@@ -15118,13 +15118,13 @@
         <v>4.842987</v>
       </c>
       <c r="Z116" t="n">
-        <v>11.84144</v>
+        <v>11.83913</v>
       </c>
       <c r="AA116" t="n">
-        <v>5.270718</v>
+        <v>5.270108</v>
       </c>
       <c r="AB116" t="n">
-        <v>4.417918</v>
+        <v>4.417546</v>
       </c>
       <c r="AC116" t="n">
         <v>12.2504</v>
@@ -15207,13 +15207,13 @@
         <v>108.623</v>
       </c>
       <c r="N117" t="n">
-        <v>12.04619</v>
+        <v>12.04589</v>
       </c>
       <c r="O117" t="n">
-        <v>5.385998</v>
+        <v>5.385898</v>
       </c>
       <c r="P117" t="n">
-        <v>4.514637</v>
+        <v>4.51456</v>
       </c>
       <c r="Q117" t="n">
         <v>12.1746</v>
@@ -15225,13 +15225,13 @@
         <v>4.497161</v>
       </c>
       <c r="T117" t="n">
-        <v>11.79576</v>
+        <v>11.79569</v>
       </c>
       <c r="U117" t="n">
-        <v>5.540295</v>
+        <v>5.540294</v>
       </c>
       <c r="V117" t="n">
-        <v>4.706907</v>
+        <v>4.706915</v>
       </c>
       <c r="W117" t="n">
         <v>12.30538</v>
@@ -15243,13 +15243,13 @@
         <v>4.859291</v>
       </c>
       <c r="Z117" t="n">
-        <v>12.26294</v>
+        <v>12.26252</v>
       </c>
       <c r="AA117" t="n">
-        <v>5.276388</v>
+        <v>5.276207</v>
       </c>
       <c r="AB117" t="n">
-        <v>4.369579</v>
+        <v>4.369427</v>
       </c>
       <c r="AC117" t="n">
         <v>12.17488</v>
@@ -15332,13 +15332,13 @@
         <v>108.7626</v>
       </c>
       <c r="N118" t="n">
-        <v>11.9238</v>
+        <v>11.92358</v>
       </c>
       <c r="O118" t="n">
-        <v>5.35389</v>
+        <v>5.353824</v>
       </c>
       <c r="P118" t="n">
-        <v>4.49455</v>
+        <v>4.494501</v>
       </c>
       <c r="Q118" t="n">
         <v>12.24284</v>
@@ -15350,13 +15350,13 @@
         <v>4.363384</v>
       </c>
       <c r="T118" t="n">
-        <v>11.79461</v>
+        <v>11.79453</v>
       </c>
       <c r="U118" t="n">
-        <v>5.496984</v>
+        <v>5.496992</v>
       </c>
       <c r="V118" t="n">
-        <v>4.659674</v>
+        <v>4.659681</v>
       </c>
       <c r="W118" t="n">
         <v>12.21228</v>
@@ -15368,13 +15368,13 @@
         <v>4.603832</v>
       </c>
       <c r="Z118" t="n">
-        <v>12.00606</v>
+        <v>12.00615</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.240809</v>
+        <v>5.240683</v>
       </c>
       <c r="AB118" t="n">
-        <v>4.365816</v>
+        <v>4.365658</v>
       </c>
       <c r="AC118" t="n">
         <v>12.19438</v>
@@ -15457,13 +15457,13 @@
         <v>107.2941</v>
       </c>
       <c r="N119" t="n">
-        <v>11.92735</v>
+        <v>11.92729</v>
       </c>
       <c r="O119" t="n">
-        <v>5.350317</v>
+        <v>5.350323</v>
       </c>
       <c r="P119" t="n">
-        <v>4.487326</v>
+        <v>4.487339</v>
       </c>
       <c r="Q119" t="n">
         <v>11.75799</v>
@@ -15475,13 +15475,13 @@
         <v>4.337338</v>
       </c>
       <c r="T119" t="n">
-        <v>11.67981</v>
+        <v>11.67969</v>
       </c>
       <c r="U119" t="n">
-        <v>5.482219</v>
+        <v>5.482223</v>
       </c>
       <c r="V119" t="n">
-        <v>4.656031</v>
+        <v>4.656053</v>
       </c>
       <c r="W119" t="n">
         <v>11.563</v>
@@ -15493,13 +15493,13 @@
         <v>4.579992</v>
       </c>
       <c r="Z119" t="n">
-        <v>12.14163</v>
+        <v>12.14197</v>
       </c>
       <c r="AA119" t="n">
-        <v>5.234873</v>
+        <v>5.234882</v>
       </c>
       <c r="AB119" t="n">
-        <v>4.341537</v>
+        <v>4.341501</v>
       </c>
       <c r="AC119" t="n">
         <v>11.91713</v>
@@ -15582,13 +15582,13 @@
         <v>108.2445</v>
       </c>
       <c r="N120" t="n">
-        <v>11.75143</v>
+        <v>11.75131</v>
       </c>
       <c r="O120" t="n">
-        <v>5.356673</v>
+        <v>5.356614</v>
       </c>
       <c r="P120" t="n">
-        <v>4.520319</v>
+        <v>4.520267</v>
       </c>
       <c r="Q120" t="n">
         <v>11.21072</v>
@@ -15600,13 +15600,13 @@
         <v>4.327351</v>
       </c>
       <c r="T120" t="n">
-        <v>11.57462</v>
+        <v>11.57464</v>
       </c>
       <c r="U120" t="n">
-        <v>5.56474</v>
+        <v>5.564734</v>
       </c>
       <c r="V120" t="n">
-        <v>4.769366</v>
+        <v>4.769361</v>
       </c>
       <c r="W120" t="n">
         <v>10.99338</v>
@@ -15618,13 +15618,13 @@
         <v>4.622923</v>
       </c>
       <c r="Z120" t="n">
-        <v>11.88581</v>
+        <v>11.88629</v>
       </c>
       <c r="AA120" t="n">
-        <v>5.165581</v>
+        <v>5.165479</v>
       </c>
       <c r="AB120" t="n">
-        <v>4.297991</v>
+        <v>4.297812</v>
       </c>
       <c r="AC120" t="n">
         <v>11.39698</v>
@@ -15707,13 +15707,13 @@
         <v>108.5689</v>
       </c>
       <c r="N121" t="n">
-        <v>11.56566</v>
+        <v>11.56558</v>
       </c>
       <c r="O121" t="n">
-        <v>5.284167</v>
+        <v>5.284146</v>
       </c>
       <c r="P121" t="n">
-        <v>4.462105</v>
+        <v>4.46209</v>
       </c>
       <c r="Q121" t="n">
         <v>10.79597</v>
@@ -15725,13 +15725,13 @@
         <v>4.367374</v>
       </c>
       <c r="T121" t="n">
-        <v>11.54985</v>
+        <v>11.54991</v>
       </c>
       <c r="U121" t="n">
-        <v>5.483894</v>
+        <v>5.483823</v>
       </c>
       <c r="V121" t="n">
-        <v>4.676739</v>
+        <v>4.676653</v>
       </c>
       <c r="W121" t="n">
         <v>10.69651</v>
@@ -15746,10 +15746,10 @@
         <v>11.56634</v>
       </c>
       <c r="AA121" t="n">
-        <v>5.126786</v>
+        <v>5.126805</v>
       </c>
       <c r="AB121" t="n">
-        <v>4.294494</v>
+        <v>4.294504</v>
       </c>
       <c r="AC121" t="n">
         <v>10.87867</v>
@@ -15832,13 +15832,13 @@
         <v>108.5915</v>
       </c>
       <c r="N122" t="n">
-        <v>11.91552</v>
+        <v>11.91557</v>
       </c>
       <c r="O122" t="n">
-        <v>5.342694</v>
+        <v>5.34271</v>
       </c>
       <c r="P122" t="n">
-        <v>4.481515</v>
+        <v>4.481528</v>
       </c>
       <c r="Q122" t="n">
         <v>12.30802</v>
@@ -15850,13 +15850,13 @@
         <v>4.852437</v>
       </c>
       <c r="T122" t="n">
-        <v>11.96803</v>
+        <v>11.96798</v>
       </c>
       <c r="U122" t="n">
-        <v>5.588005</v>
+        <v>5.588029</v>
       </c>
       <c r="V122" t="n">
-        <v>4.734669</v>
+        <v>4.734715</v>
       </c>
       <c r="W122" t="n">
         <v>12.20262</v>
@@ -15868,13 +15868,13 @@
         <v>5.023841</v>
       </c>
       <c r="Z122" t="n">
-        <v>11.82113</v>
+        <v>11.82148</v>
       </c>
       <c r="AA122" t="n">
-        <v>5.141621</v>
+        <v>5.14163</v>
       </c>
       <c r="AB122" t="n">
-        <v>4.280603</v>
+        <v>4.280568</v>
       </c>
       <c r="AC122" t="n">
         <v>12.30766</v>
@@ -15957,13 +15957,13 @@
         <v>108.4631</v>
       </c>
       <c r="N123" t="n">
-        <v>11.59522</v>
+        <v>11.59554</v>
       </c>
       <c r="O123" t="n">
-        <v>5.287471</v>
+        <v>5.287568</v>
       </c>
       <c r="P123" t="n">
-        <v>4.462759</v>
+        <v>4.462828</v>
       </c>
       <c r="Q123" t="n">
         <v>11.88236</v>
@@ -15975,13 +15975,13 @@
         <v>4.760452</v>
       </c>
       <c r="T123" t="n">
-        <v>11.50004</v>
+        <v>11.5001</v>
       </c>
       <c r="U123" t="n">
-        <v>5.457582</v>
+        <v>5.45761</v>
       </c>
       <c r="V123" t="n">
-        <v>4.653337</v>
+        <v>4.653364</v>
       </c>
       <c r="W123" t="n">
         <v>11.63683</v>
@@ -15993,13 +15993,13 @@
         <v>4.866152</v>
       </c>
       <c r="Z123" t="n">
-        <v>11.64275</v>
+        <v>11.64318</v>
       </c>
       <c r="AA123" t="n">
-        <v>5.147552</v>
+        <v>5.147704</v>
       </c>
       <c r="AB123" t="n">
-        <v>4.310551</v>
+        <v>4.31067</v>
       </c>
       <c r="AC123" t="n">
         <v>11.99097</v>
@@ -16082,13 +16082,13 @@
         <v>101.253</v>
       </c>
       <c r="N124" t="n">
-        <v>12.45779</v>
+        <v>12.45801</v>
       </c>
       <c r="O124" t="n">
-        <v>5.621352</v>
+        <v>5.62138</v>
       </c>
       <c r="P124" t="n">
-        <v>4.743083</v>
+        <v>4.743089</v>
       </c>
       <c r="Q124" t="n">
         <v>12.39188</v>
@@ -16100,13 +16100,13 @@
         <v>4.857566</v>
       </c>
       <c r="T124" t="n">
-        <v>12.70004</v>
+        <v>12.69982</v>
       </c>
       <c r="U124" t="n">
-        <v>5.778321</v>
+        <v>5.778359</v>
       </c>
       <c r="V124" t="n">
-        <v>4.869874</v>
+        <v>4.869951</v>
       </c>
       <c r="W124" t="n">
         <v>12.50737</v>
@@ -16118,13 +16118,13 @@
         <v>4.907494</v>
       </c>
       <c r="Z124" t="n">
-        <v>12.31694</v>
+        <v>12.31713</v>
       </c>
       <c r="AA124" t="n">
-        <v>5.481639</v>
+        <v>5.48166</v>
       </c>
       <c r="AB124" t="n">
-        <v>4.617775</v>
+        <v>4.617778</v>
       </c>
       <c r="AC124" t="n">
         <v>12.51921</v>
@@ -16207,13 +16207,13 @@
         <v>89.19996999999999</v>
       </c>
       <c r="N125" t="n">
-        <v>19.06382</v>
+        <v>19.06417</v>
       </c>
       <c r="O125" t="n">
-        <v>8.835649999999999</v>
+        <v>8.835794</v>
       </c>
       <c r="P125" t="n">
-        <v>7.618431</v>
+        <v>7.618554</v>
       </c>
       <c r="Q125" t="n">
         <v>18.81146</v>
@@ -16225,13 +16225,13 @@
         <v>7.550017</v>
       </c>
       <c r="T125" t="n">
-        <v>20.77952</v>
+        <v>20.77945</v>
       </c>
       <c r="U125" t="n">
-        <v>9.328054</v>
+        <v>9.328144</v>
       </c>
       <c r="V125" t="n">
-        <v>7.937052</v>
+        <v>7.937175</v>
       </c>
       <c r="W125" t="n">
         <v>20.46816</v>
@@ -16243,13 +16243,13 @@
         <v>7.77391</v>
       </c>
       <c r="Z125" t="n">
-        <v>17.72394</v>
+        <v>17.72511</v>
       </c>
       <c r="AA125" t="n">
-        <v>8.44148</v>
+        <v>8.441668999999999</v>
       </c>
       <c r="AB125" t="n">
-        <v>7.351202</v>
+        <v>7.351262</v>
       </c>
       <c r="AC125" t="n">
         <v>17.52824</v>
@@ -16332,13 +16332,13 @@
         <v>101.9147</v>
       </c>
       <c r="N126" t="n">
-        <v>18.87215</v>
+        <v>18.87304</v>
       </c>
       <c r="O126" t="n">
-        <v>8.675596000000001</v>
+        <v>8.675967</v>
       </c>
       <c r="P126" t="n">
-        <v>7.447712</v>
+        <v>7.448019</v>
       </c>
       <c r="Q126" t="n">
         <v>18.96356</v>
@@ -16350,13 +16350,13 @@
         <v>7.321247</v>
       </c>
       <c r="T126" t="n">
-        <v>19.37367</v>
+        <v>19.37294</v>
       </c>
       <c r="U126" t="n">
-        <v>9.093614000000001</v>
+        <v>9.093748</v>
       </c>
       <c r="V126" t="n">
-        <v>7.826709</v>
+        <v>7.826936</v>
       </c>
       <c r="W126" t="n">
         <v>19.39474</v>
@@ -16368,13 +16368,13 @@
         <v>7.629363</v>
       </c>
       <c r="Z126" t="n">
-        <v>18.43593</v>
+        <v>18.43687</v>
       </c>
       <c r="AA126" t="n">
-        <v>8.346463</v>
+        <v>8.347027000000001</v>
       </c>
       <c r="AB126" t="n">
-        <v>7.153129</v>
+        <v>7.15365</v>
       </c>
       <c r="AC126" t="n">
         <v>18.54432</v>
@@ -16457,13 +16457,13 @@
         <v>109.3692</v>
       </c>
       <c r="N127" t="n">
-        <v>17.80742</v>
+        <v>17.80791</v>
       </c>
       <c r="O127" t="n">
-        <v>8.320371</v>
+        <v>8.320907999999999</v>
       </c>
       <c r="P127" t="n">
-        <v>7.161556</v>
+        <v>7.16211</v>
       </c>
       <c r="Q127" t="n">
         <v>18.25297</v>
@@ -16475,13 +16475,13 @@
         <v>7.027205</v>
       </c>
       <c r="T127" t="n">
-        <v>18.36954</v>
+        <v>18.36937</v>
       </c>
       <c r="U127" t="n">
-        <v>8.643094</v>
+        <v>8.643465000000001</v>
       </c>
       <c r="V127" t="n">
-        <v>7.443121</v>
+        <v>7.443564</v>
       </c>
       <c r="W127" t="n">
         <v>18.8671</v>
@@ -16493,13 +16493,13 @@
         <v>7.332633</v>
       </c>
       <c r="Z127" t="n">
-        <v>17.27924</v>
+        <v>17.27869</v>
       </c>
       <c r="AA127" t="n">
-        <v>8.060703999999999</v>
+        <v>8.061375999999999</v>
       </c>
       <c r="AB127" t="n">
-        <v>6.94338</v>
+        <v>6.94421</v>
       </c>
       <c r="AC127" t="n">
         <v>17.67134</v>
@@ -16582,13 +16582,13 @@
         <v>110.3343</v>
       </c>
       <c r="N128" t="n">
-        <v>17.38655</v>
+        <v>17.38478</v>
       </c>
       <c r="O128" t="n">
-        <v>8.172338</v>
+        <v>8.171329</v>
       </c>
       <c r="P128" t="n">
-        <v>7.014019</v>
+        <v>7.013109</v>
       </c>
       <c r="Q128" t="n">
         <v>17.85471</v>
@@ -16600,13 +16600,13 @@
         <v>7.038098</v>
       </c>
       <c r="T128" t="n">
-        <v>17.98296</v>
+        <v>17.98432</v>
       </c>
       <c r="U128" t="n">
-        <v>8.575616999999999</v>
+        <v>8.574847</v>
       </c>
       <c r="V128" t="n">
-        <v>7.380091</v>
+        <v>7.379025</v>
       </c>
       <c r="W128" t="n">
         <v>18.61709</v>
@@ -16618,13 +16618,13 @@
         <v>7.541613</v>
       </c>
       <c r="Z128" t="n">
-        <v>16.87723</v>
+        <v>16.87355</v>
       </c>
       <c r="AA128" t="n">
-        <v>7.856531</v>
+        <v>7.855329</v>
       </c>
       <c r="AB128" t="n">
-        <v>6.733034</v>
+        <v>6.732179</v>
       </c>
       <c r="AC128" t="n">
         <v>17.17916</v>
@@ -16707,13 +16707,13 @@
         <v>111.8103</v>
       </c>
       <c r="N129" t="n">
-        <v>15.82797</v>
+        <v>15.82752</v>
       </c>
       <c r="O129" t="n">
-        <v>7.582203</v>
+        <v>7.581985</v>
       </c>
       <c r="P129" t="n">
-        <v>6.547167</v>
+        <v>6.546973</v>
       </c>
       <c r="Q129" t="n">
         <v>15.89489</v>
@@ -16725,13 +16725,13 @@
         <v>6.566938</v>
       </c>
       <c r="T129" t="n">
-        <v>16.09017</v>
+        <v>16.09015</v>
       </c>
       <c r="U129" t="n">
-        <v>7.87625</v>
+        <v>7.87622</v>
       </c>
       <c r="V129" t="n">
-        <v>6.839281</v>
+        <v>6.839251</v>
       </c>
       <c r="W129" t="n">
         <v>16.51148</v>
@@ -16743,13 +16743,13 @@
         <v>7.053473</v>
       </c>
       <c r="Z129" t="n">
-        <v>15.57902</v>
+        <v>15.57814</v>
       </c>
       <c r="AA129" t="n">
-        <v>7.336847</v>
+        <v>7.336477</v>
       </c>
       <c r="AB129" t="n">
-        <v>6.306962</v>
+        <v>6.306657</v>
       </c>
       <c r="AC129" t="n">
         <v>15.39769</v>
@@ -16832,13 +16832,13 @@
         <v>112.6097</v>
       </c>
       <c r="N130" t="n">
-        <v>15.06316</v>
+        <v>15.06286</v>
       </c>
       <c r="O130" t="n">
-        <v>7.368411</v>
+        <v>7.368283</v>
       </c>
       <c r="P130" t="n">
-        <v>6.387925</v>
+        <v>6.387814</v>
       </c>
       <c r="Q130" t="n">
         <v>15.28102</v>
@@ -16850,13 +16850,13 @@
         <v>6.25984</v>
       </c>
       <c r="T130" t="n">
-        <v>15.36583</v>
+        <v>15.36593</v>
       </c>
       <c r="U130" t="n">
-        <v>7.636943</v>
+        <v>7.636949</v>
       </c>
       <c r="V130" t="n">
-        <v>6.635713</v>
+        <v>6.635686</v>
       </c>
       <c r="W130" t="n">
         <v>15.6956</v>
@@ -16868,13 +16868,13 @@
         <v>6.612021</v>
       </c>
       <c r="Z130" t="n">
-        <v>14.9067</v>
+        <v>14.90679</v>
       </c>
       <c r="AA130" t="n">
-        <v>7.148586</v>
+        <v>7.14835</v>
       </c>
       <c r="AB130" t="n">
-        <v>6.171466</v>
+        <v>6.171182</v>
       </c>
       <c r="AC130" t="n">
         <v>14.97758</v>
@@ -16957,13 +16957,13 @@
         <v>113.0289</v>
       </c>
       <c r="N131" t="n">
-        <v>14.56701</v>
+        <v>14.56693</v>
       </c>
       <c r="O131" t="n">
-        <v>7.092071</v>
+        <v>7.092074</v>
       </c>
       <c r="P131" t="n">
-        <v>6.142778</v>
+        <v>6.142788</v>
       </c>
       <c r="Q131" t="n">
         <v>14.13814</v>
@@ -16975,13 +16975,13 @@
         <v>5.968853</v>
       </c>
       <c r="T131" t="n">
-        <v>14.58048</v>
+        <v>14.58037</v>
       </c>
       <c r="U131" t="n">
-        <v>7.29722</v>
+        <v>7.297224</v>
       </c>
       <c r="V131" t="n">
-        <v>6.359747</v>
+        <v>6.359769</v>
       </c>
       <c r="W131" t="n">
         <v>14.24633</v>
@@ -16993,13 +16993,13 @@
         <v>6.238656</v>
       </c>
       <c r="Z131" t="n">
-        <v>14.531</v>
+        <v>14.53161</v>
       </c>
       <c r="AA131" t="n">
-        <v>6.921166</v>
+        <v>6.921171</v>
       </c>
       <c r="AB131" t="n">
-        <v>5.965153</v>
+        <v>5.965075</v>
       </c>
       <c r="AC131" t="n">
         <v>13.99434</v>
@@ -17082,13 +17082,13 @@
         <v>111.0532</v>
       </c>
       <c r="N132" t="n">
-        <v>14.30266</v>
+        <v>14.3025</v>
       </c>
       <c r="O132" t="n">
-        <v>6.917325</v>
+        <v>6.917241</v>
       </c>
       <c r="P132" t="n">
-        <v>5.980269</v>
+        <v>5.980194</v>
       </c>
       <c r="Q132" t="n">
         <v>13.63471</v>
@@ -17103,10 +17103,10 @@
         <v>14.41899</v>
       </c>
       <c r="U132" t="n">
-        <v>7.046033</v>
+        <v>7.046021</v>
       </c>
       <c r="V132" t="n">
-        <v>6.096816</v>
+        <v>6.096808</v>
       </c>
       <c r="W132" t="n">
         <v>13.61802</v>
@@ -17118,13 +17118,13 @@
         <v>5.821084</v>
       </c>
       <c r="Z132" t="n">
-        <v>14.22446</v>
+        <v>14.22543</v>
       </c>
       <c r="AA132" t="n">
-        <v>6.820752</v>
+        <v>6.820611</v>
       </c>
       <c r="AB132" t="n">
-        <v>5.892066</v>
+        <v>5.891781</v>
       </c>
       <c r="AC132" t="n">
         <v>13.65545</v>
@@ -17207,13 +17207,13 @@
         <v>112.3142</v>
       </c>
       <c r="N133" t="n">
-        <v>14.67375</v>
+        <v>14.67365</v>
       </c>
       <c r="O133" t="n">
-        <v>6.862282</v>
+        <v>6.862243</v>
       </c>
       <c r="P133" t="n">
-        <v>5.872132</v>
+        <v>5.8721</v>
       </c>
       <c r="Q133" t="n">
         <v>13.87247</v>
@@ -17225,13 +17225,13 @@
         <v>5.736033</v>
       </c>
       <c r="T133" t="n">
-        <v>14.97783</v>
+        <v>14.97798</v>
       </c>
       <c r="U133" t="n">
-        <v>7.098497</v>
+        <v>7.098384</v>
       </c>
       <c r="V133" t="n">
-        <v>6.084398</v>
+        <v>6.084253</v>
       </c>
       <c r="W133" t="n">
         <v>13.93572</v>
@@ -17243,13 +17243,13 @@
         <v>5.858165</v>
       </c>
       <c r="Z133" t="n">
-        <v>14.42295</v>
+        <v>14.42292</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.675191</v>
+        <v>6.675212</v>
       </c>
       <c r="AB133" t="n">
-        <v>5.7046</v>
+        <v>5.704612</v>
       </c>
       <c r="AC133" t="n">
         <v>13.84375</v>
@@ -17332,13 +17332,13 @@
         <v>111.3951</v>
       </c>
       <c r="N134" t="n">
-        <v>14.48275</v>
+        <v>14.48278</v>
       </c>
       <c r="O134" t="n">
-        <v>6.836861</v>
+        <v>6.836862</v>
       </c>
       <c r="P134" t="n">
-        <v>5.871012</v>
+        <v>5.87101</v>
       </c>
       <c r="Q134" t="n">
         <v>15.00809</v>
@@ -17350,13 +17350,13 @@
         <v>6.310884</v>
       </c>
       <c r="T134" t="n">
-        <v>14.88665</v>
+        <v>14.88667</v>
       </c>
       <c r="U134" t="n">
-        <v>7.046029</v>
+        <v>7.046056</v>
       </c>
       <c r="V134" t="n">
-        <v>6.042971</v>
+        <v>6.043016</v>
       </c>
       <c r="W134" t="n">
         <v>15.14819</v>
@@ -17368,13 +17368,13 @@
         <v>6.387851</v>
       </c>
       <c r="Z134" t="n">
-        <v>14.11075</v>
+        <v>14.11123</v>
       </c>
       <c r="AA134" t="n">
-        <v>6.669865</v>
+        <v>6.669845</v>
       </c>
       <c r="AB134" t="n">
-        <v>5.737808</v>
+        <v>5.737722</v>
       </c>
       <c r="AC134" t="n">
         <v>14.79</v>
@@ -17457,13 +17457,13 @@
         <v>112.1091</v>
       </c>
       <c r="N135" t="n">
-        <v>14.28896</v>
+        <v>14.28934</v>
       </c>
       <c r="O135" t="n">
-        <v>6.767671</v>
+        <v>6.767801</v>
       </c>
       <c r="P135" t="n">
-        <v>5.81278</v>
+        <v>5.812879</v>
       </c>
       <c r="Q135" t="n">
         <v>14.59631</v>
@@ -17475,13 +17475,13 @@
         <v>6.133956</v>
       </c>
       <c r="T135" t="n">
-        <v>14.5485</v>
+        <v>14.5486</v>
       </c>
       <c r="U135" t="n">
-        <v>6.925194</v>
+        <v>6.925224</v>
       </c>
       <c r="V135" t="n">
-        <v>5.941439</v>
+        <v>5.941463</v>
       </c>
       <c r="W135" t="n">
         <v>14.71787</v>
@@ -17493,13 +17493,13 @@
         <v>6.185767</v>
       </c>
       <c r="Z135" t="n">
-        <v>14.0936</v>
+        <v>14.09409</v>
       </c>
       <c r="AA135" t="n">
-        <v>6.653712</v>
+        <v>6.653924</v>
       </c>
       <c r="AB135" t="n">
-        <v>5.718069</v>
+        <v>5.718248</v>
       </c>
       <c r="AC135" t="n">
         <v>14.50145</v>
@@ -17582,13 +17582,13 @@
         <v>118.4674</v>
       </c>
       <c r="N136" t="n">
-        <v>14.00032</v>
+        <v>14.00058</v>
       </c>
       <c r="O136" t="n">
-        <v>6.649727</v>
+        <v>6.649779</v>
       </c>
       <c r="P136" t="n">
-        <v>5.7085</v>
+        <v>5.708529</v>
       </c>
       <c r="Q136" t="n">
         <v>14.04716</v>
@@ -17600,13 +17600,13 @@
         <v>5.806845</v>
       </c>
       <c r="T136" t="n">
-        <v>13.94936</v>
+        <v>13.94913</v>
       </c>
       <c r="U136" t="n">
-        <v>6.865877</v>
+        <v>6.865911</v>
       </c>
       <c r="V136" t="n">
-        <v>5.939733</v>
+        <v>5.939807</v>
       </c>
       <c r="W136" t="n">
         <v>13.81622</v>
@@ -17618,13 +17618,13 @@
         <v>5.951622</v>
       </c>
       <c r="Z136" t="n">
-        <v>14.03588</v>
+        <v>14.03595</v>
       </c>
       <c r="AA136" t="n">
-        <v>6.468255</v>
+        <v>6.468321</v>
       </c>
       <c r="AB136" t="n">
-        <v>5.518272</v>
+        <v>5.518343</v>
       </c>
       <c r="AC136" t="n">
         <v>14.32792</v>
@@ -17707,13 +17707,13 @@
         <v>116.7378</v>
       </c>
       <c r="N137" t="n">
-        <v>14.38218</v>
+        <v>14.38251</v>
       </c>
       <c r="O137" t="n">
-        <v>6.735491</v>
+        <v>6.73564</v>
       </c>
       <c r="P137" t="n">
-        <v>5.754517</v>
+        <v>5.754645</v>
       </c>
       <c r="Q137" t="n">
         <v>14.01485</v>
@@ -17725,13 +17725,13 @@
         <v>5.725292</v>
       </c>
       <c r="T137" t="n">
-        <v>14.00181</v>
+        <v>14.00174</v>
       </c>
       <c r="U137" t="n">
-        <v>6.84402</v>
+        <v>6.844119</v>
       </c>
       <c r="V137" t="n">
-        <v>5.922952</v>
+        <v>5.923081</v>
       </c>
       <c r="W137" t="n">
         <v>13.54971</v>
@@ -17743,13 +17743,13 @@
         <v>5.789391</v>
       </c>
       <c r="Z137" t="n">
-        <v>14.65715</v>
+        <v>14.65834</v>
       </c>
       <c r="AA137" t="n">
-        <v>6.650622</v>
+        <v>6.650811</v>
       </c>
       <c r="AB137" t="n">
-        <v>5.62528</v>
+        <v>5.625331</v>
       </c>
       <c r="AC137" t="n">
         <v>14.33305</v>
@@ -17832,13 +17832,13 @@
         <v>116.9403</v>
       </c>
       <c r="N138" t="n">
-        <v>13.43618</v>
+        <v>13.43699</v>
       </c>
       <c r="O138" t="n">
-        <v>6.520613</v>
+        <v>6.521001</v>
       </c>
       <c r="P138" t="n">
-        <v>5.642068</v>
+        <v>5.642404</v>
       </c>
       <c r="Q138" t="n">
         <v>13.32108</v>
@@ -17850,13 +17850,13 @@
         <v>5.516996</v>
       </c>
       <c r="T138" t="n">
-        <v>13.28821</v>
+        <v>13.28741</v>
       </c>
       <c r="U138" t="n">
-        <v>6.671856</v>
+        <v>6.671978</v>
       </c>
       <c r="V138" t="n">
-        <v>5.820584</v>
+        <v>5.820804</v>
       </c>
       <c r="W138" t="n">
         <v>13.2268</v>
@@ -17868,13 +17868,13 @@
         <v>5.615334</v>
       </c>
       <c r="Z138" t="n">
-        <v>13.52814</v>
+        <v>13.52946</v>
       </c>
       <c r="AA138" t="n">
-        <v>6.407709</v>
+        <v>6.408312</v>
       </c>
       <c r="AB138" t="n">
-        <v>5.511389</v>
+        <v>5.511904</v>
       </c>
       <c r="AC138" t="n">
         <v>13.40814</v>
@@ -17957,13 +17957,13 @@
         <v>118.4732</v>
       </c>
       <c r="N139" t="n">
-        <v>12.81678</v>
+        <v>12.81729</v>
       </c>
       <c r="O139" t="n">
-        <v>6.344036</v>
+        <v>6.34454</v>
       </c>
       <c r="P139" t="n">
-        <v>5.520553</v>
+        <v>5.521066</v>
       </c>
       <c r="Q139" t="n">
         <v>13.15678</v>
@@ -17975,13 +17975,13 @@
         <v>5.387643</v>
       </c>
       <c r="T139" t="n">
-        <v>12.7582</v>
+        <v>12.75778</v>
       </c>
       <c r="U139" t="n">
-        <v>6.566628</v>
+        <v>6.566944</v>
       </c>
       <c r="V139" t="n">
-        <v>5.761899</v>
+        <v>5.762313</v>
       </c>
       <c r="W139" t="n">
         <v>13.20971</v>
@@ -17993,13 +17993,13 @@
         <v>5.64133</v>
       </c>
       <c r="Z139" t="n">
-        <v>12.89638</v>
+        <v>12.89574</v>
       </c>
       <c r="AA139" t="n">
-        <v>6.179462</v>
+        <v>6.180119</v>
       </c>
       <c r="AB139" t="n">
-        <v>5.338096</v>
+        <v>5.338911</v>
       </c>
       <c r="AC139" t="n">
         <v>13.14741</v>
@@ -18082,13 +18082,13 @@
         <v>116.8087</v>
       </c>
       <c r="N140" t="n">
-        <v>12.24138</v>
+        <v>12.23992</v>
       </c>
       <c r="O140" t="n">
-        <v>6.054563</v>
+        <v>6.053757</v>
       </c>
       <c r="P140" t="n">
-        <v>5.261954</v>
+        <v>5.261228</v>
       </c>
       <c r="Q140" t="n">
         <v>12.72045</v>
@@ -18100,13 +18100,13 @@
         <v>5.240061</v>
       </c>
       <c r="T140" t="n">
-        <v>12.25187</v>
+        <v>12.25318</v>
       </c>
       <c r="U140" t="n">
-        <v>6.240968</v>
+        <v>6.240475</v>
       </c>
       <c r="V140" t="n">
-        <v>5.454617</v>
+        <v>5.45388</v>
       </c>
       <c r="W140" t="n">
         <v>12.949</v>
@@ -18118,13 +18118,13 @@
         <v>5.568937</v>
       </c>
       <c r="Z140" t="n">
-        <v>12.26571</v>
+        <v>12.26247</v>
       </c>
       <c r="AA140" t="n">
-        <v>5.91012</v>
+        <v>5.909059</v>
       </c>
       <c r="AB140" t="n">
-        <v>5.108543</v>
+        <v>5.107786</v>
       </c>
       <c r="AC140" t="n">
         <v>12.56999</v>
@@ -18207,13 +18207,13 @@
         <v>117.2373</v>
       </c>
       <c r="N141" t="n">
-        <v>12.19402</v>
+        <v>12.19358</v>
       </c>
       <c r="O141" t="n">
-        <v>5.949429</v>
+        <v>5.949248</v>
       </c>
       <c r="P141" t="n">
-        <v>5.15209</v>
+        <v>5.151937</v>
       </c>
       <c r="Q141" t="n">
         <v>12.37708</v>
@@ -18225,13 +18225,13 @@
         <v>5.186128</v>
       </c>
       <c r="T141" t="n">
-        <v>12.35264</v>
+        <v>12.35274</v>
       </c>
       <c r="U141" t="n">
-        <v>6.103824</v>
+        <v>6.103793</v>
       </c>
       <c r="V141" t="n">
-        <v>5.29388</v>
+        <v>5.293831</v>
       </c>
       <c r="W141" t="n">
         <v>12.95111</v>
@@ -18243,13 +18243,13 @@
         <v>5.493387</v>
       </c>
       <c r="Z141" t="n">
-        <v>12.09378</v>
+        <v>12.09315</v>
       </c>
       <c r="AA141" t="n">
-        <v>5.836263</v>
+        <v>5.835961</v>
       </c>
       <c r="AB141" t="n">
-        <v>5.046381</v>
+        <v>5.046119</v>
       </c>
       <c r="AC141" t="n">
         <v>12.01583</v>
@@ -18332,13 +18332,13 @@
         <v>117.4205</v>
       </c>
       <c r="N142" t="n">
-        <v>11.64907</v>
+        <v>11.6488</v>
       </c>
       <c r="O142" t="n">
-        <v>5.739569</v>
+        <v>5.739493</v>
       </c>
       <c r="P142" t="n">
-        <v>4.98705</v>
+        <v>4.986994</v>
       </c>
       <c r="Q142" t="n">
         <v>11.91278</v>
@@ -18350,13 +18350,13 @@
         <v>4.845224</v>
       </c>
       <c r="T142" t="n">
-        <v>11.40169</v>
+        <v>11.40198</v>
       </c>
       <c r="U142" t="n">
-        <v>5.898646</v>
+        <v>5.898653</v>
       </c>
       <c r="V142" t="n">
-        <v>5.192235</v>
+        <v>5.19219</v>
       </c>
       <c r="W142" t="n">
         <v>11.87828</v>
@@ -18368,13 +18368,13 @@
         <v>5.144099</v>
       </c>
       <c r="Z142" t="n">
-        <v>11.7882</v>
+        <v>11.78828</v>
       </c>
       <c r="AA142" t="n">
-        <v>5.593811</v>
+        <v>5.593668</v>
       </c>
       <c r="AB142" t="n">
-        <v>4.813437</v>
+        <v>4.813262</v>
       </c>
       <c r="AC142" t="n">
         <v>11.82775</v>
@@ -18457,13 +18457,13 @@
         <v>118.7604</v>
       </c>
       <c r="N143" t="n">
-        <v>11.54732</v>
+        <v>11.54724</v>
       </c>
       <c r="O143" t="n">
-        <v>5.620179</v>
+        <v>5.620187</v>
       </c>
       <c r="P143" t="n">
-        <v>4.863326</v>
+        <v>4.863341</v>
       </c>
       <c r="Q143" t="n">
         <v>11.2918</v>
@@ -18475,13 +18475,13 @@
         <v>4.729308</v>
       </c>
       <c r="T143" t="n">
-        <v>11.43951</v>
+        <v>11.4395</v>
       </c>
       <c r="U143" t="n">
-        <v>5.828743</v>
+        <v>5.828746</v>
       </c>
       <c r="V143" t="n">
-        <v>5.097277</v>
+        <v>5.097284</v>
       </c>
       <c r="W143" t="n">
         <v>11.15418</v>
@@ -18493,13 +18493,13 @@
         <v>5.032488</v>
       </c>
       <c r="Z143" t="n">
-        <v>11.62538</v>
+        <v>11.6259</v>
       </c>
       <c r="AA143" t="n">
-        <v>5.45704</v>
+        <v>5.457052</v>
       </c>
       <c r="AB143" t="n">
-        <v>4.681435</v>
+        <v>4.681379</v>
       </c>
       <c r="AC143" t="n">
         <v>11.36062</v>
@@ -18582,13 +18582,13 @@
         <v>119.1373</v>
       </c>
       <c r="N144" t="n">
-        <v>11.62007</v>
+        <v>11.61996</v>
       </c>
       <c r="O144" t="n">
-        <v>5.482052</v>
+        <v>5.481999</v>
       </c>
       <c r="P144" t="n">
-        <v>4.695524</v>
+        <v>4.695477</v>
       </c>
       <c r="Q144" t="n">
         <v>11.12471</v>
@@ -18600,13 +18600,13 @@
         <v>4.486567</v>
       </c>
       <c r="T144" t="n">
-        <v>11.65465</v>
+        <v>11.65466</v>
       </c>
       <c r="U144" t="n">
-        <v>5.717407</v>
+        <v>5.717396</v>
       </c>
       <c r="V144" t="n">
-        <v>4.946724</v>
+        <v>4.946716</v>
       </c>
       <c r="W144" t="n">
         <v>10.97966</v>
@@ -18618,13 +18618,13 @@
         <v>4.74036</v>
       </c>
       <c r="Z144" t="n">
-        <v>11.56505</v>
+        <v>11.56587</v>
       </c>
       <c r="AA144" t="n">
-        <v>5.275093</v>
+        <v>5.275005</v>
       </c>
       <c r="AB144" t="n">
-        <v>4.478321</v>
+        <v>4.478118</v>
       </c>
       <c r="AC144" t="n">
         <v>11.22512</v>
@@ -18707,13 +18707,13 @@
         <v>118.0546</v>
       </c>
       <c r="N145" t="n">
-        <v>11.29479</v>
+        <v>11.29472</v>
       </c>
       <c r="O145" t="n">
-        <v>5.323546</v>
+        <v>5.323513</v>
       </c>
       <c r="P145" t="n">
-        <v>4.559251</v>
+        <v>4.559223</v>
       </c>
       <c r="Q145" t="n">
         <v>10.58304</v>
@@ -18725,13 +18725,13 @@
         <v>4.450465</v>
       </c>
       <c r="T145" t="n">
-        <v>11.18537</v>
+        <v>11.18549</v>
       </c>
       <c r="U145" t="n">
-        <v>5.542879</v>
+        <v>5.542778</v>
       </c>
       <c r="V145" t="n">
-        <v>4.808512</v>
+        <v>4.808387</v>
       </c>
       <c r="W145" t="n">
         <v>10.27345</v>
@@ -18743,13 +18743,13 @@
         <v>4.612691</v>
       </c>
       <c r="Z145" t="n">
-        <v>11.42649</v>
+        <v>11.42661</v>
       </c>
       <c r="AA145" t="n">
-        <v>5.14017</v>
+        <v>5.140192</v>
       </c>
       <c r="AB145" t="n">
-        <v>4.349092</v>
+        <v>4.349088</v>
       </c>
       <c r="AC145" t="n">
         <v>10.89385</v>
@@ -18832,13 +18832,13 @@
         <v>118.3807</v>
       </c>
       <c r="N146" t="n">
-        <v>11.24691</v>
+        <v>11.24693</v>
       </c>
       <c r="O146" t="n">
-        <v>5.331366</v>
+        <v>5.331363</v>
       </c>
       <c r="P146" t="n">
-        <v>4.57269</v>
+        <v>4.572684</v>
       </c>
       <c r="Q146" t="n">
         <v>11.66252</v>
@@ -18850,13 +18850,13 @@
         <v>4.956201</v>
       </c>
       <c r="T146" t="n">
-        <v>10.95383</v>
+        <v>10.95389</v>
       </c>
       <c r="U146" t="n">
-        <v>5.557877</v>
+        <v>5.557891</v>
       </c>
       <c r="V146" t="n">
-        <v>4.856419</v>
+        <v>4.856439</v>
       </c>
       <c r="W146" t="n">
         <v>11.10143</v>
@@ -18868,13 +18868,13 @@
         <v>5.160115</v>
       </c>
       <c r="Z146" t="n">
-        <v>11.50726</v>
+        <v>11.5077</v>
       </c>
       <c r="AA146" t="n">
-        <v>5.14465</v>
+        <v>5.144634</v>
       </c>
       <c r="AB146" t="n">
-        <v>4.339038</v>
+        <v>4.338963</v>
       </c>
       <c r="AC146" t="n">
         <v>12.06421</v>
@@ -18957,13 +18957,13 @@
         <v>118.6649</v>
       </c>
       <c r="N147" t="n">
-        <v>11.00818</v>
+        <v>11.00849</v>
       </c>
       <c r="O147" t="n">
-        <v>5.176763</v>
+        <v>5.176864</v>
       </c>
       <c r="P147" t="n">
-        <v>4.428012</v>
+        <v>4.428087</v>
       </c>
       <c r="Q147" t="n">
         <v>11.23603</v>
@@ -18975,13 +18975,13 @@
         <v>4.704038</v>
       </c>
       <c r="T147" t="n">
-        <v>11.05205</v>
+        <v>11.05218</v>
       </c>
       <c r="U147" t="n">
-        <v>5.42074</v>
+        <v>5.420755</v>
       </c>
       <c r="V147" t="n">
-        <v>4.68611</v>
+        <v>4.686116</v>
       </c>
       <c r="W147" t="n">
         <v>11.17123</v>
@@ -18993,13 +18993,13 @@
         <v>4.908281</v>
       </c>
       <c r="Z147" t="n">
-        <v>11.0365</v>
+        <v>11.03697</v>
       </c>
       <c r="AA147" t="n">
-        <v>4.985397</v>
+        <v>4.985569</v>
       </c>
       <c r="AB147" t="n">
-        <v>4.21879</v>
+        <v>4.218925</v>
       </c>
       <c r="AC147" t="n">
         <v>11.41073</v>
@@ -19082,13 +19082,13 @@
         <v>119.581</v>
       </c>
       <c r="N148" t="n">
-        <v>10.93484</v>
+        <v>10.93507</v>
       </c>
       <c r="O148" t="n">
-        <v>5.110837</v>
+        <v>5.110888</v>
       </c>
       <c r="P148" t="n">
-        <v>4.357757</v>
+        <v>4.357788</v>
       </c>
       <c r="Q148" t="n">
         <v>10.89083</v>
@@ -19100,13 +19100,13 @@
         <v>4.443201</v>
       </c>
       <c r="T148" t="n">
-        <v>10.86593</v>
+        <v>10.86577</v>
       </c>
       <c r="U148" t="n">
-        <v>5.356701</v>
+        <v>5.356726</v>
       </c>
       <c r="V148" t="n">
-        <v>4.632581</v>
+        <v>4.632635</v>
       </c>
       <c r="W148" t="n">
         <v>10.58062</v>
@@ -19118,13 +19118,13 @@
         <v>4.624046</v>
       </c>
       <c r="Z148" t="n">
-        <v>11.00524</v>
+        <v>11.00521</v>
       </c>
       <c r="AA148" t="n">
-        <v>4.906938</v>
+        <v>4.907008</v>
       </c>
       <c r="AB148" t="n">
-        <v>4.130611</v>
+        <v>4.130697</v>
       </c>
       <c r="AC148" t="n">
         <v>11.14712</v>
@@ -19207,13 +19207,13 @@
         <v>119.4986</v>
       </c>
       <c r="N149" t="n">
-        <v>10.76773</v>
+        <v>10.76806</v>
       </c>
       <c r="O149" t="n">
-        <v>5.013503</v>
+        <v>5.013628</v>
       </c>
       <c r="P149" t="n">
-        <v>4.270126</v>
+        <v>4.27023</v>
       </c>
       <c r="Q149" t="n">
         <v>10.41882</v>
@@ -19225,13 +19225,13 @@
         <v>4.229941</v>
       </c>
       <c r="T149" t="n">
-        <v>10.57332</v>
+        <v>10.57328</v>
       </c>
       <c r="U149" t="n">
-        <v>5.253889</v>
+        <v>5.25397</v>
       </c>
       <c r="V149" t="n">
-        <v>4.5516</v>
+        <v>4.551701</v>
       </c>
       <c r="W149" t="n">
         <v>10.04998</v>
@@ -19243,13 +19243,13 @@
         <v>4.426087</v>
       </c>
       <c r="Z149" t="n">
-        <v>10.89857</v>
+        <v>10.89974</v>
       </c>
       <c r="AA149" t="n">
-        <v>4.821218</v>
+        <v>4.82138</v>
       </c>
       <c r="AB149" t="n">
-        <v>4.049016</v>
+        <v>4.049041</v>
       </c>
       <c r="AC149" t="n">
         <v>10.66621</v>
@@ -19332,13 +19332,13 @@
         <v>119.0023</v>
       </c>
       <c r="N150" t="n">
-        <v>10.65754</v>
+        <v>10.65834</v>
       </c>
       <c r="O150" t="n">
-        <v>5.014163</v>
+        <v>5.014512</v>
       </c>
       <c r="P150" t="n">
-        <v>4.287838</v>
+        <v>4.288131</v>
       </c>
       <c r="Q150" t="n">
         <v>10.46115</v>
@@ -19350,13 +19350,13 @@
         <v>4.147208</v>
       </c>
       <c r="T150" t="n">
-        <v>10.64069</v>
+        <v>10.63998</v>
       </c>
       <c r="U150" t="n">
-        <v>5.287272</v>
+        <v>5.287363</v>
       </c>
       <c r="V150" t="n">
-        <v>4.588934</v>
+        <v>4.589109</v>
       </c>
       <c r="W150" t="n">
         <v>10.5874</v>
@@ -19368,13 +19368,13 @@
         <v>4.404683</v>
       </c>
       <c r="Z150" t="n">
-        <v>10.73162</v>
+        <v>10.73257</v>
       </c>
       <c r="AA150" t="n">
-        <v>4.790524</v>
+        <v>4.791084</v>
       </c>
       <c r="AB150" t="n">
-        <v>4.032836</v>
+        <v>4.033347</v>
       </c>
       <c r="AC150" t="n">
         <v>10.51917</v>
@@ -19457,13 +19457,13 @@
         <v>118.2049</v>
       </c>
       <c r="N151" t="n">
-        <v>10.7806</v>
+        <v>10.78107</v>
       </c>
       <c r="O151" t="n">
-        <v>4.989377</v>
+        <v>4.989805</v>
       </c>
       <c r="P151" t="n">
-        <v>4.242235</v>
+        <v>4.242668</v>
       </c>
       <c r="Q151" t="n">
         <v>11.22034</v>
@@ -19475,13 +19475,13 @@
         <v>4.095305</v>
       </c>
       <c r="T151" t="n">
-        <v>10.732</v>
+        <v>10.73159</v>
       </c>
       <c r="U151" t="n">
-        <v>5.264891</v>
+        <v>5.265157</v>
       </c>
       <c r="V151" t="n">
-        <v>4.551469</v>
+        <v>4.551824</v>
       </c>
       <c r="W151" t="n">
         <v>11.28544</v>
@@ -19493,13 +19493,13 @@
         <v>4.422161</v>
       </c>
       <c r="Z151" t="n">
-        <v>10.80054</v>
+        <v>10.7998</v>
       </c>
       <c r="AA151" t="n">
-        <v>4.770295</v>
+        <v>4.770855</v>
       </c>
       <c r="AB151" t="n">
-        <v>3.998523</v>
+        <v>3.999237</v>
       </c>
       <c r="AC151" t="n">
         <v>11.10729</v>
@@ -19582,13 +19582,13 @@
         <v>117.8027</v>
       </c>
       <c r="N152" t="n">
-        <v>10.45689</v>
+        <v>10.4557</v>
       </c>
       <c r="O152" t="n">
-        <v>4.885335</v>
+        <v>4.884585</v>
       </c>
       <c r="P152" t="n">
-        <v>4.170087</v>
+        <v>4.169391</v>
       </c>
       <c r="Q152" t="n">
         <v>10.96771</v>
@@ -19600,13 +19600,13 @@
         <v>4.160732</v>
       </c>
       <c r="T152" t="n">
-        <v>10.45837</v>
+        <v>10.4589</v>
       </c>
       <c r="U152" t="n">
-        <v>5.111623</v>
+        <v>5.11122</v>
       </c>
       <c r="V152" t="n">
-        <v>4.41615</v>
+        <v>4.415623</v>
       </c>
       <c r="W152" t="n">
         <v>11.1761</v>
@@ -19618,13 +19618,13 @@
         <v>4.51333</v>
       </c>
       <c r="Z152" t="n">
-        <v>10.45337</v>
+        <v>10.45104</v>
       </c>
       <c r="AA152" t="n">
-        <v>4.705455</v>
+        <v>4.704422</v>
       </c>
       <c r="AB152" t="n">
-        <v>3.975617</v>
+        <v>3.974773</v>
       </c>
       <c r="AC152" t="n">
         <v>10.82016</v>
@@ -19707,13 +19707,13 @@
         <v>118.4778</v>
       </c>
       <c r="N153" t="n">
-        <v>10.8569</v>
+        <v>10.85644</v>
       </c>
       <c r="O153" t="n">
-        <v>4.93518</v>
+        <v>4.935015</v>
       </c>
       <c r="P153" t="n">
-        <v>4.173706</v>
+        <v>4.173572</v>
       </c>
       <c r="Q153" t="n">
         <v>10.89551</v>
@@ -19725,13 +19725,13 @@
         <v>4.209007</v>
       </c>
       <c r="T153" t="n">
-        <v>10.73276</v>
+        <v>10.7329</v>
       </c>
       <c r="U153" t="n">
-        <v>5.166047</v>
+        <v>5.166018</v>
       </c>
       <c r="V153" t="n">
-        <v>4.440206</v>
+        <v>4.440155</v>
       </c>
       <c r="W153" t="n">
         <v>11.19326</v>
@@ -19743,13 +19743,13 @@
         <v>4.648558</v>
       </c>
       <c r="Z153" t="n">
-        <v>10.98937</v>
+        <v>10.98863</v>
       </c>
       <c r="AA153" t="n">
-        <v>4.731562</v>
+        <v>4.731287</v>
       </c>
       <c r="AB153" t="n">
-        <v>3.938155</v>
+        <v>3.937941</v>
       </c>
       <c r="AC153" t="n">
         <v>10.8002</v>
@@ -19832,13 +19832,13 @@
         <v>118.4368</v>
       </c>
       <c r="N154" t="n">
-        <v>11.11923</v>
+        <v>11.11896</v>
       </c>
       <c r="O154" t="n">
-        <v>4.931106</v>
+        <v>4.931047</v>
       </c>
       <c r="P154" t="n">
-        <v>4.13153</v>
+        <v>4.131493</v>
       </c>
       <c r="Q154" t="n">
         <v>11.40305</v>
@@ -19850,13 +19850,13 @@
         <v>3.995971</v>
       </c>
       <c r="T154" t="n">
-        <v>11.08823</v>
+        <v>11.08848</v>
       </c>
       <c r="U154" t="n">
-        <v>5.170123</v>
+        <v>5.170128</v>
       </c>
       <c r="V154" t="n">
-        <v>4.394846</v>
+        <v>4.3948</v>
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="n">
@@ -19864,13 +19864,13 @@
       </c>
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="n">
-        <v>11.11301</v>
+        <v>11.11311</v>
       </c>
       <c r="AA154" t="n">
-        <v>4.727715</v>
+        <v>4.727605</v>
       </c>
       <c r="AB154" t="n">
-        <v>3.913749</v>
+        <v>3.91361</v>
       </c>
       <c r="AC154" t="n">
         <v>11.21351</v>
@@ -19953,13 +19953,13 @@
         <v>118.388</v>
       </c>
       <c r="N155" t="n">
-        <v>11.0574</v>
+        <v>11.05733</v>
       </c>
       <c r="O155" t="n">
-        <v>4.948201</v>
+        <v>4.948213</v>
       </c>
       <c r="P155" t="n">
-        <v>4.1581</v>
+        <v>4.158118</v>
       </c>
       <c r="Q155" t="n">
         <v>10.91284</v>
@@ -19971,13 +19971,13 @@
         <v>4.0201</v>
       </c>
       <c r="T155" t="n">
-        <v>11.38544</v>
+        <v>11.38552</v>
       </c>
       <c r="U155" t="n">
-        <v>5.224721</v>
+        <v>5.22473</v>
       </c>
       <c r="V155" t="n">
-        <v>4.419575</v>
+        <v>4.419579</v>
       </c>
       <c r="W155" t="n">
         <v>11.2686</v>
@@ -19989,13 +19989,13 @@
         <v>4.342824</v>
       </c>
       <c r="Z155" t="n">
-        <v>10.80117</v>
+        <v>10.80159</v>
       </c>
       <c r="AA155" t="n">
-        <v>4.71317</v>
+        <v>4.713185</v>
       </c>
       <c r="AB155" t="n">
-        <v>3.93314</v>
+        <v>3.933103</v>
       </c>
       <c r="AC155" t="n">
         <v>10.54048</v>
@@ -20078,13 +20078,13 @@
         <v>117.615</v>
       </c>
       <c r="N156" t="n">
-        <v>10.65122</v>
+        <v>10.65113</v>
       </c>
       <c r="O156" t="n">
-        <v>4.915301</v>
+        <v>4.915254</v>
       </c>
       <c r="P156" t="n">
-        <v>4.170835</v>
+        <v>4.170794</v>
       </c>
       <c r="Q156" t="n">
         <v>10.16289</v>
@@ -20096,13 +20096,13 @@
         <v>4.024379</v>
       </c>
       <c r="T156" t="n">
-        <v>10.45682</v>
+        <v>10.45685</v>
       </c>
       <c r="U156" t="n">
-        <v>5.165685</v>
+        <v>5.16568</v>
       </c>
       <c r="V156" t="n">
-        <v>4.468966</v>
+        <v>4.468964</v>
       </c>
       <c r="W156" t="n">
         <v>9.867181</v>
@@ -20114,13 +20114,13 @@
         <v>4.303839</v>
       </c>
       <c r="Z156" t="n">
-        <v>10.79001</v>
+        <v>10.79079</v>
       </c>
       <c r="AA156" t="n">
-        <v>4.722749</v>
+        <v>4.722668</v>
       </c>
       <c r="AB156" t="n">
-        <v>3.943811</v>
+        <v>3.943623</v>
       </c>
       <c r="AC156" t="n">
         <v>10.4014</v>
@@ -20203,13 +20203,13 @@
         <v>116.9905</v>
       </c>
       <c r="N157" t="n">
-        <v>10.77141</v>
+        <v>10.77134</v>
       </c>
       <c r="O157" t="n">
-        <v>4.91079</v>
+        <v>4.910757</v>
       </c>
       <c r="P157" t="n">
-        <v>4.152425</v>
+        <v>4.152396</v>
       </c>
       <c r="Q157" t="n">
         <v>10.14805</v>
@@ -20221,13 +20221,13 @@
         <v>4.07588</v>
       </c>
       <c r="T157" t="n">
-        <v>10.94532</v>
+        <v>10.94552</v>
       </c>
       <c r="U157" t="n">
-        <v>5.176833</v>
+        <v>5.176734</v>
       </c>
       <c r="V157" t="n">
-        <v>4.421351</v>
+        <v>4.421219</v>
       </c>
       <c r="W157" t="n">
         <v>10.22567</v>
@@ -20239,13 +20239,13 @@
         <v>4.275556</v>
       </c>
       <c r="Z157" t="n">
-        <v>10.60219</v>
+        <v>10.60226</v>
       </c>
       <c r="AA157" t="n">
-        <v>4.693572</v>
+        <v>4.693594</v>
       </c>
       <c r="AB157" t="n">
-        <v>3.936011</v>
+        <v>3.936012</v>
       </c>
       <c r="AC157" t="n">
         <v>10.10796</v>
@@ -20328,13 +20328,13 @@
         <v>119.0068</v>
       </c>
       <c r="N158" t="n">
-        <v>10.70003</v>
+        <v>10.70005</v>
       </c>
       <c r="O158" t="n">
-        <v>4.865182</v>
+        <v>4.86517</v>
       </c>
       <c r="P158" t="n">
-        <v>4.097642</v>
+        <v>4.097626</v>
       </c>
       <c r="Q158" t="n">
         <v>11.13127</v>
@@ -20346,13 +20346,13 @@
         <v>4.458645</v>
       </c>
       <c r="T158" t="n">
-        <v>10.61347</v>
+        <v>10.61354</v>
       </c>
       <c r="U158" t="n">
-        <v>5.121235</v>
+        <v>5.12124</v>
       </c>
       <c r="V158" t="n">
-        <v>4.385305</v>
+        <v>4.385315</v>
       </c>
       <c r="W158" t="n">
         <v>10.82842</v>
@@ -20364,13 +20364,13 @@
         <v>4.671857</v>
       </c>
       <c r="Z158" t="n">
-        <v>10.764</v>
+        <v>10.76444</v>
       </c>
       <c r="AA158" t="n">
-        <v>4.644791</v>
+        <v>4.644764</v>
       </c>
       <c r="AB158" t="n">
-        <v>3.85119</v>
+        <v>3.851105</v>
       </c>
       <c r="AC158" t="n">
         <v>11.35245</v>
@@ -20453,13 +20453,13 @@
         <v>118.2512</v>
       </c>
       <c r="N159" t="n">
-        <v>10.63579</v>
+        <v>10.63609</v>
       </c>
       <c r="O159" t="n">
-        <v>4.857647</v>
+        <v>4.857752</v>
       </c>
       <c r="P159" t="n">
-        <v>4.097991</v>
+        <v>4.098072</v>
       </c>
       <c r="Q159" t="n">
         <v>10.82226</v>
@@ -20471,13 +20471,13 @@
         <v>4.378431</v>
       </c>
       <c r="T159" t="n">
-        <v>10.55052</v>
+        <v>10.5507</v>
       </c>
       <c r="U159" t="n">
-        <v>5.103644</v>
+        <v>5.103661</v>
       </c>
       <c r="V159" t="n">
-        <v>4.374558</v>
+        <v>4.374561</v>
       </c>
       <c r="W159" t="n">
         <v>10.54208</v>
@@ -20489,13 +20489,13 @@
         <v>4.581098</v>
       </c>
       <c r="Z159" t="n">
-        <v>10.74182</v>
+        <v>10.74229</v>
       </c>
       <c r="AA159" t="n">
-        <v>4.6639</v>
+        <v>4.664077</v>
       </c>
       <c r="AB159" t="n">
-        <v>3.87281</v>
+        <v>3.872953</v>
       </c>
       <c r="AC159" t="n">
         <v>11.07579</v>
@@ -20578,13 +20578,13 @@
         <v>117.6133</v>
       </c>
       <c r="N160" t="n">
-        <v>10.41468</v>
+        <v>10.41494</v>
       </c>
       <c r="O160" t="n">
-        <v>4.816239</v>
+        <v>4.816296</v>
       </c>
       <c r="P160" t="n">
-        <v>4.077258</v>
+        <v>4.077292</v>
       </c>
       <c r="Q160" t="n">
         <v>10.40741</v>
@@ -20596,13 +20596,13 @@
         <v>4.182895</v>
       </c>
       <c r="T160" t="n">
-        <v>10.37738</v>
+        <v>10.37719</v>
       </c>
       <c r="U160" t="n">
-        <v>5.009602</v>
+        <v>5.009619</v>
       </c>
       <c r="V160" t="n">
-        <v>4.29413</v>
+        <v>4.294181</v>
       </c>
       <c r="W160" t="n">
         <v>10.16032</v>
@@ -20614,13 +20614,13 @@
         <v>4.31392</v>
       </c>
       <c r="Z160" t="n">
-        <v>10.40702</v>
+        <v>10.40697</v>
       </c>
       <c r="AA160" t="n">
-        <v>4.661764</v>
+        <v>4.661853</v>
       </c>
       <c r="AB160" t="n">
-        <v>3.909575</v>
+        <v>3.909682</v>
       </c>
       <c r="AC160" t="n">
         <v>10.57194</v>
@@ -20703,13 +20703,13 @@
         <v>117.8924</v>
       </c>
       <c r="N161" t="n">
-        <v>10.17582</v>
+        <v>10.1762</v>
       </c>
       <c r="O161" t="n">
-        <v>4.820814</v>
+        <v>4.820961</v>
       </c>
       <c r="P161" t="n">
-        <v>4.115386</v>
+        <v>4.115508</v>
       </c>
       <c r="Q161" t="n">
         <v>9.815231000000001</v>
@@ -20721,13 +20721,13 @@
         <v>4.100352</v>
       </c>
       <c r="T161" t="n">
-        <v>10.0815</v>
+        <v>10.08147</v>
       </c>
       <c r="U161" t="n">
-        <v>5.069814</v>
+        <v>5.069897</v>
       </c>
       <c r="V161" t="n">
-        <v>4.400647</v>
+        <v>4.400752</v>
       </c>
       <c r="W161" t="n">
         <v>9.552659</v>
@@ -20739,13 +20739,13 @@
         <v>4.284109</v>
       </c>
       <c r="Z161" t="n">
-        <v>10.27133</v>
+        <v>10.27285</v>
       </c>
       <c r="AA161" t="n">
-        <v>4.619392</v>
+        <v>4.619591</v>
       </c>
       <c r="AB161" t="n">
-        <v>3.882502</v>
+        <v>3.882521</v>
       </c>
       <c r="AC161" t="n">
         <v>10.07975</v>
@@ -20828,13 +20828,13 @@
         <v>118.3222</v>
       </c>
       <c r="N162" t="n">
-        <v>10.33954</v>
+        <v>10.34037</v>
       </c>
       <c r="O162" t="n">
-        <v>4.848505</v>
+        <v>4.848884</v>
       </c>
       <c r="P162" t="n">
-        <v>4.131837</v>
+        <v>4.132161</v>
       </c>
       <c r="Q162" t="n">
         <v>10.1701</v>
@@ -20846,13 +20846,13 @@
         <v>4.000491</v>
       </c>
       <c r="T162" t="n">
-        <v>10.1895</v>
+        <v>10.18869</v>
       </c>
       <c r="U162" t="n">
-        <v>5.118002</v>
+        <v>5.11812</v>
       </c>
       <c r="V162" t="n">
-        <v>4.448345</v>
+        <v>4.448561</v>
       </c>
       <c r="W162" t="n">
         <v>10.09016</v>
@@ -20864,13 +20864,13 @@
         <v>4.255957</v>
       </c>
       <c r="Z162" t="n">
-        <v>10.41262</v>
+        <v>10.41372</v>
       </c>
       <c r="AA162" t="n">
-        <v>4.626775</v>
+        <v>4.627368</v>
       </c>
       <c r="AB162" t="n">
-        <v>3.877292</v>
+        <v>3.877816</v>
       </c>
       <c r="AC162" t="n">
         <v>10.21901</v>
@@ -20953,13 +20953,13 @@
         <v>118.2481</v>
       </c>
       <c r="N163" t="n">
-        <v>10.36873</v>
+        <v>10.36929</v>
       </c>
       <c r="O163" t="n">
-        <v>4.780761</v>
+        <v>4.781232</v>
       </c>
       <c r="P163" t="n">
-        <v>4.051714</v>
+        <v>4.052185</v>
       </c>
       <c r="Q163" t="n">
         <v>10.84358</v>
@@ -20971,13 +20971,13 @@
         <v>3.909965</v>
       </c>
       <c r="T163" t="n">
-        <v>10.04292</v>
+        <v>10.04237</v>
       </c>
       <c r="U163" t="n">
-        <v>4.940898</v>
+        <v>4.941195</v>
       </c>
       <c r="V163" t="n">
-        <v>4.264787</v>
+        <v>4.265198</v>
       </c>
       <c r="W163" t="n">
         <v>10.65925</v>
@@ -20989,13 +20989,13 @@
         <v>4.171154</v>
       </c>
       <c r="Z163" t="n">
-        <v>10.61394</v>
+        <v>10.61298</v>
       </c>
       <c r="AA163" t="n">
-        <v>4.639765</v>
+        <v>4.640379</v>
       </c>
       <c r="AB163" t="n">
-        <v>3.870835</v>
+        <v>3.871627</v>
       </c>
       <c r="AC163" t="n">
         <v>10.96012</v>
@@ -21078,13 +21078,13 @@
         <v>118.3332</v>
       </c>
       <c r="N164" t="n">
-        <v>10.63522</v>
+        <v>10.63356</v>
       </c>
       <c r="O164" t="n">
-        <v>4.813912</v>
+        <v>4.812951</v>
       </c>
       <c r="P164" t="n">
-        <v>4.057781</v>
+        <v>4.056907</v>
       </c>
       <c r="Q164" t="n">
         <v>11.07465</v>
@@ -21096,13 +21096,13 @@
         <v>4.059786</v>
       </c>
       <c r="T164" t="n">
-        <v>10.30426</v>
+        <v>10.30515</v>
       </c>
       <c r="U164" t="n">
-        <v>4.992754</v>
+        <v>4.992276</v>
       </c>
       <c r="V164" t="n">
-        <v>4.293836</v>
+        <v>4.293168</v>
       </c>
       <c r="W164" t="n">
         <v>10.93188</v>
@@ -21114,13 +21114,13 @@
         <v>4.425987</v>
       </c>
       <c r="Z164" t="n">
-        <v>10.90325</v>
+        <v>10.89969</v>
       </c>
       <c r="AA164" t="n">
-        <v>4.658787</v>
+        <v>4.657429</v>
       </c>
       <c r="AB164" t="n">
-        <v>3.859004</v>
+        <v>3.857976</v>
       </c>
       <c r="AC164" t="n">
         <v>11.19529</v>
@@ -21203,13 +21203,13 @@
         <v>118.1678</v>
       </c>
       <c r="N165" t="n">
-        <v>10.66146</v>
+        <v>10.66094</v>
       </c>
       <c r="O165" t="n">
-        <v>4.825612</v>
+        <v>4.825401</v>
       </c>
       <c r="P165" t="n">
-        <v>4.069443</v>
+        <v>4.069262</v>
       </c>
       <c r="Q165" t="n">
         <v>10.71396</v>
@@ -21221,13 +21221,13 @@
         <v>4.122764</v>
       </c>
       <c r="T165" t="n">
-        <v>10.25895</v>
+        <v>10.25927</v>
       </c>
       <c r="U165" t="n">
-        <v>4.99649</v>
+        <v>4.996454</v>
       </c>
       <c r="V165" t="n">
-        <v>4.304022</v>
+        <v>4.303939</v>
       </c>
       <c r="W165" t="n">
         <v>10.59811</v>
@@ -21239,13 +21239,13 @@
         <v>4.541229</v>
       </c>
       <c r="Z165" t="n">
-        <v>10.97484</v>
+        <v>10.974</v>
       </c>
       <c r="AA165" t="n">
-        <v>4.693296</v>
+        <v>4.692939</v>
       </c>
       <c r="AB165" t="n">
-        <v>3.886715</v>
+        <v>3.886423</v>
       </c>
       <c r="AC165" t="n">
         <v>10.81167</v>
@@ -21328,13 +21328,13 @@
         <v>118.1835</v>
       </c>
       <c r="N166" t="n">
-        <v>10.66749</v>
+        <v>10.66719</v>
       </c>
       <c r="O166" t="n">
-        <v>4.834234</v>
+        <v>4.834168</v>
       </c>
       <c r="P166" t="n">
-        <v>4.075963</v>
+        <v>4.075922</v>
       </c>
       <c r="Q166" t="n">
         <v>10.9237</v>
@@ -21346,13 +21346,13 @@
         <v>3.951213</v>
       </c>
       <c r="T166" t="n">
-        <v>10.32691</v>
+        <v>10.32732</v>
       </c>
       <c r="U166" t="n">
-        <v>4.965845</v>
+        <v>4.965855</v>
       </c>
       <c r="V166" t="n">
-        <v>4.260592</v>
+        <v>4.26053</v>
       </c>
       <c r="W166" t="n">
         <v>10.63227</v>
@@ -21364,13 +21364,13 @@
         <v>4.229133</v>
       </c>
       <c r="Z166" t="n">
-        <v>10.95934</v>
+        <v>10.95947</v>
       </c>
       <c r="AA166" t="n">
-        <v>4.716814</v>
+        <v>4.716685</v>
       </c>
       <c r="AB166" t="n">
-        <v>3.916382</v>
+        <v>3.91622</v>
       </c>
       <c r="AC166" t="n">
         <v>11.12836</v>
@@ -21453,13 +21453,13 @@
         <v>118.0783</v>
       </c>
       <c r="N167" t="n">
-        <v>10.97348</v>
+        <v>10.97339</v>
       </c>
       <c r="O167" t="n">
-        <v>4.848432</v>
+        <v>4.84845</v>
       </c>
       <c r="P167" t="n">
-        <v>4.054235</v>
+        <v>4.054259</v>
       </c>
       <c r="Q167" t="n">
         <v>10.94559</v>
@@ -21471,10 +21471,10 @@
         <v>3.932134</v>
       </c>
       <c r="T167" t="n">
-        <v>10.5712</v>
+        <v>10.57132</v>
       </c>
       <c r="U167" t="n">
-        <v>4.99869</v>
+        <v>4.998702</v>
       </c>
       <c r="V167" t="n">
         <v>4.261262</v>
@@ -21489,13 +21489,13 @@
         <v>4.204367</v>
       </c>
       <c r="Z167" t="n">
-        <v>11.23695</v>
+        <v>11.23762</v>
       </c>
       <c r="AA167" t="n">
-        <v>4.729045</v>
+        <v>4.729067</v>
       </c>
       <c r="AB167" t="n">
-        <v>3.897717</v>
+        <v>3.897653</v>
       </c>
       <c r="AC167" t="n">
         <v>11.03498</v>
@@ -21578,13 +21578,13 @@
         <v>118.3393</v>
       </c>
       <c r="N168" t="n">
-        <v>10.7731</v>
+        <v>10.77298</v>
       </c>
       <c r="O168" t="n">
-        <v>4.860438</v>
+        <v>4.860381</v>
       </c>
       <c r="P168" t="n">
-        <v>4.090658</v>
+        <v>4.090609</v>
       </c>
       <c r="Q168" t="n">
         <v>10.29804</v>
@@ -21596,13 +21596,13 @@
         <v>3.937186</v>
       </c>
       <c r="T168" t="n">
-        <v>10.5491</v>
+        <v>10.54914</v>
       </c>
       <c r="U168" t="n">
-        <v>4.975181</v>
+        <v>4.975179</v>
       </c>
       <c r="V168" t="n">
-        <v>4.240565</v>
+        <v>4.240564</v>
       </c>
       <c r="W168" t="n">
         <v>9.930368</v>
@@ -21614,13 +21614,13 @@
         <v>4.066569</v>
       </c>
       <c r="Z168" t="n">
-        <v>10.95386</v>
+        <v>10.95505</v>
       </c>
       <c r="AA168" t="n">
-        <v>4.772938</v>
+        <v>4.772834</v>
       </c>
       <c r="AB168" t="n">
-        <v>3.975984</v>
+        <v>3.975714</v>
       </c>
       <c r="AC168" t="n">
         <v>10.58492</v>
@@ -21703,13 +21703,13 @@
         <v>118.0179</v>
       </c>
       <c r="N169" t="n">
-        <v>10.64409</v>
+        <v>10.64399</v>
       </c>
       <c r="O169" t="n">
-        <v>4.903501</v>
+        <v>4.903462</v>
       </c>
       <c r="P169" t="n">
-        <v>4.157095</v>
+        <v>4.157064</v>
       </c>
       <c r="Q169" t="n">
         <v>9.879394</v>
@@ -21721,13 +21721,13 @@
         <v>4.069369</v>
       </c>
       <c r="T169" t="n">
-        <v>10.62328</v>
+        <v>10.62358</v>
       </c>
       <c r="U169" t="n">
-        <v>5.07405</v>
+        <v>5.073931</v>
       </c>
       <c r="V169" t="n">
-        <v>4.342049</v>
+        <v>4.341878</v>
       </c>
       <c r="W169" t="n">
         <v>9.755242000000001</v>
@@ -21739,13 +21739,13 @@
         <v>4.207094</v>
       </c>
       <c r="Z169" t="n">
-        <v>10.68737</v>
+        <v>10.68752</v>
       </c>
       <c r="AA169" t="n">
-        <v>4.752513</v>
+        <v>4.752541</v>
       </c>
       <c r="AB169" t="n">
-        <v>3.99091</v>
+        <v>3.990905</v>
       </c>
       <c r="AC169" t="n">
         <v>10.04148</v>
@@ -21824,13 +21824,13 @@
         <v>117.7772</v>
       </c>
       <c r="N170" t="n">
-        <v>10.48822</v>
+        <v>10.48825</v>
       </c>
       <c r="O170" t="n">
-        <v>4.878473</v>
+        <v>4.878456</v>
       </c>
       <c r="P170" t="n">
-        <v>4.154717</v>
+        <v>4.154694</v>
       </c>
       <c r="Q170" t="n">
         <v>10.9448</v>
@@ -21842,13 +21842,13 @@
         <v>4.513269</v>
       </c>
       <c r="T170" t="n">
-        <v>10.01008</v>
+        <v>10.01014</v>
       </c>
       <c r="U170" t="n">
-        <v>5.026597</v>
+        <v>5.026596</v>
       </c>
       <c r="V170" t="n">
-        <v>4.374166</v>
+        <v>4.374172</v>
       </c>
       <c r="W170" t="n">
         <v>10.21434</v>
@@ -21860,13 +21860,13 @@
         <v>4.657471</v>
       </c>
       <c r="Z170" t="n">
-        <v>10.91796</v>
+        <v>10.91857</v>
       </c>
       <c r="AA170" t="n">
-        <v>4.743686</v>
+        <v>4.743655</v>
       </c>
       <c r="AB170" t="n">
-        <v>3.959782</v>
+        <v>3.959669</v>
       </c>
       <c r="AC170" t="n">
         <v>11.52721</v>
@@ -21941,13 +21941,13 @@
         <v>118.1803</v>
       </c>
       <c r="N171" t="n">
-        <v>10.95363</v>
+        <v>10.95398</v>
       </c>
       <c r="O171" t="n">
-        <v>4.896763</v>
+        <v>4.896883</v>
       </c>
       <c r="P171" t="n">
-        <v>4.115097</v>
+        <v>4.115188</v>
       </c>
       <c r="Q171" t="n">
         <v>11.21535</v>
@@ -21959,13 +21959,13 @@
         <v>4.414988</v>
       </c>
       <c r="T171" t="n">
-        <v>10.87698</v>
+        <v>10.87719</v>
       </c>
       <c r="U171" t="n">
-        <v>5.118834</v>
+        <v>5.118847</v>
       </c>
       <c r="V171" t="n">
-        <v>4.364516</v>
+        <v>4.364512</v>
       </c>
       <c r="W171" t="n">
         <v>10.93545</v>
@@ -21977,13 +21977,13 @@
         <v>4.590094</v>
       </c>
       <c r="Z171" t="n">
-        <v>11.06628</v>
+        <v>11.06682</v>
       </c>
       <c r="AA171" t="n">
-        <v>4.716266</v>
+        <v>4.716474</v>
       </c>
       <c r="AB171" t="n">
-        <v>3.906199</v>
+        <v>3.906368</v>
       </c>
       <c r="AC171" t="n">
         <v>11.36308</v>
@@ -22058,13 +22058,13 @@
         <v>118.292</v>
       </c>
       <c r="N172" t="n">
-        <v>10.94774</v>
+        <v>10.94808</v>
       </c>
       <c r="O172" t="n">
-        <v>4.932628</v>
+        <v>4.9327</v>
       </c>
       <c r="P172" t="n">
-        <v>4.150972</v>
+        <v>4.151013</v>
       </c>
       <c r="Q172" t="n">
         <v>10.89211</v>
@@ -22076,13 +22076,13 @@
         <v>4.281458</v>
       </c>
       <c r="T172" t="n">
-        <v>11.04571</v>
+        <v>11.04544</v>
       </c>
       <c r="U172" t="n">
-        <v>5.250094</v>
+        <v>5.250111</v>
       </c>
       <c r="V172" t="n">
-        <v>4.483075</v>
+        <v>4.483137</v>
       </c>
       <c r="W172" t="n">
         <v>10.79599</v>
@@ -22094,13 +22094,13 @@
         <v>4.553964</v>
       </c>
       <c r="Z172" t="n">
-        <v>10.96888</v>
+        <v>10.96868</v>
       </c>
       <c r="AA172" t="n">
-        <v>4.669107</v>
+        <v>4.669223</v>
       </c>
       <c r="AB172" t="n">
-        <v>3.863416</v>
+        <v>3.863572</v>
       </c>
       <c r="AC172" t="n">
         <v>11.06734</v>
@@ -22173,13 +22173,13 @@
         <v>117.7027</v>
       </c>
       <c r="N173" t="n">
-        <v>10.85092</v>
+        <v>10.8514</v>
       </c>
       <c r="O173" t="n">
-        <v>4.917223</v>
+        <v>4.917408</v>
       </c>
       <c r="P173" t="n">
-        <v>4.143831</v>
+        <v>4.143982</v>
       </c>
       <c r="Q173" t="n">
         <v>10.36477</v>
@@ -22191,13 +22191,13 @@
         <v>4.105252</v>
       </c>
       <c r="T173" t="n">
-        <v>10.76048</v>
+        <v>10.76026</v>
       </c>
       <c r="U173" t="n">
-        <v>5.095182</v>
+        <v>5.095285</v>
       </c>
       <c r="V173" t="n">
-        <v>4.35234</v>
+        <v>4.352492</v>
       </c>
       <c r="W173" t="n">
         <v>10.19622</v>
@@ -22209,13 +22209,13 @@
         <v>4.223202</v>
       </c>
       <c r="Z173" t="n">
-        <v>11.01469</v>
+        <v>11.01661</v>
       </c>
       <c r="AA173" t="n">
-        <v>4.762929</v>
+        <v>4.763181</v>
       </c>
       <c r="AB173" t="n">
-        <v>3.953954</v>
+        <v>3.953979</v>
       </c>
       <c r="AC173" t="n">
         <v>10.64759</v>
@@ -22284,13 +22284,13 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>11.02934</v>
+        <v>11.03054</v>
       </c>
       <c r="O174" t="n">
-        <v>4.914043</v>
+        <v>4.914544</v>
       </c>
       <c r="P174" t="n">
-        <v>4.121404</v>
+        <v>4.121818</v>
       </c>
       <c r="Q174" t="n">
         <v>10.97753</v>
@@ -22302,13 +22302,13 @@
         <v>4.003097</v>
       </c>
       <c r="T174" t="n">
-        <v>10.78038</v>
+        <v>10.77928</v>
       </c>
       <c r="U174" t="n">
-        <v>5.008199</v>
+        <v>5.008327</v>
       </c>
       <c r="V174" t="n">
-        <v>4.255788</v>
+        <v>4.256047</v>
       </c>
       <c r="W174" t="n">
         <v>10.73931</v>
@@ -22320,13 +22320,13 @@
         <v>4.079948</v>
       </c>
       <c r="Z174" t="n">
-        <v>11.34332</v>
+        <v>11.34506</v>
       </c>
       <c r="AA174" t="n">
-        <v>4.834002</v>
+        <v>4.834812</v>
       </c>
       <c r="AB174" t="n">
-        <v>3.994018</v>
+        <v>3.994703</v>
       </c>
       <c r="AC174" t="n">
         <v>11.24856</v>
@@ -22395,13 +22395,13 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>11.09861</v>
+        <v>11.0994</v>
       </c>
       <c r="O175" t="n">
-        <v>5.002978</v>
+        <v>5.00362</v>
       </c>
       <c r="P175" t="n">
-        <v>4.211777</v>
+        <v>4.212411</v>
       </c>
       <c r="Q175" t="n">
         <v>11.62074</v>
@@ -22413,13 +22413,13 @@
         <v>4.077855</v>
       </c>
       <c r="T175" t="n">
-        <v>10.8816</v>
+        <v>10.88089</v>
       </c>
       <c r="U175" t="n">
-        <v>5.2183</v>
+        <v>5.218716</v>
       </c>
       <c r="V175" t="n">
-        <v>4.477261</v>
+        <v>4.477828</v>
       </c>
       <c r="W175" t="n">
         <v>11.4755</v>
@@ -22431,13 +22431,13 @@
         <v>4.386922</v>
       </c>
       <c r="Z175" t="n">
-        <v>11.34652</v>
+        <v>11.3452</v>
       </c>
       <c r="AA175" t="n">
-        <v>4.821222</v>
+        <v>4.822048</v>
       </c>
       <c r="AB175" t="n">
-        <v>3.980047</v>
+        <v>3.981118</v>
       </c>
       <c r="AC175" t="n">
         <v>11.80056</v>
